--- a/output/excel/vehicle_routes.xlsx
+++ b/output/excel/vehicle_routes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G273"/>
+  <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,20 +484,20 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1007382704</t>
+          <t>1005902002</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ИЛЕМА ТРЕЙД ООД</t>
+          <t>ВЕСМАР 3 ЕООД</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>42.61364,23.4149</t>
+          <t>42.74130494689523,23.276658095419407</t>
         </is>
       </c>
     </row>
@@ -515,20 +515,20 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1007378701</t>
+          <t>1005721805</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ПОРТОКАЛИТЕ ЕООД</t>
+          <t>РОНИ -4 ЕООД</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>42.62161,23.44089</t>
+          <t>42.74285,23.27425</t>
         </is>
       </c>
     </row>
@@ -546,20 +546,20 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1005136702</t>
+          <t>1005312801</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>РЕЙЛИ СТАР ООД</t>
+          <t>БОГДАН 93 ЕООД</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>42.6004,23.49581</t>
+          <t>42.73572860901619,23.305056585521697</t>
         </is>
       </c>
     </row>
@@ -577,20 +577,20 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1007212801</t>
+          <t>1005349301</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ВИА-ВИЛИ ЕООД</t>
+          <t>МАЛИ - МАНОИЛ МАЛИНОВ ЕТ</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>42.6015,23.48303</t>
+          <t>42.73610488931454,23.304809822292327</t>
         </is>
       </c>
     </row>
@@ -608,20 +608,20 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1005527601</t>
+          <t>1005946501</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>КИТ КРИС МАРТ ООД</t>
+          <t>Е - 2017 ЕООД</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>42.6013,23.48232</t>
+          <t>42.73782776013468,23.305455297231674</t>
         </is>
       </c>
     </row>
@@ -639,20 +639,20 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1005956001</t>
+          <t>1007157401</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>СБГ Груп ЕООД</t>
+          <t>РОРИ ООД</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>42.60334,23.47497</t>
+          <t>42.73636,23.30684</t>
         </is>
       </c>
     </row>
@@ -670,20 +670,20 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1005977702</t>
+          <t>1005346169</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ТВОЕТО КАФЕ ЕООД</t>
+          <t>БАКАЛИЯ 2014 ООД</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>42.68054,23.46529</t>
+          <t>42.73972,23.30923</t>
         </is>
       </c>
     </row>
@@ -701,20 +701,20 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1007331001</t>
+          <t>1005316401</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ММВ 300317 ЕООД</t>
+          <t>ВАЛЕНТИН РАДЕНКОВ ЕТ</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>42.68055,23.46481</t>
+          <t>42.732604015312006,23.31058998271942</t>
         </is>
       </c>
     </row>
@@ -732,20 +732,20 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1003930801</t>
+          <t>1007221901</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Идеа 2009-Попови ООД</t>
+          <t>МАРКЕТ 03 ЕООД</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>42.71398,23.85605</t>
+          <t>42.73309,23.31089</t>
         </is>
       </c>
     </row>
@@ -763,20 +763,20 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1005211010</t>
+          <t>1007149701</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ПК ЗЛАТИЦА 91</t>
+          <t>РАЯ 2706 ЕООД</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>42.66046,24.05546</t>
+          <t>42.73408,23.30923</t>
         </is>
       </c>
     </row>
@@ -794,20 +794,20 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1007049201</t>
+          <t>1005796403</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>НРГ 28 ЕООД</t>
+          <t>БИЛЯНА ТРЕЙД 2014 ЕООД</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>42.66088854666696,24.055563881993294</t>
+          <t>42.733476877507066,23.308477140963078</t>
         </is>
       </c>
     </row>
@@ -825,20 +825,20 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1005211004</t>
+          <t>1007272901</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ПК ЗЛАТИЦА 91</t>
+          <t>КИАРА23 ЕООД</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>42.71961,24.13454</t>
+          <t>42.72581628718797,23.30346375703812</t>
         </is>
       </c>
     </row>
@@ -856,20 +856,20 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1005211001</t>
+          <t>1005355401</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ПК ЗЛАТИЦА 91</t>
+          <t>ОЛЯ - НАСКО ЕООД</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>42.7134,24.14001</t>
+          <t>42.72507,23.3041</t>
         </is>
       </c>
     </row>
@@ -887,20 +887,20 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1005888201</t>
+          <t>1005262701</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>АЛЕКСА ФУУД ЕООД</t>
+          <t>ДЕНИ - 74 - ДАМЯН ДЕЯНОВ ЕТ</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>42.702438806055085,24.17235229164362</t>
+          <t>42.72600174843541,23.305461667478085</t>
         </is>
       </c>
     </row>
@@ -918,20 +918,20 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1007186602</t>
+          <t>1007358301</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ХРИСИ И МАГИ ЕООД</t>
+          <t>ЛОЗАНОВ ТРЕЙД ЕООД</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>6</v>
+        <v>11.5</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>42.69993,24.18047</t>
+          <t>42.72719060836209,23.3111422508955</t>
         </is>
       </c>
     </row>
@@ -949,20 +949,20 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1005727802</t>
+          <t>1005796704</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>АСЯ - ТРАНС ЕООД</t>
+          <t>ДОНАЛД 2023 ЕООД</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>42.70051595152338,24.176298156380653</t>
+          <t>42.726603939499405,23.312118910253044</t>
         </is>
       </c>
     </row>
@@ -980,20 +980,20 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1005727803</t>
+          <t>1007394101</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>АСЯ - ТРАНС ЕООД</t>
+          <t>ЕТ ЮРИГ-ЮЛИЯ ГЕОРГИЕВА КОЛЕВА</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>42.69952394818372,24.175536073744297</t>
+          <t>42.726758, 23.316092</t>
         </is>
       </c>
     </row>
@@ -1011,20 +1011,20 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1005126701</t>
+          <t>1005972609</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ЕРА 2006 ЕООД</t>
+          <t>МЕМО 1991 ЕООД</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>42.7035,24.17983</t>
+          <t>42.740068586917275,23.31717185676098</t>
         </is>
       </c>
     </row>
@@ -1042,20 +1042,20 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1001030024</t>
+          <t>1005518902</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>КОМЕ ООД</t>
+          <t>АНИСТА 98 ЕООД</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>42.67083227939056,23.598561733961105</t>
+          <t>42.74027567462329,23.317370675504204</t>
         </is>
       </c>
     </row>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1003054701</t>
+          <t>1005418005</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ПУМА 02 ЕООД</t>
+          <t>АТАНАСОВ МАРКЕТ ЕООД</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>42.44603,23.81704</t>
+          <t>42.74963,23.31696</t>
         </is>
       </c>
     </row>
@@ -1104,20 +1104,20 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1003906101</t>
+          <t>1005418001</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>РОЗА-11 ЕООД</t>
+          <t>АТАНАСОВ МАРКЕТ ЕООД</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>42.444,23.81495</t>
+          <t>42.7509354061623,23.31816440475768</t>
         </is>
       </c>
     </row>
@@ -1135,20 +1135,20 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1003045701</t>
+          <t>1005262001</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ДИА - СИ ООД</t>
+          <t>С + С - СИЛВА БОЖИЛОВА ЕТ</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>42.44329446699011,23.81559234112501</t>
+          <t>42.75129,23.31821</t>
         </is>
       </c>
     </row>
@@ -1166,20 +1166,20 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1005364268</t>
+          <t>1005364260</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ФРЕШ МАРКЕТ 2018 ООД</t>
+          <t>ФРЕШ МАРКЕТ 2017 ООД</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>42.44007,23.81606</t>
+          <t>42.78426378405149,23.274518363177776</t>
         </is>
       </c>
     </row>
@@ -1197,12 +1197,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1007373201</t>
+          <t>1005973001</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ГТ КРАСИ 2018 ЕООД</t>
+          <t>ВАГЕР 96 ЕООД</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>42.43555,23.81736</t>
+          <t>42.82423,23.28429</t>
         </is>
       </c>
     </row>
@@ -1228,20 +1228,20 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1007986203</t>
+          <t>1001030032</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ХРИС - КО 2021 ЕООД</t>
+          <t>КОМЕ ООД</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>14.5</v>
+        <v>3</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>42.43576,23.81742</t>
+          <t>42.95998703256908,23.35085604339838</t>
         </is>
       </c>
     </row>
@@ -1259,20 +1259,20 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1003054702</t>
+          <t>1005342801</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ПУМА 02 ЕООД</t>
+          <t>АЛАС 70 ЕООД</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>42.43382,23.8214</t>
+          <t>42.8494443547511,23.220255865306853</t>
         </is>
       </c>
     </row>
@@ -1290,20 +1290,20 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1003138201</t>
+          <t>1005807801</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>В ЕНД П ГЕРИНСКИ ЕООД</t>
+          <t>ФЕНИКС - КОМЕРС - 09  ООД</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>42.433759830997886,23.82345389574766</t>
+          <t>42.85049,23.21458</t>
         </is>
       </c>
     </row>
@@ -1321,20 +1321,20 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1003053901</t>
+          <t>1001030038</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>РАЛИ ЕНД ПАРТНЪРС ЕООД</t>
+          <t>КОМЕ ООД</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>4.5</v>
+        <v>12</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>42.43331664076029,23.82074151188135</t>
+          <t>42.81010993986175,23.217612616717815</t>
         </is>
       </c>
     </row>
@@ -1352,20 +1352,20 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1003053003</t>
+          <t>1005333402</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>САКСА ООД</t>
+          <t>ИЛИЯНА ДОБРИНОВА - 2009 ООД</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>42.44779,23.76403</t>
+          <t>42.76824,23.19739</t>
         </is>
       </c>
     </row>
@@ -1383,20 +1383,20 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1003937001</t>
+          <t>1005364228</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>СМАК 21 ЕООД</t>
+          <t>ФРЕШ МАРКЕТ 2013 ЕООД</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>42.44814,23.75995</t>
+          <t>42.76495306343535,23.196528777480125</t>
         </is>
       </c>
     </row>
@@ -1414,20 +1414,20 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1003054601</t>
+          <t>1005364263</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>НИКОЛ-2008-ЛИЛИ ГЕОРГИЕВА ЕТ</t>
+          <t>ФРЕШ МАРКЕТ 2018 ООД</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>42.47974,23.75431</t>
+          <t>42.75906,23.20451</t>
         </is>
       </c>
     </row>
@@ -1445,20 +1445,20 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1003048701</t>
+          <t>1003955001</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ИРА НИКОЛОВА ЕООД</t>
+          <t>УНИ ЕНЕРДЖИ ООД</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>42.47976699646284,23.752245164957457</t>
+          <t>42.77412533597572,23.18643931299448</t>
         </is>
       </c>
     </row>
@@ -1476,57 +1476,57 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1003053002</t>
+          <t>1005746405</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>САКСА ООД</t>
+          <t>ЕКТА 2016 ЕООД</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>42.33212,23.98785</t>
+          <t>42.73434,23.23653</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
+        <v>2</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Вътрешен автобус</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
         <v>1</v>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Вътрешен автобус</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>34</v>
-      </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1003043701</t>
+          <t>1007387101</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ВАСИМЕКС-СТРИНСКИ И С-ИЕ СД</t>
+          <t>ЕТ БОЙКА АНДОНОВА-ЖЕКОВЕЦА</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>42.33304676261118,23.8730164244771</t>
+          <t>42.61223,23.04709</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1534,30 +1534,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1003044001</t>
+          <t>1007953202</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ДЕВА-78 ЕТ</t>
+          <t>ТЕСИ-АНЕСТИЕВИ ЕООД</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>42.261680411823534,23.82338885217905</t>
+          <t>42.61608,23.0328</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1565,30 +1565,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1007376601</t>
+          <t>1007383101</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>МИСТЪР МИЛАНО ООД</t>
+          <t>БРЕЗНИК 23 ООД</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>42.263019067084485,23.826449252665043</t>
+          <t>42.61277,23.03615</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1596,30 +1596,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1003924701</t>
+          <t>1005161904</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>СЛ КОМПАНИЯ ЕАД</t>
+          <t>НИКАР ГРУП ЕООД</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>42.3084,23.86455</t>
+          <t>42.60999,23.03389</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1627,30 +1627,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1007135401</t>
+          <t>1005161901</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Б И Б - 1969 ЕООД</t>
+          <t>НИКАР ГРУП ЕООД</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>42.33305,23.87338</t>
+          <t>42.6097,23.03332</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1658,30 +1658,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1007335501</t>
+          <t>1005373201</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ДМЗ ГРУП ООД</t>
+          <t>РАВАС 8 ООД</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>7.5</v>
+        <v>19</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>42.68994,23.354</t>
+          <t>42.60722,23.03026</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1689,24 +1689,24 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1005270001</t>
+          <t>1005849101</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>РУМИК - РУМЕН ТОДОРОВ ЕТ</t>
+          <t>ИВИ - 2015 ЕООД</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>42.720652863702696,23.340554280729293</t>
+          <t>42.60722,23.03077</t>
         </is>
       </c>
     </row>
@@ -1720,24 +1720,24 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1007233801</t>
+          <t>1005698809</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ДЕАЛ КЪМПАНИ ЕООД</t>
+          <t>ЕКСПАНЖЪН ООД</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>42.689312242548205,23.37066315114498</t>
+          <t>42.60459,23.03078</t>
         </is>
       </c>
     </row>
@@ -1751,24 +1751,24 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1005207402</t>
+          <t>1007270801</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>КАМЕЙ ЕООД</t>
+          <t>МЕРИДИАН ПЛАНЕТ ЕООД</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>42.68151,23.37229</t>
+          <t>42.60649,23.0327</t>
         </is>
       </c>
     </row>
@@ -1782,24 +1782,24 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1007071701</t>
+          <t>1007270801</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>ЕДЕН 1991 ЕООД</t>
+          <t>МЕРИДИАН ПЛАНЕТ ЕООД</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>42.68186,23.3736</t>
+          <t>42.60649,23.0327</t>
         </is>
       </c>
     </row>
@@ -1813,24 +1813,24 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1005945504</t>
+          <t>1007325001</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>КРИСКО-М 2017 ЕООД</t>
+          <t>МБМ-13 ЕООД</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>42.68127,23.37347</t>
+          <t>42.60435,23.02891</t>
         </is>
       </c>
     </row>
@@ -1844,24 +1844,24 @@
         </is>
       </c>
       <c r="C46" t="n">
+        <v>12</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1005202304</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ДИЕЛ ЕООД</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
         <v>5</v>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>1005087006</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>ДЕНИ 2000 ООД</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>9</v>
-      </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>42.68134,23.3736</t>
+          <t>42.60347,23.03058</t>
         </is>
       </c>
     </row>
@@ -1875,24 +1875,24 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1005058309</t>
+          <t>1007183501</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ЗОДИ-РАЙ ООД</t>
+          <t>И-ВАЙЛ КЕТЪРИНГ 2012 ООД</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>42.68051,23.37326</t>
+          <t>42.60426,23.02905</t>
         </is>
       </c>
     </row>
@@ -1906,24 +1906,24 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1005984701</t>
+          <t>1005896505</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>ТАНДЕМ 96 ЕООД</t>
+          <t>НЕЛАН ЕООД</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>42.68021,23.36709</t>
+          <t>42.60369,23.02857</t>
         </is>
       </c>
     </row>
@@ -1937,24 +1937,24 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1005812303</t>
+          <t>1005324402</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>САКСА ООД</t>
+          <t>РЕА 09 ЕООД</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>42.67407,23.38011</t>
+          <t>42.59737,23.02295</t>
         </is>
       </c>
     </row>
@@ -1968,24 +1968,24 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1005831201</t>
+          <t>1003956201</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>НИКОЛ ТРЕЙДИНГ ОБОРОТ ЕООД</t>
+          <t>РУМАЕЛ ЕООД</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>42.68925,23.38259</t>
+          <t>42.59611,23.02445</t>
         </is>
       </c>
     </row>
@@ -1999,24 +1999,24 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1007208401</t>
+          <t>1005382601</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>ЗОРНИЦА И ДЪЩЕРИ ПР ЕООД</t>
+          <t>ГЕОРГИ КИРИЛОВ-СЮГИ ЕТ</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>15.5</v>
+        <v>3.5</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>42.68929,23.38279</t>
+          <t>42.606221814408364,23.032721175403594</t>
         </is>
       </c>
     </row>
@@ -2030,24 +2030,24 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1007977801</t>
+          <t>1007009201</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>ТОПЛИВО АД</t>
+          <t>МИНИМАРКЕТ БОНБОН 2018 ООД</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>33</v>
+        <v>3.5</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>42.7094,23.39828</t>
+          <t>42.60512,23.03399</t>
         </is>
       </c>
     </row>
@@ -2061,30 +2061,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1005798410</t>
+          <t>1005690602</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>ИНТЕРСПИЙД ЕООД</t>
+          <t>ЕВРОКОМЕРС 2018 ЕООД</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>42.70896,23.42805</t>
+          <t>42.60391,23.03257</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -2092,16 +2092,16 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1005077401</t>
+          <t>1007326701</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>САМАРКО- ВАСИЛ КРЪСТАНОВ   ЕТ</t>
+          <t>ВИТА ФОРТУНА ООД</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -2109,44 +2109,44 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>42.69982372984965,23.492229177207946</t>
+          <t>42.64944,23.26398</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
+        <v>3</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Вътрешен автобус</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
         <v>2</v>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Вътрешен автобус</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>14</v>
-      </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1001150503</t>
+          <t>1005115901</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ВАСИЛКА БГ ЕООД</t>
+          <t>АДИА ТРЕЙД ЕООД</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>11</v>
+        <v>16.5</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>42.6999147392701,23.49207267165184</t>
+          <t>42.64875,23.26254</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -2154,30 +2154,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1007217801</t>
+          <t>1001060018</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Д И Н ТРЕЙД ЕООД</t>
+          <t>345 ООД</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>3</v>
+        <v>7.625</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>42.66461,23.4629</t>
+          <t>42.64308649204917,23.282867074012756</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2185,30 +2185,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1005136102</t>
+          <t>1007250302</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>ЕДЕЛВАЙС - И ЕООД</t>
+          <t>Я И КО ИНВЕСТМЪНТ ГРУП ООД</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>42.66246,23.46452</t>
+          <t>42.63534,23.30058</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -2216,30 +2216,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1005970001</t>
+          <t>1007183901</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>ИЗИ ТРЕЙД 2017 ООД</t>
+          <t>ЛОЗЯ ООД</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>42.66134,23.46456</t>
+          <t>42.63047,23.30638</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2247,30 +2247,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>1001030036</t>
+          <t>1005561202</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>КОМЕ ООД</t>
+          <t>БЕРН 2011 ЕООД</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>42.660935,23.46092</t>
+          <t>42.62869,23.30977</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -2278,30 +2278,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>1005053604</t>
+          <t>1007380801</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>САНИ-М 1962 ЕООД</t>
+          <t>МА ЛИ 5 ЕООД</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>42.6595,23.46002</t>
+          <t>42.62864,23.30928</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -2309,30 +2309,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>1005193303</t>
+          <t>1005156903</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>ТАНЯ ДИМИТРОВА-АЛЕКСАНДРА 2006 ЕТ</t>
+          <t>АЙ ЕНД ДИ ТРЕЙДИНГ ЕООД</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>9.5</v>
+        <v>14</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>42.65897,23.45827</t>
+          <t>42.62899,23.3093</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -2340,30 +2340,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>1005155701</t>
+          <t>1007236301</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>НАЗАРЕТ МОЛ ЕООД</t>
+          <t>ТИФАНИ ЕКСПРЕС ЕООД</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>42.657736179918885,23.462510301322936</t>
+          <t>42.62928,23.31163</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2371,30 +2371,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>1005364244</t>
+          <t>1005963501</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>ФРЕШ МАРКЕТ 2014 ООД</t>
+          <t>АЛМИЕЛА - АЛЕКСАНДЪР МИЛАНОВ ЕТ</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>20.5</v>
+        <v>6</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>42.65701,23.46543</t>
+          <t>42.63412,23.31023</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -2402,30 +2402,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1007321301</t>
+          <t>1004903401</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>ЛИЛБО ТРЕЙД ЕООД</t>
+          <t>ХЕЛ ЕНЕРДЖИ БЪЛГАРИЯ ЕООД</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>9</v>
+        <v>14.333</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>42.66304,23.46378</t>
+          <t>42.65820868837977,23.31713765859604</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2433,30 +2433,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1007182201</t>
+          <t>1005960206</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>ФАСТ ФУУД 2020 ООД</t>
+          <t>СИЛВЪР СТРИЙТ ШОП ЕООД</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>42.66436,23.45414</t>
+          <t>42.65935,23.31689</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2464,16 +2464,16 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1007275901</t>
+          <t>1005918603</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>АИС 2023 ООД</t>
+          <t>ЕМ ТРЕЙД 13 ЕООД</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -2481,13 +2481,13 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>42.67617,23.43357</t>
+          <t>42.65932,23.31685</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -2495,30 +2495,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1005527501</t>
+          <t>1007220402</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>СЛАВЯНКА 50 ЕООД</t>
+          <t>ПРОГРЕС БГ 18  ЕООД</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>42.67623,23.43286</t>
+          <t>42.65669,23.34486</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -2526,30 +2526,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1005115501</t>
+          <t>1007220401</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>ЦВЕТАКС ЕООД</t>
+          <t>ПРОГРЕС БГ 18  ЕООД</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>42.66487,23.423</t>
+          <t>42.65558,23.34383</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -2557,30 +2557,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1005052803</t>
+          <t>1005884901</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>АБДИ-СИТИ ООД</t>
+          <t>ЯНИС ТРЕЙД ЕООД</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>42.66447,23.4233</t>
+          <t>42.65352,23.342675</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -2588,30 +2588,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1005863901</t>
+          <t>1007044102</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>ДМ МАРКЕТ ООД</t>
+          <t>ФРОНТ ФАКТ ЕООД</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>42.61189,23.41377</t>
+          <t>42.6544,23.34526</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -2619,24 +2619,24 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1005163901</t>
+          <t>1007044101</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>МИМЕКС ТРЕЙД ЕООД</t>
+          <t>ФРОНТ ФАКТ ЕООД</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>42.61646,23.41833</t>
+          <t>42.64985,23.3503</t>
         </is>
       </c>
     </row>
@@ -2650,24 +2650,24 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1007937801</t>
+          <t>1005961804</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>ЕМПЕРА ТРЕЙД ЕООД</t>
+          <t>ФУУДУЕЙС ЕООД</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>42.60337,23.11144</t>
+          <t>42.66607,23.357</t>
         </is>
       </c>
     </row>
@@ -2681,24 +2681,24 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>1005698301</t>
+          <t>1005961802</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>АВЕКО - 1 ЕООД</t>
+          <t>ФУУДУЕЙС ЕООД</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>42.60631,23.04535</t>
+          <t>42.66145,23.38024</t>
         </is>
       </c>
     </row>
@@ -2712,24 +2712,24 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>1005202302</t>
+          <t>1005961805</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>ДИЕЛ ЕООД</t>
+          <t>ФУУДУЕЙС ЕООД</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>42.6014550888148,23.02548699080944</t>
+          <t>42.67014,23.37162</t>
         </is>
       </c>
     </row>
@@ -2743,24 +2743,24 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1007950802</t>
+          <t>1001030002</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>КАРТЕРОС - ЙОР УЕДИНГ ДРИЙМ ЕООД</t>
+          <t>КОМЕ ООД</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>42.60128,23.02111</t>
+          <t>42.6543094,23.397014200000058</t>
         </is>
       </c>
     </row>
@@ -2774,24 +2774,24 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1005324404</t>
+          <t>1001060009</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>РЕА 09 ЕООД</t>
+          <t>345 ООД</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>42.61675,23.02717</t>
+          <t>42.67621223717643,23.360881805419922</t>
         </is>
       </c>
     </row>
@@ -2805,24 +2805,24 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1005568202</t>
+          <t>1005487565</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>МИКРИ 1 - ЕК ЕООД</t>
+          <t>А И А ТРЕЙД ООД</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>42.61607,23.02993</t>
+          <t>42.68832,23.3294</t>
         </is>
       </c>
     </row>
@@ -2836,24 +2836,24 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1005202305</t>
+          <t>1005487542</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>ДИЕЛ ЕООД</t>
+          <t>А И А ТРЕЙД ООД</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>42.59617643232653,23.023387088031768</t>
+          <t>42.68471,23.32117</t>
         </is>
       </c>
     </row>
@@ -2867,24 +2867,24 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1007297301</t>
+          <t>1005487516</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>АДИ 102020 ЕООД</t>
+          <t>А И А ТРЕЙД ООД</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>42.54793,22.95926</t>
+          <t>42.67973749002523,23.324913047254086</t>
         </is>
       </c>
     </row>
@@ -2898,24 +2898,24 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1005598201</t>
+          <t>1005236012</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>ГАБИ - 28 ЕООД</t>
+          <t>ГИПС ГРУП ООД</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>42.54601,22.95897</t>
+          <t>42.67728,23.30053</t>
         </is>
       </c>
     </row>
@@ -2929,24 +2929,24 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1005461501</t>
+          <t>1005016201</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>ОЛИНИКС ЕООД</t>
+          <t>АНДМАРТ ЕООД</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>42.54525,22.96484</t>
+          <t>42.67618,23.3004</t>
         </is>
       </c>
     </row>
@@ -2960,24 +2960,24 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1005852002</t>
+          <t>1005487559</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>ГАРАНТ - С ЕООД</t>
+          <t>АЛКОХОЛ И ТАБАКОФФ ЕООД</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>42.54202,22.97067</t>
+          <t>42.67706,23.30333</t>
         </is>
       </c>
     </row>
@@ -2991,24 +2991,24 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>1005202701</t>
+          <t>1005659001</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>В.НИКОЛОВ-САБИНА МАРИЕТА ЕТ</t>
+          <t>ГОЛДЪН ФЕНИКС ЕООД</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>24</v>
+        <v>8.5</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>42.540294138988884,22.966933293790816</t>
+          <t>42.6721,23.30177</t>
         </is>
       </c>
     </row>
@@ -3022,24 +3022,24 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>1005928901</t>
+          <t>1001030015</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>МАГА ИВАНОВА ЕТ</t>
+          <t>КОМЕ ООД</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>42.52112,22.95335</t>
+          <t>42.666830877135354,23.30027152463913</t>
         </is>
       </c>
     </row>
@@ -3053,24 +3053,24 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1005596501</t>
+          <t>1001030014</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>АЛБЕНА - СТЕФИ ЕМ ЕООД</t>
+          <t>КОМЕ ООД</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>42.43307,22.89729</t>
+          <t>42.664767872290774,23.293110026569366</t>
         </is>
       </c>
     </row>
@@ -3084,24 +3084,24 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1002331201</t>
+          <t>1005487556</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>ФОРС 1990 ЕООД</t>
+          <t>АЛКОХОЛ И ТАБАКОФФ ЕООД</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>42.44643,23.12013</t>
+          <t>42.66888,23.27967</t>
         </is>
       </c>
     </row>
@@ -3115,24 +3115,24 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>1004903401</t>
+          <t>1005109102</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>ХЕЛ ЕНЕРДЖИ БЪЛГАРИЯ ЕООД</t>
+          <t>ДЕССКО - 2023 ЕООД</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>15.5</v>
+        <v>8</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>42.65820868837977,23.31713765859604</t>
+          <t>42.67502,23.28258</t>
         </is>
       </c>
     </row>
@@ -3146,24 +3146,24 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1005177403</t>
+          <t>1005321044</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>БОБИ 2009 ЕООД</t>
+          <t>АЛКОХОЛ ТАБАКО АБ ЕООД</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>42.65698842574273,23.338998332619667</t>
+          <t>42.67558,23.28322</t>
         </is>
       </c>
     </row>
@@ -3177,24 +3177,24 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>1005157901</t>
+          <t>1007369701</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>БИАНКА 2008 ЕООД</t>
+          <t>ТАЛИДА ЕООД</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>42.61595,23.33755</t>
+          <t>42.6781996840681,23.285266309976578</t>
         </is>
       </c>
     </row>
@@ -3208,24 +3208,24 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1005957601</t>
+          <t>1005832204</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>БОНУС - ВБ ООД</t>
+          <t>АНТИЧЕН КЛАДЕНЕЦ - БУДЖАКА ЕООД</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>42.61584,23.33774</t>
+          <t>42.67814,23.28515</t>
         </is>
       </c>
     </row>
@@ -3239,24 +3239,24 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>1007050601</t>
+          <t>1007982201</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>НИКОЛОВ ТРЕЙД 2017 ЕООД</t>
+          <t>КАЯ 2020 ЕООД</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>42.61213,23.33925</t>
+          <t>42.67903,23.28466</t>
         </is>
       </c>
     </row>
@@ -3270,24 +3270,24 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1005664002</t>
+          <t>1005146804</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>ВИКТОРИЯ ГРУП СОФИЯ ЕООД</t>
+          <t>СЕТИ ТРЕЙДИНГ  ЕООД</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>42.6236,23.33207</t>
+          <t>42.68219,23.29002</t>
         </is>
       </c>
     </row>
@@ -3301,24 +3301,24 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>1007154805</t>
+          <t>1007008703</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>АВИ СЪРВИС ООД</t>
+          <t>ИНТЕРФУТ 08 ООД</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>42.63,23.33356</t>
+          <t>42.68831759577158,23.29626403748989</t>
         </is>
       </c>
     </row>
@@ -3332,30 +3332,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>1005884405</t>
+          <t>1005988301</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>МИБО 82 ООД</t>
+          <t>ХИТЪР ПЕТЪР - ЛАГЕРА ЕООД</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>42.64221441975627,23.36895525455475</t>
+          <t>42.68632,23.29816</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -3363,30 +3363,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>1001080114</t>
+          <t>1005364239</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>НИКОН-НК ЕООД</t>
+          <t>ФРЕШ МАРКЕТ 2014 ООД</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>4</v>
+        <v>9.5</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>42.638388177531645,23.384007811546325</t>
+          <t>42.742509272255084,23.265327103435993</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -3394,16 +3394,16 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>1005996105</t>
+          <t>1005291502</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>ЕЛ ДЖИ АР ООД</t>
+          <t>ЕВРОТРЕЙД 2000 ЕООД</t>
         </is>
       </c>
       <c r="F96" t="n">
@@ -3411,44 +3411,44 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>42.62841,23.40785</t>
+          <t>42.737192434070785,23.2604206725955</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
+        <v>4</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Вътрешен автобус</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
         <v>3</v>
       </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Вътрешен автобус</t>
-        </is>
-      </c>
-      <c r="C97" t="n">
-        <v>26</v>
-      </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>1007130045</t>
+          <t>1007354001</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>ВИ&amp;ВИ ОЙЛ ЕООД</t>
+          <t>НИПО 2024 ЕООД</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>42.61186,23.39982</t>
+          <t>42.73765,23.26783</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -3456,30 +3456,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>1007329301</t>
+          <t>1007136601</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>ЕМ ШОП 666 ЕООД</t>
+          <t>СТЕО 17 ЕООД</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>42.60301,23.4023</t>
+          <t>42.73714219870896,23.26852429658175</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -3487,30 +3487,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>1007112103</t>
+          <t>1005265503</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>СТАНИ ЕМ 2019 ЕООД</t>
+          <t>АЛТЪНЦАЙК ЕООД</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>42.58369996667761,23.423188515007496</t>
+          <t>42.74014910742735,23.274908289313316</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -3518,30 +3518,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>1005897401</t>
+          <t>1005789101</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>ЕМ СИСИ ЕООД</t>
+          <t>ПАРТИ ФУУД ДЗЗД</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>42.58348,23.42332</t>
+          <t>42.69613,24.07431</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -3549,30 +3549,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>1005573304</t>
+          <t>1007240901</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>КЕМ-ЕМИЛ МИНЕВ 2012 ЕООД</t>
+          <t>ФОКС 2013 ООД</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>17</v>
+        <v>9.5</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>42.5767,23.41433</t>
+          <t>42.68187,23.56795</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -3580,24 +3580,24 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>1005573301</t>
+          <t>1007195201</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>КЕМ-ЕМИЛ МИНЕВ 2012 ЕООД</t>
+          <t>Г И Е ЧАКЪРОВИ ЕООД</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>42.59302,23.41064</t>
+          <t>42.6673,23.52717</t>
         </is>
       </c>
     </row>
@@ -3611,24 +3611,24 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>1005297715</t>
+          <t>1005124408</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>СММ 1 ООД</t>
+          <t>НИКО - 2 ООД</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>42.82046,23.35394</t>
+          <t>42.66714,23.52625</t>
         </is>
       </c>
     </row>
@@ -3642,24 +3642,24 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>1005364222</t>
+          <t>1005059001</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>ФРЕШ МАРКЕТ 2011 ООД</t>
+          <t>ДЕСИСЛАВА - 93 - ДЕСИСЛАВА БОГДАНОВА ЕТ</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>42.80020450677645,23.342208601534367</t>
+          <t>42.66494,23.52982</t>
         </is>
       </c>
     </row>
@@ -3673,24 +3673,24 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>1005070602</t>
+          <t>1005589401</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>КАРМОНИ ЕООД</t>
+          <t>СЕЛ ООД</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>42.73242,23.47001</t>
+          <t>42.65975,23.52636</t>
         </is>
       </c>
     </row>
@@ -3704,24 +3704,24 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>1001150308</t>
+          <t>1001060014</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>БРИЛЯНТ - 34 ЕООД</t>
+          <t>345 ООД</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>42.73239206440237,23.473511449992657</t>
+          <t>42.6249628,23.40607669999997</t>
         </is>
       </c>
     </row>
@@ -3735,24 +3735,24 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>1005130301</t>
+          <t>1005487551</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>ЕРАМ-А ЕООД</t>
+          <t>АЛКОХОЛ И ТАБАКОФФ ЕООД</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>42.731973561176915,23.47536881134033</t>
+          <t>42.62686,23.38385</t>
         </is>
       </c>
     </row>
@@ -3766,24 +3766,24 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>1005752401</t>
+          <t>1001060005</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>ИВАН ДАКОВ ЕООД</t>
+          <t>345 ООД</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>42.73189,23.47585</t>
+          <t>42.62860686536667,23.37493121623993</t>
         </is>
       </c>
     </row>
@@ -3797,24 +3797,24 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>1007141301</t>
+          <t>1007331901</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>МАЛКА ПАНДА ЕООД</t>
+          <t>ВЕСТЕЛ 23 ЕООД</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>3</v>
+        <v>13.5</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>42.73185,23.47569</t>
+          <t>42.64082,23.34936</t>
         </is>
       </c>
     </row>
@@ -3828,24 +3828,24 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>1005290301</t>
+          <t>1007164501</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>ГЕРИ - ГЕРГИНА ИЛИЕВА ЕТ</t>
+          <t>ДЖИВИ ПАРТНЪРС ООД</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>42.74167,23.51132</t>
+          <t>42.64269,23.34391</t>
         </is>
       </c>
     </row>
@@ -3859,24 +3859,24 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>1001150502</t>
+          <t>1005787302</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>ВАСИЛКА БГ ЕООД</t>
+          <t>ЩЕРЕВИ 96 ЕООД</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>42.73909,23.51197</t>
+          <t>42.64354,23.34145</t>
         </is>
       </c>
     </row>
@@ -3890,24 +3890,24 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>1007322401</t>
+          <t>1007233501</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>ЦВЕТИ 1988 ЕООД</t>
+          <t>МЕРГО 2114 ЕООД</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>42.73659,23.5141</t>
+          <t>42.6435,23.33728</t>
         </is>
       </c>
     </row>
@@ -3921,24 +3921,24 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>1005390604</t>
+          <t>1005884903</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>МАРКЕТ МЕГА ЕООД</t>
+          <t>ЯНИС ТРЕЙД ЕООД</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>42.73667,23.51395</t>
+          <t>42.64327,23.33727</t>
         </is>
       </c>
     </row>
@@ -3952,24 +3952,24 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>1007128201</t>
+          <t>1005634906</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>ЛЮСИЕН КОМЕРС ЕООД</t>
+          <t>ВКУСНИ ЗАКУСКИ 2020 ЕООД</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>41</v>
+        <v>5.5</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>42.73674,23.51376</t>
+          <t>42.64436,23.33975</t>
         </is>
       </c>
     </row>
@@ -3983,24 +3983,24 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>1005954903</t>
+          <t>1007331501</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>ИВ-КАМЕЯ ЕООД</t>
+          <t>МИХАЙЛОВИ 24 ЕООД</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>42.73584,23.51286</t>
+          <t>42.64449,23.34049</t>
         </is>
       </c>
     </row>
@@ -4014,24 +4014,24 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>1005752403</t>
+          <t>1007279001</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>ИВАН ДАКОВ ЕООД</t>
+          <t>С-ТРЕЙД 2022 ЕООД</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>16</v>
+        <v>8.5</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>42.7385,23.51592</t>
+          <t>42.64448,23.34113</t>
         </is>
       </c>
     </row>
@@ -4045,24 +4045,24 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>1007010201</t>
+          <t>1005462005</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>ДЕНИС 2014 - МАРИЯНА СТАНЧЕВА ЕТ</t>
+          <t>ДИКОВ КОНСУЛТИНГ ЕООД</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>42.73799,23.51645</t>
+          <t>42.6486,23.34179</t>
         </is>
       </c>
     </row>
@@ -4076,24 +4076,24 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>1001150306</t>
+          <t>1005462005</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>БРИЛЯНТ - 34 ЕООД</t>
+          <t>ДИКОВ КОНСУЛТИНГ ЕООД</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>42.72084,23.53</t>
+          <t>42.6486,23.34179</t>
         </is>
       </c>
     </row>
@@ -4107,24 +4107,24 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>1007055201</t>
+          <t>1005884902</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>СТЕФАН ГРОЗДАНОВ 2012 ЕООД</t>
+          <t>ЯНИС ТРЕЙД ЕООД</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>42.72025,23.52763</t>
+          <t>42.648285,23.3411</t>
         </is>
       </c>
     </row>
@@ -4138,16 +4138,16 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>1005735901</t>
+          <t>1005462003</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>ГЕОРГИ ВАРАДИНОВ - 83 ЕООД</t>
+          <t>ДИКОВ КОНСУЛТИНГ ЕООД</t>
         </is>
       </c>
       <c r="F120" t="n">
@@ -4155,7 +4155,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>42.73187,23.55824</t>
+          <t>42.64416,23.34195</t>
         </is>
       </c>
     </row>
@@ -4169,24 +4169,24 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>1007139601</t>
+          <t>1007273101</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>МАРИО ТОНЕВ ЕООД</t>
+          <t>КИКО ШОП ЕООД</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>42.73239,23.55706</t>
+          <t>42.64114,23.33886</t>
         </is>
       </c>
     </row>
@@ -4200,24 +4200,24 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>1007186001</t>
+          <t>1007042413</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>ГД ДЕМИ-МИГ</t>
+          <t>ПАРТЕРЪ ООД</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>42.76151,23.56264</t>
+          <t>42.63974,23.34345</t>
         </is>
       </c>
     </row>
@@ -4231,24 +4231,24 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>1005852702</t>
+          <t>1007352401</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>ЯНЧЕВ И СИНОВЕ ЕООД</t>
+          <t>ВИМИКА ЕООД</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>42.76333,23.56445</t>
+          <t>42.63978,23.34332</t>
         </is>
       </c>
     </row>
@@ -4262,24 +4262,24 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>1005364204</t>
+          <t>1005301305</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>КАРОЛИНА ТРЕЙД ЕООД</t>
+          <t>ДУДИ  ЕООД</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>25</v>
+        <v>8.5</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>42.76511,23.56643</t>
+          <t>42.63803,23.33902</t>
         </is>
       </c>
     </row>
@@ -4293,24 +4293,24 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>1005752404</t>
+          <t>1005462009</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>ИВАН ДАКОВ ЕООД</t>
+          <t>ДИКОВ КОНСУЛТИНГ ЕООД</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>42.76512,23.56772</t>
+          <t>42.63751,23.33834</t>
         </is>
       </c>
     </row>
@@ -4324,24 +4324,24 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>1005726603</t>
+          <t>1007341701</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>МС МАРКЕТ ЕООД</t>
+          <t>БОГИ - 1524 ООД</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>42.78312,23.50552</t>
+          <t>42.63633,23.33847</t>
         </is>
       </c>
     </row>
@@ -4355,24 +4355,24 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>1007381201</t>
+          <t>1007333101</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>СКАРАТА ЕООД</t>
+          <t>ПЕРЛА 1-К  ЕООД</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>42.77907,23.49615</t>
+          <t>42.65683,23.334</t>
         </is>
       </c>
     </row>
@@ -4386,24 +4386,24 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>1005130303</t>
+          <t>1005171504</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>ЕРАМ-А ЕООД</t>
+          <t>ЯВОР 2009 ООД</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>42.712363238728564,23.40576012298584</t>
+          <t>42.65967,23.32182</t>
         </is>
       </c>
     </row>
@@ -4417,171 +4417,171 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>1005069001</t>
+          <t>1005789112</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>ВИМАД-АСЕНОВА ЕТ</t>
+          <t>ПАРТИ ФУУД АД</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>42.71296,23.41939</t>
+          <t>42.66483,23.32477</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Централен автобус</t>
+          <t>Вътрешен автобус</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>1007024902</t>
+          <t>1007289701</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>НАНА ФУУДС ЕООД</t>
+          <t>БЛЯК БИЙЧ ЕООД</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>42.66469,23.28811</t>
+          <t>42.66084,23.31657</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Централен автобус</t>
+          <t>Вътрешен автобус</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>1005798412</t>
+          <t>1005177501</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>ИНТЕРСПИЙД ЕООД</t>
+          <t>ЦЕЗАР И СИН ЕООД</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>19</v>
+        <v>4.5</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>42.66201,23.29461</t>
+          <t>42.662,23.31679</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Централен автобус</t>
+          <t>Вътрешен автобус</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>1001080105</t>
+          <t>1005828216</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>НИКОН-НК ЕООД</t>
+          <t>ВАГ КОМЕРС ЕООД</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>42.66056876469669,23.30046772956848</t>
+          <t>42.66262673138533,23.31686709076166</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Централен автобус</t>
+          <t>Вътрешен автобус</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>1007326102</t>
+          <t>1005475001</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>КРИСИС ШОП ЕООД</t>
+          <t>ФАКТОР 73 ЕООД</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>4.5</v>
+        <v>13</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>42.66083,23.3007</t>
+          <t>42.65851,23.31561</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Централен автобус</t>
+          <t>Вътрешен автобус</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>1005163601</t>
+          <t>1007252006</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Б И В ИНЖЕНЕРИНГ ЕООД</t>
+          <t>ЗЛАТЕН КРЪГ ЕООД</t>
         </is>
       </c>
       <c r="F134" t="n">
@@ -4589,69 +4589,69 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>42.66381,23.30093</t>
+          <t>42.6594,23.31625</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Централен автобус</t>
+          <t>Вътрешен автобус</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>1005866101</t>
+          <t>1001060012</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>ЦЪКИ 83 ЕООД</t>
+          <t>345 ООД</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>42.66642,23.29645</t>
+          <t>42.66432004756084,23.284143805503845</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Централен автобус</t>
+          <t>Вътрешен автобус</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>1005236007</t>
+          <t>1001060008</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>СИСИ ГРУП ООД</t>
+          <t>345 ООД</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>10</v>
+        <v>5.75</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>42.66631,23.29561</t>
+          <t>42.6723303764765,23.27230989933014</t>
         </is>
       </c>
     </row>
@@ -4665,24 +4665,24 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>1007005701</t>
+          <t>1005972607</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>СИРА ТРЕЙД ЕООД</t>
+          <t>МАНДАРИН 33 ЕООД</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>22</v>
+        <v>8.5</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>42.66409,23.29614</t>
+          <t>42.70016,23.30993</t>
         </is>
       </c>
     </row>
@@ -4696,24 +4696,24 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>1001080117</t>
+          <t>1001030043</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>НИКОН-НК ЕООД</t>
+          <t>КОМЕ ООД</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>42.66850932480504,23.30298900604248</t>
+          <t>42.697685,23.321836</t>
         </is>
       </c>
     </row>
@@ -4727,24 +4727,24 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>1005058403</t>
+          <t>1005931602</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>ЕСЕЙДИ ЕООД</t>
+          <t>БГ МАПС ООД</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>42.66903,23.30099</t>
+          <t>42.69516,23.32905</t>
         </is>
       </c>
     </row>
@@ -4758,24 +4758,24 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>1005231801</t>
+          <t>1005751801</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>ИВАС - 2009 ЕООД</t>
+          <t>МАКСИ КЕТЪРИНГ ЕООД</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>22</v>
+        <v>4.5</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>42.66966,23.30364</t>
+          <t>42.69432,23.32867</t>
         </is>
       </c>
     </row>
@@ -4789,24 +4789,24 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>1007220301</t>
+          <t>1007990501</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>ВАСИЛЕВ ТРЕЙД 22 ЕООД</t>
+          <t>КАЛАЙДЖИЕВ 2020 ЕООД</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>42.67117,23.30218</t>
+          <t>42.69439,23.32871</t>
         </is>
       </c>
     </row>
@@ -4820,24 +4820,24 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>1005930602</t>
+          <t>1007252601</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>ДАКО ТРЕЙД 2016 ЕООД</t>
+          <t>ХЕМУС 50 ООД</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>42.67462972749616,23.298285752534866</t>
+          <t>42.69456,23.33075</t>
         </is>
       </c>
     </row>
@@ -4851,24 +4851,24 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>1001060002</t>
+          <t>1007375401</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>345 ООД</t>
+          <t>БИ МИНКОВИ ЕООД</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>42.68240875952811,23.323599100112915</t>
+          <t>42.69092,23.33909</t>
         </is>
       </c>
     </row>
@@ -4882,24 +4882,24 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>1005156905</t>
+          <t>1007179401</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>АЙ ЕНД ДИ ТРЕЙДИНГ ЕООД</t>
+          <t>КРИСТА 85 ЕООД</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>42.66651,23.34556</t>
+          <t>42.69262,23.34409</t>
         </is>
       </c>
     </row>
@@ -4913,24 +4913,24 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>1007193802</t>
+          <t>1007140201</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>МЪНКИС ТРЕЙД ЕООД</t>
+          <t>НЕОМИ-ООД</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>42.66734,23.35209</t>
+          <t>42.69612,23.34602</t>
         </is>
       </c>
     </row>
@@ -4944,24 +4944,24 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>1005956002</t>
+          <t>1005322009</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>СБГ ГРУП ЕООД</t>
+          <t>ПАВИЛИОН 24 ЕООД</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>42.66924,23.36039</t>
+          <t>42.69675,23.35262</t>
         </is>
       </c>
     </row>
@@ -4975,24 +4975,24 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>1005933601</t>
+          <t>1007204902</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>ТАВИС - ТАТЯНА ВАСИЛЕВА ЕТ</t>
+          <t>ДОМСТРОЙ ВЪЛКОВИ ЕООД</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>42.66941702046018,23.36178671568632</t>
+          <t>42.69685,23.35153</t>
         </is>
       </c>
     </row>
@@ -5006,24 +5006,24 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>1005236010</t>
+          <t>1005873501</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>КЛАУД СТОР ООД</t>
+          <t>НИКАЛ 2016 ООД</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>42.67124,23.35972</t>
+          <t>42.69689,23.35365</t>
         </is>
       </c>
     </row>
@@ -5037,24 +5037,24 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>1005487552</t>
+          <t>1005746201</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>АЛКОХОЛ И ТАБАКОФФ ЕООД</t>
+          <t>ЧИКО ГРУП ЕООД</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>42.67006154019734,23.352836398537192</t>
+          <t>42.6971,23.35373</t>
         </is>
       </c>
     </row>
@@ -5068,24 +5068,24 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>1005972608</t>
+          <t>1007207402</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>МЕМО 1991 ЕООД</t>
+          <t>ЧОБИ ФЕШЪН ЕООД</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>42.67141,23.35127</t>
+          <t>42.69312,23.35441</t>
         </is>
       </c>
     </row>
@@ -5099,24 +5099,24 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>1005799012</t>
+          <t>1005216702</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Фреш БГ ЕООД</t>
+          <t>НОА РУСЕВ ЕООД</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>42.67304,23.35371</t>
+          <t>42.69283,23.35229</t>
         </is>
       </c>
     </row>
@@ -5130,24 +5130,24 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>1005039001</t>
+          <t>1005690302</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>ВМВ ЕООД</t>
+          <t>ИНИЦИАЛ М ЕООД</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>42.66148,23.34657</t>
+          <t>42.69376,23.34868</t>
         </is>
       </c>
     </row>
@@ -5161,24 +5161,24 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>1005852401</t>
+          <t>1007158201</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>ТЕЗГЯХ ООД</t>
+          <t>СПОРТНА АКАДЕМИЯ - ООД</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>42.65761,23.34284</t>
+          <t>42.69063,23.34944</t>
         </is>
       </c>
     </row>
@@ -5192,24 +5192,24 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>1007322001</t>
+          <t>1007344501</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>ДИДИКОМ 94 ЕООД</t>
+          <t>ДИС7  ЕООД</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>42.65439,23.34219</t>
+          <t>42.69274,23.34356</t>
         </is>
       </c>
     </row>
@@ -5223,16 +5223,16 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>1007224301</t>
+          <t>1005783313</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>МИ ПРОПЪРТИ ЕООД</t>
+          <t>КОВАЧЕВ ТРЕЙД ЕООД</t>
         </is>
       </c>
       <c r="F155" t="n">
@@ -5240,7 +5240,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>42.65583,23.34933</t>
+          <t>42.69631,23.34087</t>
         </is>
       </c>
     </row>
@@ -5254,24 +5254,24 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>1005999904</t>
+          <t>1005500501</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>ВЕЛИОН 22 ООД</t>
+          <t>РАДИ - РАДОСЛАВ ВАСИЛЕВ ЕТ</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>42.65091,23.35812</t>
+          <t>42.70653,23.33669</t>
         </is>
       </c>
     </row>
@@ -5285,24 +5285,24 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>1007040101</t>
+          <t>1005487535</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>ЛОРА 1 - ПАВЛИН ДИМИТРОВ ЕООД</t>
+          <t>А И А ТРЕЙД ООД</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>42.64566,23.35368</t>
+          <t>42.70153,23.33405</t>
         </is>
       </c>
     </row>
@@ -5316,24 +5316,24 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>1005168602</t>
+          <t>1005487504</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Л Н ГРУП ЕООД</t>
+          <t>А И А ТРЕЙД ООД</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>42.64587,23.34231</t>
+          <t>42.69812,23.32975</t>
         </is>
       </c>
     </row>
@@ -5351,20 +5351,20 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>1007388901</t>
+          <t>1005267301</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>МАВИК 25 ЕООД</t>
+          <t>ЧИЧО НИКИ ЕООД</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>42.70881,23.28724</t>
+          <t>42.70196,23.2866</t>
         </is>
       </c>
     </row>
@@ -5382,20 +5382,20 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>1001060007</t>
+          <t>1005680601</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>345 ООД</t>
+          <t>НИКИ - МЕКС 2004 ЕООД</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>42.7084337646523,23.28910857439041</t>
+          <t>42.70017,23.28676</t>
         </is>
       </c>
     </row>
@@ -5413,20 +5413,20 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>1007222601</t>
+          <t>1001100004</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>МД ТРЕЙД ГРУП ЕООД</t>
+          <t>БУРОВ И СИН ООД</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>23</v>
+        <v>3.5</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>42.7107359154949,23.29287238419056</t>
+          <t>42.70218,23.28854</t>
         </is>
       </c>
     </row>
@@ -5444,20 +5444,20 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>1005351201</t>
+          <t>1001120101</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>НИКОЛАЙ МАРКОВ ЕТ</t>
+          <t>КИРКОВ 2000 ООД</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>42.71093004427931,23.296520188450813</t>
+          <t>42.70413,23.28993</t>
         </is>
       </c>
     </row>
@@ -5475,20 +5475,20 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>1005033107</t>
+          <t>1001150104</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>КИК 12 ТРЕЙД ЕООД</t>
+          <t>БРИЛЯНТ 24 ЕООД</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>42.71137,23.29703</t>
+          <t>42.70287,23.29264</t>
         </is>
       </c>
     </row>
@@ -5506,20 +5506,20 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>1007282801</t>
+          <t>1005236017</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>БОРИСОВИ 2001 ООД</t>
+          <t>МТГ ТРЕЙД ООД</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>5.5</v>
+        <v>11</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>42.709106983549454,23.2984359562397</t>
+          <t>42.69692485384473,23.29128317534924</t>
         </is>
       </c>
     </row>
@@ -5537,20 +5537,20 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>1001100001</t>
+          <t>1005016314</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>БУРОВ И СИН ООД</t>
+          <t>ЯКИН ТРЕЙДИНГ ЕООД</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>42.71284050519136,23.300383239984512</t>
+          <t>42.69987,23.29429</t>
         </is>
       </c>
     </row>
@@ -5568,20 +5568,20 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>1007154807</t>
+          <t>1005052302</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>АВИ СЪРВИС ООД</t>
+          <t>ДЕШЕВ ЕООД</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>42.69467,23.31457</t>
+          <t>42.69956,23.30262</t>
         </is>
       </c>
     </row>
@@ -5599,20 +5599,20 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>1005875706</t>
+          <t>1007005301</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>ПРЕМИУМ ТАБАКО 11 ЕООД</t>
+          <t>АЛАРИН ТРЕЙДИНГ ЕООД</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>42.69467,23.32221</t>
+          <t>42.69616,23.30129</t>
         </is>
       </c>
     </row>
@@ -5630,20 +5630,20 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>1005875704</t>
+          <t>1005320401</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>ПРЕМИУМ ТАБАКО 11 ЕООД</t>
+          <t>ДИЗАЙН БИЛД КОМЕРС ЕООД</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>42.69456,23.32093</t>
+          <t>42.70184,23.30686</t>
         </is>
       </c>
     </row>
@@ -5661,20 +5661,20 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>1007274502</t>
+          <t>1005799020</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>БИРИЧКА ЕООД</t>
+          <t>ЕМПАИЪР 17 ЕООД</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>42.69187,23.32555</t>
+          <t>42.7012,23.30968</t>
         </is>
       </c>
     </row>
@@ -5692,20 +5692,20 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>1005875707</t>
+          <t>1005606004</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>ПРЕМИУМ ТАБАКО 11 ЕООД</t>
+          <t>ИЛТЕР ГРУП ЕООД</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>42.69162,23.3252</t>
+          <t>42.69888,23.30861</t>
         </is>
       </c>
     </row>
@@ -5723,20 +5723,20 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>1007192703</t>
+          <t>1007154809</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>ТОП ТАБАКО ООД</t>
+          <t>АВИ СЪРВИС ООД</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>42.69213,23.32438</t>
+          <t>42.69635,23.31707</t>
         </is>
       </c>
     </row>
@@ -5754,20 +5754,20 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>1007975201</t>
+          <t>1007281001</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>МАРИС ИНТЕРНЕШЪНАЛ ЕООД</t>
+          <t>ЛА ЛУПИ ООД</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>5.5</v>
+        <v>11</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>42.69045,23.32608</t>
+          <t>42.69492,23.3168</t>
         </is>
       </c>
     </row>
@@ -5785,20 +5785,20 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>1007047103</t>
+          <t>1005721603</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>ДАНСТОК ЕООД</t>
+          <t>КРАСИ 20 ЕООД</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>42.68925,23.31927</t>
+          <t>42.70377,23.32094</t>
         </is>
       </c>
     </row>
@@ -5816,20 +5816,20 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>1005707406</t>
+          <t>1005799005</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>АЛЕКСАНДЪР - ХРИСТИЯНА ЕООД</t>
+          <t>ТАУЪР 11 ЕООД</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>4.5</v>
+        <v>13.5</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>42.68898,23.32012</t>
+          <t>42.7036,23.32074</t>
         </is>
       </c>
     </row>
@@ -5847,20 +5847,20 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>1005707407</t>
+          <t>1005897701</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>АЛЕКСАНДЪР - ХРИСТИЯНА ЕООД</t>
+          <t>МИЛТ КОМЕРС ХР.ЗАХАРИЕВ ЕТ</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>42.68903,23.32004</t>
+          <t>42.71223,23.32074</t>
         </is>
       </c>
     </row>
@@ -5878,12 +5878,12 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>1007305101</t>
+          <t>1007162601</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>НДК ПРЕМИУМ ТАБАКО ЕООД</t>
+          <t>ПИЦА ЛА ВИСТА ЕООД</t>
         </is>
       </c>
       <c r="F176" t="n">
@@ -5891,7 +5891,7 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>42.68785,23.31845</t>
+          <t>42.71208,23.32046</t>
         </is>
       </c>
     </row>
@@ -5909,20 +5909,20 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>1007047102</t>
+          <t>1007390001</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>ВОЛ ЕООД</t>
+          <t>СТЕФИ И ВАСИЛЕНА ЕООД</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>42.69052,23.31957</t>
+          <t>42.711,23.32316</t>
         </is>
       </c>
     </row>
@@ -5940,20 +5940,20 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>1007252602</t>
+          <t>1005996101</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>ХЕМУС 50 ООД</t>
+          <t>ЕЛ ДЖИ АР ООД</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>42.69107,23.3197</t>
+          <t>42.70748,23.32352</t>
         </is>
       </c>
     </row>
@@ -5971,20 +5971,20 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>1007192701</t>
+          <t>1005770909</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>ТОП ТАБАКО ООД</t>
+          <t>ПИ ЕМ ДЖИ 24 ЕООД</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>42.69409,23.32252</t>
+          <t>42.707,23.32451</t>
         </is>
       </c>
     </row>
@@ -6002,20 +6002,20 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>1007154802</t>
+          <t>1005459202</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>АВИ СЪРВИС ООД</t>
+          <t>ТЕЯМИ ООД</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>42.69284,23.31979</t>
+          <t>42.70687,23.32439</t>
         </is>
       </c>
     </row>
@@ -6033,20 +6033,20 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>1007192704</t>
+          <t>1005597901</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>ТОП ТАБАКО ООД</t>
+          <t>НИКО - ВН ЕООД</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>42.69252,23.32002</t>
+          <t>42.70109,23.31862</t>
         </is>
       </c>
     </row>
@@ -6064,20 +6064,20 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>1007150801</t>
+          <t>1005156902</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>БОБИ 6 ЕООД</t>
+          <t>АЙ ЕНД ДИ ТРЕЙДИНГ ЕООД</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>42.69526,23.32105</t>
+          <t>42.69972,23.31269</t>
         </is>
       </c>
     </row>
@@ -6095,20 +6095,20 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>1007192702</t>
+          <t>1005727401</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>ТОП ТАБАКО ООД</t>
+          <t>БУЛ. ИН. КЕП. ЕООД</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>42.69287,23.32726</t>
+          <t>42.70264,23.31308</t>
         </is>
       </c>
     </row>
@@ -6126,20 +6126,20 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>1005926411</t>
+          <t>1007960801</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>ТАБАК ЕНД ДРИНКС ЕООД</t>
+          <t>САПО - 81 ЕООД</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>42.69821,23.33123</t>
+          <t>42.70349,23.30956</t>
         </is>
       </c>
     </row>
@@ -6157,20 +6157,20 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>1005322022</t>
+          <t>1005828208</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>ПАВИЛИОН 24 ЕООД</t>
+          <t>АЛКО ДЖИ ЕООД</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>42.70135,23.33408</t>
+          <t>42.70405,23.30361</t>
         </is>
       </c>
     </row>
@@ -6188,20 +6188,20 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>1005330401</t>
+          <t>1007274001</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>ВИТОШКИ ЕООД</t>
+          <t>АЛПИ -2010 ООД</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>42.70709,23.34521</t>
+          <t>42.7044,23.30238</t>
         </is>
       </c>
     </row>
@@ -6219,12 +6219,12 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>1007340002</t>
+          <t>1005881002</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>ЧИЧИ 4141 ООД</t>
+          <t>ЗААР ТИЙМ ЕООД</t>
         </is>
       </c>
       <c r="F187" t="n">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>42.7056,23.34513</t>
+          <t>42.70281,23.30145</t>
         </is>
       </c>
     </row>
@@ -6250,20 +6250,20 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>1007354201</t>
+          <t>1005036510</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>МАРИНОВИ 17 ЕООД</t>
+          <t>БАУМ ЕООД</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>42.70403,23.35285</t>
+          <t>42.70374,23.30141</t>
         </is>
       </c>
     </row>
@@ -6281,20 +6281,20 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>1005812304</t>
+          <t>1001030004</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>САКСА ООД</t>
+          <t>КОМЕ ООД</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>42.71167,23.34475</t>
+          <t>42.711674441108016,23.29751283502651</t>
         </is>
       </c>
     </row>
@@ -6312,20 +6312,20 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>1007968101</t>
+          <t>1007153001</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>С ХРИСТОВИ ЕООД</t>
+          <t>ГУУД МИЙЛ ЕООД</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>42.71448362698105,23.34741175174713</t>
+          <t>42.7241,23.28152</t>
         </is>
       </c>
     </row>
@@ -6343,20 +6343,20 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>1005207702</t>
+          <t>1005423002</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>ВИВИЛЕН ООД</t>
+          <t>БИЕФ-БИСЕР БОЯНОВ ЕТ</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>9.5</v>
+        <v>43</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>42.71464,23.34733</t>
+          <t>42.72552,23.27432</t>
         </is>
       </c>
     </row>
@@ -6374,20 +6374,20 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>1005276205</t>
+          <t>1007234201</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>ДАН-ДИ КОМЕРС ООД</t>
+          <t>ЗДРАВЕЦ 21 ООД</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>16.5</v>
+        <v>12</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>42.71588,23.34326</t>
+          <t>42.7182530352552,23.245907910168167</t>
         </is>
       </c>
     </row>
@@ -6405,2500 +6405,20 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>1005449907</t>
+          <t>1001030033</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>ЛИДЕР ГРУП - 83 ЕООД</t>
+          <t>КОМЕ ООД</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>42.71982655136062,23.339141160249707</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="n">
-        <v>6</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C194" t="n">
-        <v>36</v>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>1007000101</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>ДАБЪЛ В ЕООД</t>
-        </is>
-      </c>
-      <c r="F194" t="n">
-        <v>13</v>
-      </c>
-      <c r="G194" t="inlineStr">
-        <is>
-          <t>42.71628,23.34101</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="n">
-        <v>6</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C195" t="n">
-        <v>37</v>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>1005753301</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>БИ ЕНД ДИ ГРУП ЕООД</t>
-        </is>
-      </c>
-      <c r="F195" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="G195" t="inlineStr">
-        <is>
-          <t>42.69007,23.3317</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="n">
-        <v>6</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C196" t="n">
-        <v>38</v>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>1005961801</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>ФУУДУЕЙС ЕООД</t>
-        </is>
-      </c>
-      <c r="F196" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G196" t="inlineStr">
-        <is>
-          <t>42.68777,23.34394</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="n">
-        <v>6</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C197" t="n">
-        <v>39</v>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>1005364253</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>ФРЕШ ТРЕЙД ГРУП ООД</t>
-        </is>
-      </c>
-      <c r="F197" t="n">
-        <v>12</v>
-      </c>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t>42.69887,23.34077</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="n">
-        <v>7</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C198" t="n">
-        <v>1</v>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>1005364240</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>ФРЕШ МАРКЕТ 2009 ООД</t>
-        </is>
-      </c>
-      <c r="F198" t="n">
-        <v>4</v>
-      </c>
-      <c r="G198" t="inlineStr">
-        <is>
-          <t>42.71974083172383,23.22065323591232</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="n">
-        <v>7</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C199" t="n">
-        <v>2</v>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>1005811601</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>МЕРИ М 2014 ЕООД</t>
-        </is>
-      </c>
-      <c r="F199" t="n">
-        <v>13</v>
-      </c>
-      <c r="G199" t="inlineStr">
-        <is>
-          <t>42.71613113930301,23.23766514658928</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="n">
-        <v>7</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C200" t="n">
-        <v>3</v>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>1007337001</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>С И М ЕООД</t>
-        </is>
-      </c>
-      <c r="F200" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="G200" t="inlineStr">
-        <is>
-          <t>42.71754508778726,23.24129618704319</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="n">
-        <v>7</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C201" t="n">
-        <v>4</v>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>1005924204</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>АЛЕКС КОМЕРС 2010 ЕООД</t>
-        </is>
-      </c>
-      <c r="F201" t="n">
-        <v>12</v>
-      </c>
-      <c r="G201" t="inlineStr">
-        <is>
-          <t>42.71571,23.24297</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="n">
-        <v>7</v>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C202" t="n">
-        <v>5</v>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>1007353101</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>АРТЕ ТАБАКО ЕООД</t>
-        </is>
-      </c>
-      <c r="F202" t="n">
-        <v>10</v>
-      </c>
-      <c r="G202" t="inlineStr">
-        <is>
-          <t>42.7148023924966,23.242032453417778</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="n">
-        <v>7</v>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C203" t="n">
-        <v>6</v>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>1005257202</t>
-        </is>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>ЛЮДМИЛ ТОСЕВ ЕТ</t>
-        </is>
-      </c>
-      <c r="F203" t="n">
-        <v>8</v>
-      </c>
-      <c r="G203" t="inlineStr">
-        <is>
-          <t>42.71217,23.24181</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="n">
-        <v>7</v>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C204" t="n">
-        <v>7</v>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>1007042410</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>СЪНИ ФУУД 2023 ДЗЗД</t>
-        </is>
-      </c>
-      <c r="F204" t="n">
-        <v>7</v>
-      </c>
-      <c r="G204" t="inlineStr">
-        <is>
-          <t>42.71159741893307,23.242653720080853</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
-        <v>7</v>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C205" t="n">
-        <v>8</v>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>1007289001</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>АННА МАРИЯ ПЕТКОВА ЕООД</t>
-        </is>
-      </c>
-      <c r="F205" t="n">
-        <v>9</v>
-      </c>
-      <c r="G205" t="inlineStr">
-        <is>
-          <t>42.710260937939395,23.2439498975873</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="n">
-        <v>7</v>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C206" t="n">
-        <v>9</v>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>1005265303</t>
-        </is>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>ЛЮЛИН-ИНФО ООД</t>
-        </is>
-      </c>
-      <c r="F206" t="n">
-        <v>14</v>
-      </c>
-      <c r="G206" t="inlineStr">
-        <is>
-          <t>42.71655606623198,23.250129371881485</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="n">
-        <v>7</v>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C207" t="n">
-        <v>10</v>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>1007132301</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>НОР-ДИ 2021 ООД</t>
-        </is>
-      </c>
-      <c r="F207" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="G207" t="inlineStr">
-        <is>
-          <t>42.71829,23.24708</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="n">
-        <v>7</v>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C208" t="n">
-        <v>11</v>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>1005746404</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>ЕВИ 2016 ЕООД</t>
-        </is>
-      </c>
-      <c r="F208" t="n">
-        <v>14</v>
-      </c>
-      <c r="G208" t="inlineStr">
-        <is>
-          <t>42.719365191114335,23.263133056461808</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="n">
-        <v>7</v>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C209" t="n">
-        <v>12</v>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>1005746402</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>НОВ ИМПУЛС ООД</t>
-        </is>
-      </c>
-      <c r="F209" t="n">
-        <v>6</v>
-      </c>
-      <c r="G209" t="inlineStr">
-        <is>
-          <t>42.728171825495096,23.249982520937923</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="n">
-        <v>7</v>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C210" t="n">
-        <v>13</v>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>1005558705</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>ДЕНИЦА МАРКЕТ ООД</t>
-        </is>
-      </c>
-      <c r="F210" t="n">
-        <v>11</v>
-      </c>
-      <c r="G210" t="inlineStr">
-        <is>
-          <t>42.77351,23.24339</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="n">
-        <v>7</v>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C211" t="n">
-        <v>14</v>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>1005433601</t>
-        </is>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>СТАСИ И КО ЕООД</t>
-        </is>
-      </c>
-      <c r="F211" t="n">
-        <v>6</v>
-      </c>
-      <c r="G211" t="inlineStr">
-        <is>
-          <t>42.77369,23.24291</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="n">
-        <v>7</v>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C212" t="n">
-        <v>15</v>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>1005113332</t>
-        </is>
-      </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>РЕКОРД - 2013 ООД</t>
-        </is>
-      </c>
-      <c r="F212" t="n">
-        <v>4</v>
-      </c>
-      <c r="G212" t="inlineStr">
-        <is>
-          <t>42.80252,23.22385</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="n">
-        <v>7</v>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C213" t="n">
-        <v>16</v>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>1005075101</t>
-        </is>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>ГРЕТА 90 ЕООД</t>
-        </is>
-      </c>
-      <c r="F213" t="n">
-        <v>20</v>
-      </c>
-      <c r="G213" t="inlineStr">
-        <is>
-          <t>42.810187417814085,23.215207681059837</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="n">
-        <v>7</v>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C214" t="n">
-        <v>17</v>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>1007008201</t>
-        </is>
-      </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>МЕТАН МАРКЕТ ООД</t>
-        </is>
-      </c>
-      <c r="F214" t="n">
-        <v>2</v>
-      </c>
-      <c r="G214" t="inlineStr">
-        <is>
-          <t>42.809139612525506,23.210298232734203</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="n">
-        <v>7</v>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C215" t="n">
-        <v>18</v>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>1007019201</t>
-        </is>
-      </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>ЕМА - 2017 ООД</t>
-        </is>
-      </c>
-      <c r="F215" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G215" t="inlineStr">
-        <is>
-          <t>42.810199469931284,23.203682228922844</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="n">
-        <v>7</v>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C216" t="n">
-        <v>19</v>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>1005838002</t>
-        </is>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>Ю ТРЕЙД 7 ЕООД</t>
-        </is>
-      </c>
-      <c r="F216" t="n">
-        <v>7</v>
-      </c>
-      <c r="G216" t="inlineStr">
-        <is>
-          <t>42.81174581087515,23.197417929768562</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="n">
-        <v>7</v>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C217" t="n">
-        <v>20</v>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>1005402501</t>
-        </is>
-      </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>МАСГРАНДЕ ООД</t>
-        </is>
-      </c>
-      <c r="F217" t="n">
-        <v>15</v>
-      </c>
-      <c r="G217" t="inlineStr">
-        <is>
-          <t>42.81375,23.19714</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="n">
-        <v>7</v>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C218" t="n">
-        <v>21</v>
-      </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>1001150301</t>
-        </is>
-      </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>БРИЛЯНТ - 34 ЕООД</t>
-        </is>
-      </c>
-      <c r="F218" t="n">
-        <v>17</v>
-      </c>
-      <c r="G218" t="inlineStr">
-        <is>
-          <t>42.81256926407976,23.214515671133995</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="n">
-        <v>7</v>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C219" t="n">
-        <v>22</v>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>1005321401</t>
-        </is>
-      </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>ГЛАРУС 07 ООД</t>
-        </is>
-      </c>
-      <c r="F219" t="n">
-        <v>7</v>
-      </c>
-      <c r="G219" t="inlineStr">
-        <is>
-          <t>42.81863,23.21336</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="n">
-        <v>7</v>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C220" t="n">
-        <v>23</v>
-      </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>1005323701</t>
-        </is>
-      </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>СТРОНГПЛАСТ ЕООД</t>
-        </is>
-      </c>
-      <c r="F220" t="n">
-        <v>4</v>
-      </c>
-      <c r="G220" t="inlineStr">
-        <is>
-          <t>42.81828,23.21396</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="n">
-        <v>7</v>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C221" t="n">
-        <v>24</v>
-      </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>1005519901</t>
-        </is>
-      </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>НЕЛИНА 2000 ЕТ</t>
-        </is>
-      </c>
-      <c r="F221" t="n">
-        <v>3</v>
-      </c>
-      <c r="G221" t="inlineStr">
-        <is>
-          <t>42.81575,23.2177</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="n">
-        <v>7</v>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C222" t="n">
-        <v>25</v>
-      </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>1007138501</t>
-        </is>
-      </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>СТЕ ФАНИ 0454 ЕООД</t>
-        </is>
-      </c>
-      <c r="F222" t="n">
-        <v>20</v>
-      </c>
-      <c r="G222" t="inlineStr">
-        <is>
-          <t>42.80969,23.21652</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="n">
-        <v>7</v>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C223" t="n">
-        <v>26</v>
-      </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>1007362402</t>
-        </is>
-      </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>ДОМАШНА КУХНЯ ЕООД</t>
-        </is>
-      </c>
-      <c r="F223" t="n">
-        <v>30</v>
-      </c>
-      <c r="G223" t="inlineStr">
-        <is>
-          <t>42.740979176682195,23.313898891210556</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="n">
-        <v>7</v>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C224" t="n">
-        <v>27</v>
-      </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>1005721801</t>
-        </is>
-      </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>РОНИ 4 ЕООД</t>
-        </is>
-      </c>
-      <c r="F224" t="n">
-        <v>4</v>
-      </c>
-      <c r="G224" t="inlineStr">
-        <is>
-          <t>42.72919,23.31927</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="n">
-        <v>7</v>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C225" t="n">
-        <v>28</v>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>1005798407</t>
-        </is>
-      </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>ИНТЕРСПИЙД ЕООД</t>
-        </is>
-      </c>
-      <c r="F225" t="n">
-        <v>28</v>
-      </c>
-      <c r="G225" t="inlineStr">
-        <is>
-          <t>42.72064,23.33297</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="n">
-        <v>7</v>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C226" t="n">
-        <v>29</v>
-      </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>1007121001</t>
-        </is>
-      </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>С&amp;М ТРЕЙДИНГ КЪМПАНИ ЕООД</t>
-        </is>
-      </c>
-      <c r="F226" t="n">
-        <v>4</v>
-      </c>
-      <c r="G226" t="inlineStr">
-        <is>
-          <t>42.72091,23.33308</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="n">
-        <v>7</v>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C227" t="n">
-        <v>30</v>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>1005048101</t>
-        </is>
-      </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>НЕГРОВ И СИЕ ЕТ</t>
-        </is>
-      </c>
-      <c r="F227" t="n">
-        <v>1</v>
-      </c>
-      <c r="G227" t="inlineStr">
-        <is>
-          <t>42.72079474233105,23.333333774061202</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="n">
-        <v>7</v>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C228" t="n">
-        <v>31</v>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>1005990718</t>
-        </is>
-      </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>АТАМА ТУИН 2 ООД</t>
-        </is>
-      </c>
-      <c r="F228" t="n">
-        <v>14</v>
-      </c>
-      <c r="G228" t="inlineStr">
-        <is>
-          <t>42.7179,23.33913</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="n">
-        <v>7</v>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C229" t="n">
-        <v>32</v>
-      </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>1007108602</t>
-        </is>
-      </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>ДТМ МАРКЕТ ЕООД</t>
-        </is>
-      </c>
-      <c r="F229" t="n">
-        <v>24</v>
-      </c>
-      <c r="G229" t="inlineStr">
-        <is>
-          <t>42.71658,23.34031</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="n">
-        <v>7</v>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C230" t="n">
-        <v>33</v>
-      </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>1007193101</t>
-        </is>
-      </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>ВОМИКС ЕООД</t>
-        </is>
-      </c>
-      <c r="F230" t="n">
-        <v>4</v>
-      </c>
-      <c r="G230" t="inlineStr">
-        <is>
-          <t>42.71735,23.31627</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="n">
-        <v>8</v>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C231" t="n">
-        <v>1</v>
-      </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>1007314401</t>
-        </is>
-      </c>
-      <c r="E231" t="inlineStr">
-        <is>
-          <t>МАРКАНА-6 ЕООД</t>
-        </is>
-      </c>
-      <c r="F231" t="n">
-        <v>14</v>
-      </c>
-      <c r="G231" t="inlineStr">
-        <is>
-          <t>42.68421,23.24145</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="n">
-        <v>8</v>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C232" t="n">
-        <v>2</v>
-      </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>1005735601</t>
-        </is>
-      </c>
-      <c r="E232" t="inlineStr">
-        <is>
-          <t>СТРЕЛЕЦ 12 ООД</t>
-        </is>
-      </c>
-      <c r="F232" t="n">
-        <v>17</v>
-      </c>
-      <c r="G232" t="inlineStr">
-        <is>
-          <t>42.6839,23.24156</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="n">
-        <v>8</v>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C233" t="n">
-        <v>3</v>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>1007283701</t>
-        </is>
-      </c>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t>ЕЛ ТРЕЙД 85 ООД</t>
-        </is>
-      </c>
-      <c r="F233" t="n">
-        <v>11</v>
-      </c>
-      <c r="G233" t="inlineStr">
-        <is>
-          <t>42.68849,23.24421</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="n">
-        <v>8</v>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C234" t="n">
-        <v>4</v>
-      </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>1005930605</t>
-        </is>
-      </c>
-      <c r="E234" t="inlineStr">
-        <is>
-          <t>ДАКО ТРЕЙД 2016 ЕООД</t>
-        </is>
-      </c>
-      <c r="F234" t="n">
-        <v>4</v>
-      </c>
-      <c r="G234" t="inlineStr">
-        <is>
-          <t>42.68864,23.24524</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="n">
-        <v>8</v>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C235" t="n">
-        <v>5</v>
-      </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>1005733002</t>
-        </is>
-      </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>МАРАКЕШ 91 ООД</t>
-        </is>
-      </c>
-      <c r="F235" t="n">
-        <v>4</v>
-      </c>
-      <c r="G235" t="inlineStr">
-        <is>
-          <t>42.68872496913484,23.25010120868683</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="n">
-        <v>8</v>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C236" t="n">
-        <v>6</v>
-      </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>1005393501</t>
-        </is>
-      </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>АДАШИ НН ООД</t>
-        </is>
-      </c>
-      <c r="F236" t="n">
-        <v>2</v>
-      </c>
-      <c r="G236" t="inlineStr">
-        <is>
-          <t>42.68938,23.24957</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="n">
-        <v>8</v>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C237" t="n">
-        <v>7</v>
-      </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>1007299701</t>
-        </is>
-      </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>СИЛВЪР ЕЙНДЖЪЛ-БГ ЕООД</t>
-        </is>
-      </c>
-      <c r="F237" t="n">
-        <v>3</v>
-      </c>
-      <c r="G237" t="inlineStr">
-        <is>
-          <t>42.69038647274998,23.252807892858982</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="n">
-        <v>8</v>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C238" t="n">
-        <v>8</v>
-      </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>1001150105</t>
-        </is>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>БРИЛЯНТ 24 ЕООД</t>
-        </is>
-      </c>
-      <c r="F238" t="n">
-        <v>10</v>
-      </c>
-      <c r="G238" t="inlineStr">
-        <is>
-          <t>42.689499291537906,23.25451847165823</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="n">
-        <v>8</v>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C239" t="n">
-        <v>9</v>
-      </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>1005181702</t>
-        </is>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>НИГСИ 2010 ЕООД</t>
-        </is>
-      </c>
-      <c r="F239" t="n">
-        <v>14</v>
-      </c>
-      <c r="G239" t="inlineStr">
-        <is>
-          <t>42.6882,23.25699</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="n">
-        <v>8</v>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C240" t="n">
-        <v>10</v>
-      </c>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>1007125801</t>
-        </is>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>МЕДЖИК 2020 ООД</t>
-        </is>
-      </c>
-      <c r="F240" t="n">
-        <v>16</v>
-      </c>
-      <c r="G240" t="inlineStr">
-        <is>
-          <t>42.68798,23.25508</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="n">
-        <v>8</v>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C241" t="n">
-        <v>11</v>
-      </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>1005746403</t>
-        </is>
-      </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>НОВ ИМПУЛС ООД</t>
-        </is>
-      </c>
-      <c r="F241" t="n">
-        <v>12</v>
-      </c>
-      <c r="G241" t="inlineStr">
-        <is>
-          <t>42.68703,23.2554</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="n">
-        <v>8</v>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C242" t="n">
-        <v>12</v>
-      </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>1007376901</t>
-        </is>
-      </c>
-      <c r="E242" t="inlineStr">
-        <is>
-          <t>АЛ КЪМПАНИ ЕООД</t>
-        </is>
-      </c>
-      <c r="F242" t="n">
-        <v>11</v>
-      </c>
-      <c r="G242" t="inlineStr">
-        <is>
-          <t>42.68639,23.25406</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="n">
-        <v>8</v>
-      </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C243" t="n">
-        <v>13</v>
-      </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>1005977601</t>
-        </is>
-      </c>
-      <c r="E243" t="inlineStr">
-        <is>
-          <t>ХЕПИНЕС 2016 ЕООД</t>
-        </is>
-      </c>
-      <c r="F243" t="n">
-        <v>6</v>
-      </c>
-      <c r="G243" t="inlineStr">
-        <is>
-          <t>42.68294,23.2441</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="n">
-        <v>8</v>
-      </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C244" t="n">
-        <v>14</v>
-      </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>1007063303</t>
-        </is>
-      </c>
-      <c r="E244" t="inlineStr">
-        <is>
-          <t>ЛИКЬОР СТОР ЕООД</t>
-        </is>
-      </c>
-      <c r="F244" t="n">
-        <v>6</v>
-      </c>
-      <c r="G244" t="inlineStr">
-        <is>
-          <t>42.68395,23.24855</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="n">
-        <v>8</v>
-      </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C245" t="n">
-        <v>15</v>
-      </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>1007171102</t>
-        </is>
-      </c>
-      <c r="E245" t="inlineStr">
-        <is>
-          <t>ЙО-ЙО ТРЕЙДИНГ ООД</t>
-        </is>
-      </c>
-      <c r="F245" t="n">
-        <v>11</v>
-      </c>
-      <c r="G245" t="inlineStr">
-        <is>
-          <t>42.68002,23.25436</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="n">
-        <v>8</v>
-      </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C246" t="n">
-        <v>16</v>
-      </c>
-      <c r="D246" t="inlineStr">
-        <is>
-          <t>1007245401</t>
-        </is>
-      </c>
-      <c r="E246" t="inlineStr">
-        <is>
-          <t>ПСГ ДЕПО ЕООД</t>
-        </is>
-      </c>
-      <c r="F246" t="n">
-        <v>22</v>
-      </c>
-      <c r="G246" t="inlineStr">
-        <is>
-          <t>42.683772231915206,23.278605043888092</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="n">
-        <v>8</v>
-      </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C247" t="n">
-        <v>17</v>
-      </c>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>1007245401</t>
-        </is>
-      </c>
-      <c r="E247" t="inlineStr">
-        <is>
-          <t>ПСГ ДЕПО ЕООД</t>
-        </is>
-      </c>
-      <c r="F247" t="n">
-        <v>22</v>
-      </c>
-      <c r="G247" t="inlineStr">
-        <is>
-          <t>42.683772231915206,23.278605043888092</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="n">
-        <v>8</v>
-      </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C248" t="n">
-        <v>18</v>
-      </c>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>1005304401</t>
-        </is>
-      </c>
-      <c r="E248" t="inlineStr">
-        <is>
-          <t>ХРИСИ - 99 ЕАД</t>
-        </is>
-      </c>
-      <c r="F248" t="n">
-        <v>35</v>
-      </c>
-      <c r="G248" t="inlineStr">
-        <is>
-          <t>42.67755,23.2903</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="n">
-        <v>8</v>
-      </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C249" t="n">
-        <v>19</v>
-      </c>
-      <c r="D249" t="inlineStr">
-        <is>
-          <t>1001080108</t>
-        </is>
-      </c>
-      <c r="E249" t="inlineStr">
-        <is>
-          <t>НИКОН-НК ЕООД</t>
-        </is>
-      </c>
-      <c r="F249" t="n">
-        <v>4</v>
-      </c>
-      <c r="G249" t="inlineStr">
-        <is>
-          <t>42.67970643357367,23.29248011112213</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="n">
-        <v>8</v>
-      </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C250" t="n">
-        <v>20</v>
-      </c>
-      <c r="D250" t="inlineStr">
-        <is>
-          <t>1001060013</t>
-        </is>
-      </c>
-      <c r="E250" t="inlineStr">
-        <is>
-          <t>345 ООД</t>
-        </is>
-      </c>
-      <c r="F250" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="G250" t="inlineStr">
-        <is>
-          <t>42.689100750442535,23.305676579475403</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="n">
-        <v>8</v>
-      </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C251" t="n">
-        <v>21</v>
-      </c>
-      <c r="D251" t="inlineStr">
-        <is>
-          <t>1005799009</t>
-        </is>
-      </c>
-      <c r="E251" t="inlineStr">
-        <is>
-          <t>ТАУЪР 11 ЕООД</t>
-        </is>
-      </c>
-      <c r="F251" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="G251" t="inlineStr">
-        <is>
-          <t>42.69523,23.31453</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="n">
-        <v>8</v>
-      </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C252" t="n">
-        <v>22</v>
-      </c>
-      <c r="D252" t="inlineStr">
-        <is>
-          <t>1001080116</t>
-        </is>
-      </c>
-      <c r="E252" t="inlineStr">
-        <is>
-          <t>НИКОН-НК ЕООД</t>
-        </is>
-      </c>
-      <c r="F252" t="n">
-        <v>2</v>
-      </c>
-      <c r="G252" t="inlineStr">
-        <is>
-          <t>42.694696374356894,23.311287760734558</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="n">
-        <v>8</v>
-      </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C253" t="n">
-        <v>23</v>
-      </c>
-      <c r="D253" t="inlineStr">
-        <is>
-          <t>1005236015</t>
-        </is>
-      </c>
-      <c r="E253" t="inlineStr">
-        <is>
-          <t>МТГ ТРЕЙД ООД</t>
-        </is>
-      </c>
-      <c r="F253" t="n">
-        <v>5</v>
-      </c>
-      <c r="G253" t="inlineStr">
-        <is>
-          <t>42.6956,23.31517</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="n">
-        <v>8</v>
-      </c>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C254" t="n">
-        <v>24</v>
-      </c>
-      <c r="D254" t="inlineStr">
-        <is>
-          <t>1005783309</t>
-        </is>
-      </c>
-      <c r="E254" t="inlineStr">
-        <is>
-          <t>ВЪРБАНОВ И КОВАЧЕВ ООД</t>
-        </is>
-      </c>
-      <c r="F254" t="n">
-        <v>4</v>
-      </c>
-      <c r="G254" t="inlineStr">
-        <is>
-          <t>42.69857,23.31012</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="n">
-        <v>8</v>
-      </c>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C255" t="n">
-        <v>25</v>
-      </c>
-      <c r="D255" t="inlineStr">
-        <is>
-          <t>1007175101</t>
-        </is>
-      </c>
-      <c r="E255" t="inlineStr">
-        <is>
-          <t>ХИЛТЪН 2019-ЕООД</t>
-        </is>
-      </c>
-      <c r="F255" t="n">
-        <v>10</v>
-      </c>
-      <c r="G255" t="inlineStr">
-        <is>
-          <t>42.69698,23.31507</t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="n">
-        <v>8</v>
-      </c>
-      <c r="B256" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C256" t="n">
-        <v>26</v>
-      </c>
-      <c r="D256" t="inlineStr">
-        <is>
-          <t>1001080119</t>
-        </is>
-      </c>
-      <c r="E256" t="inlineStr">
-        <is>
-          <t>НИКОН-НК ЕООД</t>
-        </is>
-      </c>
-      <c r="F256" t="n">
-        <v>5</v>
-      </c>
-      <c r="G256" t="inlineStr">
-        <is>
-          <t>42.70851738393763,23.31758290529251</t>
-        </is>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="n">
-        <v>8</v>
-      </c>
-      <c r="B257" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C257" t="n">
-        <v>27</v>
-      </c>
-      <c r="D257" t="inlineStr">
-        <is>
-          <t>1005728903</t>
-        </is>
-      </c>
-      <c r="E257" t="inlineStr">
-        <is>
-          <t>ЕВРО БВР ЕООД</t>
-        </is>
-      </c>
-      <c r="F257" t="n">
-        <v>16</v>
-      </c>
-      <c r="G257" t="inlineStr">
-        <is>
-          <t>42.704252946474384,23.323899507522583</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="n">
-        <v>8</v>
-      </c>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C258" t="n">
-        <v>28</v>
-      </c>
-      <c r="D258" t="inlineStr">
-        <is>
-          <t>1005808601</t>
-        </is>
-      </c>
-      <c r="E258" t="inlineStr">
-        <is>
-          <t>ТОНИНИ ТРЕЙД ЕООД</t>
-        </is>
-      </c>
-      <c r="F258" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G258" t="inlineStr">
-        <is>
-          <t>42.70312,23.3235</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="n">
-        <v>8</v>
-      </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C259" t="n">
-        <v>29</v>
-      </c>
-      <c r="D259" t="inlineStr">
-        <is>
-          <t>1007360701</t>
-        </is>
-      </c>
-      <c r="E259" t="inlineStr">
-        <is>
-          <t>Г.К.СТАФ КОМСУЛТ ООД</t>
-        </is>
-      </c>
-      <c r="F259" t="n">
-        <v>7</v>
-      </c>
-      <c r="G259" t="inlineStr">
-        <is>
-          <t>42.7044,23.33043</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="n">
-        <v>8</v>
-      </c>
-      <c r="B260" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C260" t="n">
-        <v>30</v>
-      </c>
-      <c r="D260" t="inlineStr">
-        <is>
-          <t>1007164301</t>
-        </is>
-      </c>
-      <c r="E260" t="inlineStr">
-        <is>
-          <t>ФЕМИЛИ 2021 ЕООД</t>
-        </is>
-      </c>
-      <c r="F260" t="n">
-        <v>8</v>
-      </c>
-      <c r="G260" t="inlineStr">
-        <is>
-          <t>42.70406,23.33148</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="n">
-        <v>8</v>
-      </c>
-      <c r="B261" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C261" t="n">
-        <v>31</v>
-      </c>
-      <c r="D261" t="inlineStr">
-        <is>
-          <t>1005420901</t>
-        </is>
-      </c>
-      <c r="E261" t="inlineStr">
-        <is>
-          <t>ДИСИ ТАБАКО ООД</t>
-        </is>
-      </c>
-      <c r="F261" t="n">
-        <v>7</v>
-      </c>
-      <c r="G261" t="inlineStr">
-        <is>
-          <t>42.70413,23.33292</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="n">
-        <v>8</v>
-      </c>
-      <c r="B262" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C262" t="n">
-        <v>32</v>
-      </c>
-      <c r="D262" t="inlineStr">
-        <is>
-          <t>1005487501</t>
-        </is>
-      </c>
-      <c r="E262" t="inlineStr">
-        <is>
-          <t>А И А ТРЕЙД ООД</t>
-        </is>
-      </c>
-      <c r="F262" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="G262" t="inlineStr">
-        <is>
-          <t>42.703880, 23.333334</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="n">
-        <v>8</v>
-      </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C263" t="n">
-        <v>33</v>
-      </c>
-      <c r="D263" t="inlineStr">
-        <is>
-          <t>1005913601</t>
-        </is>
-      </c>
-      <c r="E263" t="inlineStr">
-        <is>
-          <t>ДЖИМ-70 ЕООД</t>
-        </is>
-      </c>
-      <c r="F263" t="n">
-        <v>6</v>
-      </c>
-      <c r="G263" t="inlineStr">
-        <is>
-          <t>42.69924,23.33285</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="n">
-        <v>8</v>
-      </c>
-      <c r="B264" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C264" t="n">
-        <v>34</v>
-      </c>
-      <c r="D264" t="inlineStr">
-        <is>
-          <t>1005236003</t>
-        </is>
-      </c>
-      <c r="E264" t="inlineStr">
-        <is>
-          <t>АЙ ПИ ТРЕЙД 2018 ООД</t>
-        </is>
-      </c>
-      <c r="F264" t="n">
-        <v>5</v>
-      </c>
-      <c r="G264" t="inlineStr">
-        <is>
-          <t>42.69846,23.33033</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="n">
-        <v>8</v>
-      </c>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C265" t="n">
-        <v>35</v>
-      </c>
-      <c r="D265" t="inlineStr">
-        <is>
-          <t>1007960601</t>
-        </is>
-      </c>
-      <c r="E265" t="inlineStr">
-        <is>
-          <t>АЛТРУИСТ ЕООД</t>
-        </is>
-      </c>
-      <c r="F265" t="n">
-        <v>6</v>
-      </c>
-      <c r="G265" t="inlineStr">
-        <is>
-          <t>42.70022,23.32514</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="n">
-        <v>8</v>
-      </c>
-      <c r="B266" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C266" t="n">
-        <v>36</v>
-      </c>
-      <c r="D266" t="inlineStr">
-        <is>
-          <t>1005442505</t>
-        </is>
-      </c>
-      <c r="E266" t="inlineStr">
-        <is>
-          <t>КРОС ТРЕЙДИНГ ООД</t>
-        </is>
-      </c>
-      <c r="F266" t="n">
-        <v>3</v>
-      </c>
-      <c r="G266" t="inlineStr">
-        <is>
-          <t>42.70039,23.32736</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="n">
-        <v>8</v>
-      </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C267" t="n">
-        <v>37</v>
-      </c>
-      <c r="D267" t="inlineStr">
-        <is>
-          <t>1001150401</t>
-        </is>
-      </c>
-      <c r="E267" t="inlineStr">
-        <is>
-          <t>БРИЛЯНТ  35 ЕООД</t>
-        </is>
-      </c>
-      <c r="F267" t="n">
-        <v>4</v>
-      </c>
-      <c r="G267" t="inlineStr">
-        <is>
-          <t>42.70369,23.3173</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="n">
-        <v>8</v>
-      </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C268" t="n">
-        <v>38</v>
-      </c>
-      <c r="D268" t="inlineStr">
-        <is>
-          <t>1001060004</t>
-        </is>
-      </c>
-      <c r="E268" t="inlineStr">
-        <is>
-          <t>345 ООД</t>
-        </is>
-      </c>
-      <c r="F268" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="G268" t="inlineStr">
-        <is>
-          <t>42.711848127193456,23.312301635742187</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="n">
-        <v>8</v>
-      </c>
-      <c r="B269" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C269" t="n">
-        <v>39</v>
-      </c>
-      <c r="D269" t="inlineStr">
-        <is>
-          <t>1001080110</t>
-        </is>
-      </c>
-      <c r="E269" t="inlineStr">
-        <is>
-          <t>НИКОН-НК ЕООД</t>
-        </is>
-      </c>
-      <c r="F269" t="n">
-        <v>9</v>
-      </c>
-      <c r="G269" t="inlineStr">
-        <is>
-          <t>42.709963979743044,23.31001102924347</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="n">
-        <v>8</v>
-      </c>
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C270" t="n">
-        <v>40</v>
-      </c>
-      <c r="D270" t="inlineStr">
-        <is>
-          <t>1005246802</t>
-        </is>
-      </c>
-      <c r="E270" t="inlineStr">
-        <is>
-          <t>ТЕМЕНУЖКА НИКОЛОВА БГ ООД</t>
-        </is>
-      </c>
-      <c r="F270" t="n">
-        <v>6</v>
-      </c>
-      <c r="G270" t="inlineStr">
-        <is>
-          <t>42.71384,23.30402</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="n">
-        <v>8</v>
-      </c>
-      <c r="B271" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C271" t="n">
-        <v>41</v>
-      </c>
-      <c r="D271" t="inlineStr">
-        <is>
-          <t>1005264201</t>
-        </is>
-      </c>
-      <c r="E271" t="inlineStr">
-        <is>
-          <t>ВИЛГЕР - В.ХАДЖИТОНЕВА ЕТ</t>
-        </is>
-      </c>
-      <c r="F271" t="n">
-        <v>2</v>
-      </c>
-      <c r="G271" t="inlineStr">
-        <is>
-          <t>42.71414,23.29838</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="n">
-        <v>8</v>
-      </c>
-      <c r="B272" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C272" t="n">
-        <v>42</v>
-      </c>
-      <c r="D272" t="inlineStr">
-        <is>
-          <t>1005666601</t>
-        </is>
-      </c>
-      <c r="E272" t="inlineStr">
-        <is>
-          <t>СОТО БГ ЕООД</t>
-        </is>
-      </c>
-      <c r="F272" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="G272" t="inlineStr">
-        <is>
-          <t>42.71357,23.29861</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="n">
-        <v>8</v>
-      </c>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>Външен автобус</t>
-        </is>
-      </c>
-      <c r="C273" t="n">
-        <v>43</v>
-      </c>
-      <c r="D273" t="inlineStr">
-        <is>
-          <t>1005272103</t>
-        </is>
-      </c>
-      <c r="E273" t="inlineStr">
-        <is>
-          <t>ИС - 08 ООД</t>
-        </is>
-      </c>
-      <c r="F273" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="G273" t="inlineStr">
-        <is>
-          <t>42.709887949904484,23.290157318115234</t>
+          <t>42.71830388703453,23.245845349919364</t>
         </is>
       </c>
     </row>

--- a/output/excel/vehicle_routes.xlsx
+++ b/output/excel/vehicle_routes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G193"/>
+  <dimension ref="A1:G224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,20 +484,20 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1005902002</t>
+          <t>1005236020</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ВЕСМАР 3 ЕООД</t>
+          <t>АЙ ПИ ЛОДЖИСТИКС ООД</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>13.5</v>
+        <v>60</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>42.74130494689523,23.276658095419407</t>
+          <t>42.66478,23.24806</t>
         </is>
       </c>
     </row>
@@ -515,20 +515,20 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1005721805</t>
+          <t>1006000112</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>РОНИ -4 ЕООД</t>
+          <t>ГЕНИК ЕООД</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>42.74285,23.27425</t>
+          <t>42.66726978852537,23.244675770401955</t>
         </is>
       </c>
     </row>
@@ -546,20 +546,20 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1005312801</t>
+          <t>1005364223</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>БОГДАН 93 ЕООД</t>
+          <t>ФРЕШ МАРКЕТ 2011 ООД</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>42.73572860901619,23.305056585521697</t>
+          <t>42.62851220437747,23.194949626922607</t>
         </is>
       </c>
     </row>
@@ -577,20 +577,20 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1005349301</t>
+          <t>1005893801</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>МАЛИ - МАНОИЛ МАЛИНОВ ЕТ</t>
+          <t>ИГ ТРЕЙД ООД</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>42.73610488931454,23.304809822292327</t>
+          <t>42.62826,23.19531</t>
         </is>
       </c>
     </row>
@@ -608,20 +608,20 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1005946501</t>
+          <t>1007949303</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Е - 2017 ЕООД</t>
+          <t>ТТН КОМЕРС ЕООД</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>9.5</v>
+        <v>3</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>42.73782776013468,23.305455297231674</t>
+          <t>42.62174,23.18004</t>
         </is>
       </c>
     </row>
@@ -639,20 +639,20 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1007157401</t>
+          <t>1005869202</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>РОРИ ООД</t>
+          <t>ХЕРИ-М ЕООД</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>42.73636,23.30684</t>
+          <t>42.59726,22.94735</t>
         </is>
       </c>
     </row>
@@ -670,20 +670,20 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1005346169</t>
+          <t>1003212901</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>БАКАЛИЯ 2014 ООД</t>
+          <t>ПОБЕДА-ТИНИН ЕООД</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>42.73972,23.30923</t>
+          <t>42.59672,22.94637</t>
         </is>
       </c>
     </row>
@@ -701,20 +701,20 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1005316401</t>
+          <t>1005200501</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ВАЛЕНТИН РАДЕНКОВ ЕТ</t>
+          <t>ВАСИЛКА РАНГЕЛОВА ЕТ</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>42.732604015312006,23.31058998271942</t>
+          <t>42.5538399995484,22.818188779056072</t>
         </is>
       </c>
     </row>
@@ -732,20 +732,20 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1007221901</t>
+          <t>1005254703</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>МАРКЕТ 03 ЕООД</t>
+          <t>БОРИВАН-79 ЕООД</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>42.73309,23.31089</t>
+          <t>42.63034,22.94495</t>
         </is>
       </c>
     </row>
@@ -763,20 +763,20 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1007149701</t>
+          <t>1007011202</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>РАЯ 2706 ЕООД</t>
+          <t>ЗИКО СУГАРЕВ ЕООД</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>14</v>
+        <v>240</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>42.73408,23.30923</t>
+          <t>42.74042,22.89921</t>
         </is>
       </c>
     </row>
@@ -794,20 +794,20 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1005796403</t>
+          <t>1001030008</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>БИЛЯНА ТРЕЙД 2014 ЕООД</t>
+          <t>КОМЕ ООД</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>42.733476877507066,23.308477140963078</t>
+          <t>42.61349160259098,23.09269543737173</t>
         </is>
       </c>
     </row>
@@ -825,20 +825,20 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1007272901</t>
+          <t>1007953201</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>КИАРА23 ЕООД</t>
+          <t>ТЕСИ-АНЕСТИЕВИ ЕООД</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>42.72581628718797,23.30346375703812</t>
+          <t>42.61164,23.09551</t>
         </is>
       </c>
     </row>
@@ -856,20 +856,20 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1005355401</t>
+          <t>1005930701</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ОЛЯ - НАСКО ЕООД</t>
+          <t>МИРЕМ 2015 ЕООД</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>42.72507,23.3041</t>
+          <t>42.61056,23.09756</t>
         </is>
       </c>
     </row>
@@ -887,20 +887,20 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1005262701</t>
+          <t>1005324403</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ДЕНИ - 74 - ДАМЯН ДЕЯНОВ ЕТ</t>
+          <t>РЕА 09 ЕООД</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>42.72600174843541,23.305461667478085</t>
+          <t>42.60957,23.09652</t>
         </is>
       </c>
     </row>
@@ -918,20 +918,20 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1007358301</t>
+          <t>1005872001</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ЛОЗАНОВ ТРЕЙД ЕООД</t>
+          <t>ХИСА 77 ООД</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>11.5</v>
+        <v>0.5</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>42.72719060836209,23.3111422508955</t>
+          <t>42.61009,23.09649</t>
         </is>
       </c>
     </row>
@@ -949,20 +949,20 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1005796704</t>
+          <t>1003955701</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ДОНАЛД 2023 ЕООД</t>
+          <t>ММ ТАБАКО ЕООД</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>42.726603939499405,23.312118910253044</t>
+          <t>42.60954,23.1063</t>
         </is>
       </c>
     </row>
@@ -980,20 +980,20 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1007394101</t>
+          <t>1005782904</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ЕТ ЮРИГ-ЮЛИЯ ГЕОРГИЕВА КОЛЕВА</t>
+          <t>КАРДИНАЛ 7 ЕООД</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>42.726758, 23.316092</t>
+          <t>42.60878,23.10479</t>
         </is>
       </c>
     </row>
@@ -1011,20 +1011,20 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1005972609</t>
+          <t>1001030007</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>МЕМО 1991 ЕООД</t>
+          <t>КОМЕ ООД</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>6.5</v>
+        <v>1</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>42.740068586917275,23.31717185676098</t>
+          <t>42.608485739673625,23.106916844844818</t>
         </is>
       </c>
     </row>
@@ -1042,20 +1042,20 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1005518902</t>
+          <t>1005202303</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>АНИСТА 98 ЕООД</t>
+          <t>ДИЕЛ ЕООД</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>42.74027567462329,23.317370675504204</t>
+          <t>42.60704799869089,23.10939614340782</t>
         </is>
       </c>
     </row>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1005418005</t>
+          <t>1007346801</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>АТАНАСОВ МАРКЕТ ЕООД</t>
+          <t>БОРИСОВИ ТРЕЙД 2299 ООД</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>42.74963,23.31696</t>
+          <t>42.60503,23.1064</t>
         </is>
       </c>
     </row>
@@ -1104,20 +1104,20 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1005418001</t>
+          <t>1007937801</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>АТАНАСОВ МАРКЕТ ЕООД</t>
+          <t>ЕМПЕРА ТРЕЙД ЕООД</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>42.7509354061623,23.31816440475768</t>
+          <t>42.60337,23.11144</t>
         </is>
       </c>
     </row>
@@ -1135,20 +1135,20 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1005262001</t>
+          <t>1007194601</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>С + С - СИЛВА БОЖИЛОВА ЕТ</t>
+          <t>ДРИНКС 2022 ЕООД</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>42.75129,23.31821</t>
+          <t>42.60394,23.11667</t>
         </is>
       </c>
     </row>
@@ -1166,20 +1166,20 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1005364260</t>
+          <t>1007305701</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ФРЕШ МАРКЕТ 2017 ООД</t>
+          <t>МИКЕНА ТРЕЙД ЕООД</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>42.78426378405149,23.274518363177776</t>
+          <t>42.60811,23.11189</t>
         </is>
       </c>
     </row>
@@ -1197,20 +1197,20 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1005973001</t>
+          <t>1005961901</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ВАГЕР 96 ЕООД</t>
+          <t>СИТИ МАРКЕТ 2018 ЕООД</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>42.82423,23.28429</t>
+          <t>42.60814,23.11163</t>
         </is>
       </c>
     </row>
@@ -1228,26 +1228,26 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1001030032</t>
+          <t>1007937802</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>КОМЕ ООД</t>
+          <t>ЕМПЕРА 55 ЕООД</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>42.95998703256908,23.35085604339838</t>
+          <t>42.60863,23.11419</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1255,30 +1255,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1005342801</t>
+          <t>1005851902</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>АЛАС 70 ЕООД</t>
+          <t>ВАЛКОМЕРС БГ ЕООД</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>42.8494443547511,23.220255865306853</t>
+          <t>42.69595423127401,23.229903168976307</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1286,30 +1286,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1005807801</t>
+          <t>1001030006</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ФЕНИКС - КОМЕРС - 09  ООД</t>
+          <t>КОМЕ ООД</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>42.85049,23.21458</t>
+          <t>42.68940622687355,23.252373776907348</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1317,30 +1317,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1001030038</t>
+          <t>1005487561</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>КОМЕ ООД</t>
+          <t>А И А УЕСТ ЕООД</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>42.81010993986175,23.217612616717815</t>
+          <t>42.6643,23.26659</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1348,30 +1348,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1005333402</t>
+          <t>1005916205</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ИЛИЯНА ДОБРИНОВА - 2009 ООД</t>
+          <t>АЙРИС ГРУП 1 ЕООД</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>7</v>
+        <v>0.5</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>42.76824,23.19739</t>
+          <t>42.67814373176337,23.27176809310913</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1379,30 +1379,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1005364228</t>
+          <t>1005996104</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ФРЕШ МАРКЕТ 2013 ЕООД</t>
+          <t>ЕЛ ДЖИ АР ООД</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>42.76495306343535,23.196528777480125</t>
+          <t>42.67494820464584,23.27686596661806</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1410,30 +1410,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1005364263</t>
+          <t>1005236006</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ФРЕШ МАРКЕТ 2018 ООД</t>
+          <t>ТИПС ТРЕЙД ООД</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>42.75906,23.20451</t>
+          <t>42.67871,23.284</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1441,30 +1441,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1003955001</t>
+          <t>1007310302</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>УНИ ЕНЕРДЖИ ООД</t>
+          <t>ГОЛД ЛАЙН ЕООД</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>42.77412533597572,23.18643931299448</t>
+          <t>42.67876240863085,23.284101225435734</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1472,24 +1472,24 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1005746405</t>
+          <t>1007303901</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ЕКТА 2016 ЕООД</t>
+          <t>ДЕМИ 2131 ЕООД</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>11</v>
+        <v>0.5</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>42.73434,23.23653</t>
+          <t>42.680516607512374,23.285911045968533</t>
         </is>
       </c>
     </row>
@@ -1503,24 +1503,24 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1007387101</t>
+          <t>1007254403</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ЕТ БОЙКА АНДОНОВА-ЖЕКОВЕЦА</t>
+          <t>ПРОСПЕКТИВ ПРОПЪРТИС ЕООД</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>6.5</v>
+        <v>1</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>42.61223,23.04709</t>
+          <t>42.68059252226559,23.284680917859077</t>
         </is>
       </c>
     </row>
@@ -1534,24 +1534,24 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1007953202</t>
+          <t>1007007202</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ТЕСИ-АНЕСТИЕВИ ЕООД</t>
+          <t>МАЧБОКС ЕООД</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>42.61608,23.0328</t>
+          <t>42.67828,23.28554</t>
         </is>
       </c>
     </row>
@@ -1565,24 +1565,24 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1007383101</t>
+          <t>1007007201</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>БРЕЗНИК 23 ООД</t>
+          <t>МАЧБОКС ЕООД</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>42.61277,23.03615</t>
+          <t>42.67766135672091,23.286635577678677</t>
         </is>
       </c>
     </row>
@@ -1596,24 +1596,24 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1005161904</t>
+          <t>1007154808</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>НИКАР ГРУП ЕООД</t>
+          <t>АВИ СЪРВИС ООД</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>14</v>
+        <v>0.5</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>42.60999,23.03389</t>
+          <t>42.67490506735656,23.29002756625414</t>
         </is>
       </c>
     </row>
@@ -1627,24 +1627,24 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1005161901</t>
+          <t>1005095801</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>НИКАР ГРУП ЕООД</t>
+          <t>ВИГ-КАЛИН ВАЧЕВ ЕТ</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>42.6097,23.03332</t>
+          <t>42.67660711882342,23.29162884503603</t>
         </is>
       </c>
     </row>
@@ -1658,24 +1658,24 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1005373201</t>
+          <t>1005487545</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>РАВАС 8 ООД</t>
+          <t>МАРИБА ЕООД</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>19</v>
+        <v>1.5</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>42.60722,23.03026</t>
+          <t>42.677001997961135,23.295576386153698</t>
         </is>
       </c>
     </row>
@@ -1689,24 +1689,24 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1005849101</t>
+          <t>1007960501</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ИВИ - 2015 ЕООД</t>
+          <t>ДИП ХАУС ООД</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>42.60722,23.03077</t>
+          <t>42.6794,23.30081</t>
         </is>
       </c>
     </row>
@@ -1720,24 +1720,24 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1005698809</t>
+          <t>1005322019</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ЕКСПАНЖЪН ООД</t>
+          <t>ПАВИЛИОН 24 ЕООД</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>42.60459,23.03078</t>
+          <t>42.68206840494604,23.301317989826202</t>
         </is>
       </c>
     </row>
@@ -1751,24 +1751,24 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1007270801</t>
+          <t>1005558201</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>МЕРИДИАН ПЛАНЕТ ЕООД</t>
+          <t>МИС ФРУТ ЕООД</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>42.60649,23.0327</t>
+          <t>42.68197,23.30056</t>
         </is>
       </c>
     </row>
@@ -1782,24 +1782,24 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1007270801</t>
+          <t>1005134901</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>МЕРИДИАН ПЛАНЕТ ЕООД</t>
+          <t>РАНДИ ООД</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>42.60649,23.0327</t>
+          <t>42.68038,23.2895</t>
         </is>
       </c>
     </row>
@@ -1813,24 +1813,24 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1007325001</t>
+          <t>1005322025</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>МБМ-13 ЕООД</t>
+          <t>ПАВИЛИОН 24 ЕООД</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>42.60435,23.02891</t>
+          <t>42.677611, 23.290112</t>
         </is>
       </c>
     </row>
@@ -1844,24 +1844,24 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1005202304</t>
+          <t>1007384601</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ДИЕЛ ЕООД</t>
+          <t>ДИГИТАЛ 95 ЕООД</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>42.60347,23.03058</t>
+          <t>42.6784604655109,23.290790989995003</t>
         </is>
       </c>
     </row>
@@ -1875,24 +1875,24 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1007183501</t>
+          <t>1007224701</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>И-ВАЙЛ КЕТЪРИНГ 2012 ООД</t>
+          <t>СТЕФАНИ - 2013 ЕООД</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>42.60426,23.02905</t>
+          <t>42.67271,23.28856</t>
         </is>
       </c>
     </row>
@@ -1906,24 +1906,24 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1005896505</t>
+          <t>1007008702</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>НЕЛАН ЕООД</t>
+          <t>ИНТЕРФУТ 08 ООД</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>5.5</v>
+        <v>1</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>42.60369,23.02857</t>
+          <t>42.6736,23.28933</t>
         </is>
       </c>
     </row>
@@ -1937,24 +1937,24 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1005324402</t>
+          <t>1007185304</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>РЕА 09 ЕООД</t>
+          <t>САБАТИН ЕООД</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>42.59737,23.02295</t>
+          <t>42.67033111230315,23.289311416447163</t>
         </is>
       </c>
     </row>
@@ -1968,24 +1968,24 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1003956201</t>
+          <t>1007112303</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>РУМАЕЛ ЕООД</t>
+          <t>МОНЕ СПИРИТ ЕНД ТАБАКО ООД</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>42.59611,23.02445</t>
+          <t>42.66919,23.29103</t>
         </is>
       </c>
     </row>
@@ -1999,24 +1999,24 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1005382601</t>
+          <t>1005634904</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>ГЕОРГИ КИРИЛОВ-СЮГИ ЕТ</t>
+          <t>ВЕГА - БЪРЗА ЗАКУСКА ЕООД</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>42.606221814408364,23.032721175403594</t>
+          <t>42.67225,23.29461</t>
         </is>
       </c>
     </row>
@@ -2030,24 +2030,24 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1007009201</t>
+          <t>1005170907</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>МИНИМАРКЕТ БОНБОН 2018 ООД</t>
+          <t>МАНДАРИН-МН ООД</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>42.60512,23.03399</t>
+          <t>42.67001,23.29201</t>
         </is>
       </c>
     </row>
@@ -2061,30 +2061,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1005690602</t>
+          <t>1005487533</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>ЕВРОКОМЕРС 2018 ЕООД</t>
+          <t>А И А УЕСТ ЕООД</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>7</v>
+        <v>0.5</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>42.60391,23.03257</t>
+          <t>42.67073,23.29612</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -2092,30 +2092,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1007326701</t>
+          <t>1005487526</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>ВИТА ФОРТУНА ООД</t>
+          <t>А И А ТРЕЙД ООД</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>42.64944,23.26398</t>
+          <t>42.67262,23.29949</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -2123,30 +2123,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1005115901</t>
+          <t>1005487548</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>АДИА ТРЕЙД ЕООД</t>
+          <t>ВЕЖОР ЕООД</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>16.5</v>
+        <v>1</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>42.64875,23.26254</t>
+          <t>42.67591,23.29937</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -2154,30 +2154,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1001060018</t>
+          <t>1005405902</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>345 ООД</t>
+          <t>НЕЙД ГРУП ООД</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>7.625</v>
+        <v>1</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>42.64308649204917,23.282867074012756</t>
+          <t>42.68654,23.31733</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2185,30 +2185,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1007250302</t>
+          <t>1005783320</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Я И КО ИНВЕСТМЪНТ ГРУП ООД</t>
+          <t>КОВАЧЕВ ТРЕЙД ЕООД</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>42.63534,23.30058</t>
+          <t>42.68775,23.31835</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -2216,30 +2216,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1007183901</t>
+          <t>1007923001</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>ЛОЗЯ ООД</t>
+          <t>ТМТ ГРУП 2020 ЕООД</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>42.63047,23.30638</t>
+          <t>42.68335,23.32063</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2247,30 +2247,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>1005561202</t>
+          <t>1001030028</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>БЕРН 2011 ЕООД</t>
+          <t>КОМЕ ООД</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>42.62869,23.30977</t>
+          <t>42.671854322323945,23.326241746544838</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -2278,30 +2278,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>1007380801</t>
+          <t>1001030035</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>МА ЛИ 5 ЕООД</t>
+          <t>КОМЕ ООД</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>42.62864,23.30928</t>
+          <t>42.66810554643294,23.319502234865695</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -2309,92 +2309,92 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>1005156903</t>
+          <t>1001080106</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>АЙ ЕНД ДИ ТРЕЙДИНГ ЕООД</t>
+          <t>НИКОН-НК ЕООД</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>14</v>
+        <v>0.5</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>42.62899,23.3093</t>
+          <t>42.661402364059896,23.31352405250073</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
+        <v>2</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Вътрешен автобус</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>36</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1004903401</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>ХЕЛ ЕНЕРДЖИ БЪЛГАРИЯ ЕООД</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
         <v>3</v>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Вътрешен автобус</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>9</v>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>1007236301</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>ТИФАНИ ЕКСПРЕС ЕООД</t>
-        </is>
-      </c>
-      <c r="F62" t="n">
-        <v>4</v>
-      </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>42.62928,23.31163</t>
+          <t>42.65820868837977,23.31713765859604</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
+        <v>2</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Вътрешен автобус</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>37</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1001080112</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>НИКОН-НК ЕООД</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
         <v>3</v>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Вътрешен автобус</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>10</v>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>1005963501</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>АЛМИЕЛА - АЛЕКСАНДЪР МИЛАНОВ ЕТ</t>
-        </is>
-      </c>
-      <c r="F63" t="n">
-        <v>6</v>
-      </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>42.63412,23.31023</t>
+          <t>42.67165662020216,23.333095461130142</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -2402,30 +2402,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1004903401</t>
+          <t>1005346172</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>ХЕЛ ЕНЕРДЖИ БЪЛГАРИЯ ЕООД</t>
+          <t>БАКАЛИЯ 2014 ООД</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>14.333</v>
+        <v>2</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>42.65820868837977,23.31713765859604</t>
+          <t>42.67964,23.32457</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2433,30 +2433,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1005960206</t>
+          <t>1001080107</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>СИЛВЪР СТРИЙТ ШОП ЕООД</t>
+          <t>НИКОН-НК ЕООД</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>42.65935,23.31689</t>
+          <t>42.682525,23.327495</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2464,61 +2464,61 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1005918603</t>
+          <t>1001080101</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>ЕМ ТРЕЙД 13 ЕООД</t>
+          <t>НИКОН-НК ЕООД</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>42.65932,23.31685</t>
+          <t>42.682525,23.327495</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
+        <v>2</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Вътрешен автобус</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>41</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1005858304</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>ЕЙ ДЖИ ЕНД КО  ООД</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
         <v>3</v>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Вътрешен автобус</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>14</v>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>1007220402</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>ПРОГРЕС БГ 18  ЕООД</t>
-        </is>
-      </c>
-      <c r="F67" t="n">
-        <v>8</v>
-      </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>42.65669,23.34486</t>
+          <t>42.6808863213455,23.331671208143234</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -2526,30 +2526,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1007220401</t>
+          <t>1005377405</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>ПРОГРЕС БГ 18  ЕООД</t>
+          <t>МГ - 0609 ЕООД</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>42.65558,23.34383</t>
+          <t>42.6809,23.33208</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -2557,30 +2557,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1005884901</t>
+          <t>1001060020</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>ЯНИС ТРЕЙД ЕООД</t>
+          <t>345 ООД</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>42.65352,23.342675</t>
+          <t>42.68439545517594, 23.33053762728023</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -2588,30 +2588,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1007044102</t>
+          <t>1007299901</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>ФРОНТ ФАКТ ЕООД</t>
+          <t>СТАМФИ ЕООД</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>42.6544,23.34526</t>
+          <t>42.68369,23.32726</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -2619,30 +2619,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1007044101</t>
+          <t>1005824302</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>ФРОНТ ФАКТ ЕООД</t>
+          <t>ДА-НИ 2001 ВД ЕООД</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>42.64985,23.3503</t>
+          <t>42.68544,23.33031</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -2650,30 +2650,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1005961804</t>
+          <t>1005487511</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>ФУУДУЕЙС ЕООД</t>
+          <t>А И А ТРЕЙД ООД</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>42.66607,23.357</t>
+          <t>42.68667,23.33062</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -2681,30 +2681,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>1005961802</t>
+          <t>1005487509</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>ФУУДУЕЙС ЕООД</t>
+          <t>А И А ТРЕЙД ООД</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>42.66145,23.38024</t>
+          <t>42.68733,23.32992</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -2712,30 +2712,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>1005961805</t>
+          <t>1005906202</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>ФУУДУЕЙС ЕООД</t>
+          <t>МЛАДЕЖКА КООПЕРАЦИЯ ЯЛТА</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>42.67014,23.37162</t>
+          <t>42.6928,23.33439</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -2743,30 +2743,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1001030002</t>
+          <t>1005194301</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>КОМЕ ООД</t>
+          <t>МИШЕЛ М Ф ЕООД</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>42.6543094,23.397014200000058</t>
+          <t>42.642041532931856,23.39936178177595</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -2774,30 +2774,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1001060009</t>
+          <t>1007327601</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>345 ООД</t>
+          <t>ДЕК ГРУП 2014 ЕООД</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>42.67621223717643,23.360881805419922</t>
+          <t>42.642011315585734, 23.400031299167424</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2805,61 +2805,61 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1005487565</t>
+          <t>1007156606</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>А И А ТРЕЙД ООД</t>
+          <t>СЕВИ ОЙЛ ЕООД</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>42.68832,23.3294</t>
+          <t>42.64276,23.40192</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
+        <v>2</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Вътрешен автобус</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>52</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1005194303</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>МИШЕЛ М Ф ЕООД</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
         <v>3</v>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Вътрешен автобус</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
-        <v>25</v>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>1005487542</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>А И А ТРЕЙД ООД</t>
-        </is>
-      </c>
-      <c r="F78" t="n">
-        <v>17</v>
-      </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>42.68471,23.32117</t>
+          <t>42.64194682724948,23.39928600937128</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2867,30 +2867,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1005487516</t>
+          <t>1005526706</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>А И А ТРЕЙД ООД</t>
+          <t>АДИ - АН ЕООД</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>42.67973749002523,23.324913047254086</t>
+          <t>42.64923,23.39356</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -2898,30 +2898,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1005236012</t>
+          <t>1007950101</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>ГИПС ГРУП ООД</t>
+          <t>РАМБИ ГРУП ЕООД</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>42.67728,23.30053</t>
+          <t>42.64745,23.40103</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -2929,30 +2929,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1005016201</t>
+          <t>1006000111</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>АНДМАРТ ЕООД</t>
+          <t>ГЕНИК ЕООД</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>42.67618,23.3004</t>
+          <t>42.67199187529952,23.395926542580128</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -2960,30 +2960,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1005487559</t>
+          <t>1001030031</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>АЛКОХОЛ И ТАБАКОФФ ЕООД</t>
+          <t>КОМЕ ООД</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>42.67706,23.30333</t>
+          <t>42.68577066959504,23.36196005344391</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -2991,30 +2991,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>1005659001</t>
+          <t>1007215201</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>ГОЛДЪН ФЕНИКС ЕООД</t>
+          <t>ВЛАД И АЛ 999 ЕООД</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>8.5</v>
+        <v>1</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>42.6721,23.30177</t>
+          <t>42.70141,23.3597</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -3022,30 +3022,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>1001030015</t>
+          <t>1005634907</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>КОМЕ ООД</t>
+          <t>ВЕГА - БЪРЗА ЗАКУСКА ЕООД</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>42.666830877135354,23.30027152463913</t>
+          <t>42.70177,23.35954</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -3053,30 +3053,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1001030014</t>
+          <t>1005996106</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>КОМЕ ООД</t>
+          <t>ЕЛ ДЖИ АР ООД</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>42.664767872290774,23.293110026569366</t>
+          <t>42.70224,23.35513</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -3084,30 +3084,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1005487556</t>
+          <t>1007212301</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>АЛКОХОЛ И ТАБАКОФФ ЕООД</t>
+          <t>ЕДИС ШОП ЕООД</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>42.66888,23.27967</t>
+          <t>42.70248,23.35247</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -3115,30 +3115,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>1005109102</t>
+          <t>1005213106</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>ДЕССКО - 2023 ЕООД</t>
+          <t>ПРЕСТИЖ - В.М. ЕООД</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>42.67502,23.28258</t>
+          <t>42.70261,23.35262</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -3146,30 +3146,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1005321044</t>
+          <t>1005487563</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>АЛКОХОЛ ТАБАКО АБ ЕООД</t>
+          <t>А И А ТРЕЙД ООД</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>42.67558,23.28322</t>
+          <t>42.69919,23.33838</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -3177,30 +3177,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>1007369701</t>
+          <t>1005487553</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>ТАЛИДА ЕООД</t>
+          <t>А И А ТРЕЙД ООД</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>42.6781996840681,23.285266309976578</t>
+          <t>42.69912,23.33838</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -3208,30 +3208,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1005832204</t>
+          <t>1005487503</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>АНТИЧЕН КЛАДЕНЕЦ - БУДЖАКА ЕООД</t>
+          <t>А И А ТРЕЙД ООД</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>42.67814,23.28515</t>
+          <t>42.70296,23.32892</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -3239,16 +3239,16 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>1007982201</t>
+          <t>1007169102</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>КАЯ 2020 ЕООД</t>
+          <t>ЖАКО 1 ЕООД</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -3256,13 +3256,13 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>42.67903,23.28466</t>
+          <t>42.69881,23.32187</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -3270,30 +3270,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1005146804</t>
+          <t>1005926401</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>СЕТИ ТРЕЙДИНГ  ЕООД</t>
+          <t>ЕН ДЖИ ГРУП 1 ЕООД</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>42.68219,23.29002</t>
+          <t>42.70167,23.31676</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -3301,30 +3301,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>1007008703</t>
+          <t>1005487550</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>ИНТЕРФУТ 08 ООД</t>
+          <t>А И А ТРЕЙД ООД</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>42.68831759577158,23.29626403748989</t>
+          <t>42.69468,23.31636</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -3332,30 +3332,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>1005988301</t>
+          <t>1007042407</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>ХИТЪР ПЕТЪР - ЛАГЕРА ЕООД</t>
+          <t>СЪНИ 2023 ДЗЗД</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>42.68632,23.29816</t>
+          <t>42.70066,23.31395</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -3363,30 +3363,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>1005364239</t>
+          <t>1007215701</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>ФРЕШ МАРКЕТ 2014 ООД</t>
+          <t>ГЕНТО ТРЕЙД - ГЕОРГИ ГЕОРГИЕВ-78 ЕООД</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>9.5</v>
+        <v>5</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>42.742509272255084,23.265327103435993</t>
+          <t>42.70263,23.31664</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -3394,30 +3394,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>1005291502</t>
+          <t>1001030029</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>ЕВРОТРЕЙД 2000 ЕООД</t>
+          <t>КОМЕ ООД</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>42.737192434070785,23.2604206725955</t>
+          <t>42.705894472039546,23.292823433876037</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -3425,30 +3425,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>1007354001</t>
+          <t>1005048701</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>НИПО 2024 ЕООД</t>
+          <t>ГАЛЕРИЯ ЖУАН ЕООД</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>42.73765,23.26783</t>
+          <t>42.718078635584895,23.284281939268112</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -3456,30 +3456,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>1007136601</t>
+          <t>1005033103</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>СТЕО 17 ЕООД</t>
+          <t>КУИК 2 ООД</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>42.73714219870896,23.26852429658175</t>
+          <t>42.71980807731098,23.26688144356012</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -3487,30 +3487,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>1005265503</t>
+          <t>1001140001</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>АЛТЪНЦАЙК ЕООД</t>
+          <t>ХИТ ХИПЕРМАРКЕТ ЕООД</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>42.74014910742735,23.274908289313316</t>
+          <t>42.7306932436281, 23.268469300520692</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -3518,30 +3518,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>1005789101</t>
+          <t>1005355601</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>ПАРТИ ФУУД ДЗЗД</t>
+          <t>ПЕЦКА ИВАНОВА ЕТ</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>42.69613,24.07431</t>
+          <t>42.73325,23.25145</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -3549,61 +3549,61 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>1007240901</t>
+          <t>1005271301</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>ФОКС 2013 ООД</t>
+          <t>РОЕЛ 2000 ЕООД</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>9.5</v>
+        <v>5</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>42.68187,23.56795</t>
+          <t>42.734078257209454,23.251794017851353</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
+        <v>2</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Вътрешен автобус</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>76</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1005033120</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>КУИК 2 ООД</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
         <v>4</v>
       </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Вътрешен автобус</t>
-        </is>
-      </c>
-      <c r="C102" t="n">
-        <v>8</v>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>1007195201</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>Г И Е ЧАКЪРОВИ ЕООД</t>
-        </is>
-      </c>
-      <c r="F102" t="n">
-        <v>8</v>
-      </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>42.6673,23.52717</t>
+          <t>42.73156064882483,23.2492496073246</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -3611,30 +3611,30 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>1005124408</t>
+          <t>1005250002</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>НИКО - 2 ООД</t>
+          <t>ВЕРАЛ - ВЕРА АСЕНОВА ЕТ</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>42.66714,23.52625</t>
+          <t>42.722611389851686,23.245506249368194</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -3642,30 +3642,30 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>1005059001</t>
+          <t>1007315801</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>ДЕСИСЛАВА - 93 - ДЕСИСЛАВА БОГДАНОВА ЕТ</t>
+          <t>ТОДИ 13 ЕООД</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>42.66494,23.52982</t>
+          <t>42.717275356199096,23.25206156820059</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -3673,30 +3673,30 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>1005589401</t>
+          <t>1005816301</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>СЕЛ ООД</t>
+          <t>ТОСКИН И ПЕТРОВ ООД</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>42.65975,23.52636</t>
+          <t>42.71487,23.25984</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -3704,30 +3704,30 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>1001060014</t>
+          <t>1005033111</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>345 ООД</t>
+          <t>КУИК 2 ООД</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>42.6249628,23.40607669999997</t>
+          <t>42.71351,23.248885</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -3735,30 +3735,30 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>1005487551</t>
+          <t>1005271202</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>АЛКОХОЛ И ТАБАКОФФ ЕООД</t>
+          <t>НИК - Н.КАМЕНОВСКИ ЕТ</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>42.62686,23.38385</t>
+          <t>42.721022426471556,23.251590840518478</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -3766,30 +3766,30 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>1001060005</t>
+          <t>1007064501</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>345 ООД</t>
+          <t>ТРЕЙДИНГ БРАДЪРС 2019 ООД</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>42.62860686536667,23.37493121623993</t>
+          <t>42.72474291624934,23.24553944170475</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -3797,30 +3797,30 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>1007331901</t>
+          <t>1005855901</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>ВЕСТЕЛ 23 ЕООД</t>
+          <t>МАЛИБУ ТРАНС ЕООД</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>13.5</v>
+        <v>5</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>42.64082,23.34936</t>
+          <t>42.68635,23.16562</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -3828,30 +3828,30 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>1007164501</t>
+          <t>1007305001</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>ДЖИВИ ПАРТНЪРС ООД</t>
+          <t>БОДУРОВ 23 ЕООД</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>42.64269,23.34391</t>
+          <t>42.70465,23.17902</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -3859,30 +3859,30 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>1005787302</t>
+          <t>1007382501</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>ЩЕРЕВИ 96 ЕООД</t>
+          <t>АЛДИ 17 ООД</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>42.64354,23.34145</t>
+          <t>42.71484,23.173</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -3890,30 +3890,30 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>1007233501</t>
+          <t>1005046107</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>МЕРГО 2114 ЕООД</t>
+          <t>БОРИВЛАД - 7 ЕООД</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>42.6435,23.33728</t>
+          <t>42.71306,23.14651</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -3921,30 +3921,30 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>1005884903</t>
+          <t>1005219301</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>ЯНИС ТРЕЙД ЕООД</t>
+          <t>УСПЕХ - БАНКЯ - ЦВ. КИРИЛОВА ЕТ</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>7</v>
+        <v>0.5</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>42.64327,23.33727</t>
+          <t>42.71948,23.1314</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -3952,92 +3952,92 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>1005634906</t>
+          <t>1005346166</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>ВКУСНИ ЗАКУСКИ 2020 ЕООД</t>
+          <t>БАКАЛИЯ 2014 ООД</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>42.64436,23.33975</t>
+          <t>42.70982,23.14056</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
+        <v>2</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Вътрешен автобус</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>89</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1005597601</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>КЕЙ ЕС ДЖИ ООД</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
         <v>4</v>
       </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Вътрешен автобус</t>
-        </is>
-      </c>
-      <c r="C115" t="n">
-        <v>21</v>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>1007331501</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>МИХАЙЛОВИ 24 ЕООД</t>
-        </is>
-      </c>
-      <c r="F115" t="n">
-        <v>7</v>
-      </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>42.64449,23.34049</t>
+          <t>42.70757,23.14472</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
+        <v>2</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Вътрешен автобус</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>90</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1005254001</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>ПИК ШОП 2 ЕООД</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
         <v>4</v>
       </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Вътрешен автобус</t>
-        </is>
-      </c>
-      <c r="C116" t="n">
-        <v>22</v>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>1007279001</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>С-ТРЕЙД 2022 ЕООД</t>
-        </is>
-      </c>
-      <c r="F116" t="n">
-        <v>8.5</v>
-      </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>42.64448,23.34113</t>
+          <t>42.70633,23.14853</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -4045,30 +4045,30 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>1005462005</t>
+          <t>1007226301</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>ДИКОВ КОНСУЛТИНГ ЕООД</t>
+          <t>НЕЙКОВИ КОРПОРЕЙШЪН  ООД</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>42.6486,23.34179</t>
+          <t>42.68552,23.1388</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -4076,30 +4076,30 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>1005462005</t>
+          <t>1001030003</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>ДИКОВ КОНСУЛТИНГ ЕООД</t>
+          <t>КОМЕ ООД</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>42.6486,23.34179</t>
+          <t>42.70812216644763,23.15155375648169</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -4107,30 +4107,30 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>1005884902</t>
+          <t>1005092402</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>ЯНИС ТРЕЙД ЕООД</t>
+          <t>РУПИС 2001  ЕООД</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>42.648285,23.3411</t>
+          <t>42.71701,23.18113</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -4138,30 +4138,30 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>1005462003</t>
+          <t>1007112402</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>ДИКОВ КОНСУЛТИНГ ЕООД</t>
+          <t>КРИСТАЛ 2000 ООД</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>42.64416,23.34195</t>
+          <t>42.70315653492991,23.20870667695999</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -4169,30 +4169,30 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>1007273101</t>
+          <t>1007316601</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>КИКО ШОП ЕООД</t>
+          <t>ЕМ ДИ ФУУДС ЕООД ЕООД</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>42.64114,23.33886</t>
+          <t>42.69595,23.22977</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -4200,30 +4200,30 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>1007042413</t>
+          <t>1005479602</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>ПАРТЕРЪ ООД</t>
+          <t>ДИАЛА 04 ООД</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>7.5</v>
+        <v>228</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>42.63974,23.34345</t>
+          <t>42.698733980885144,23.216491118073463</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -4231,24 +4231,24 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>1007352401</t>
+          <t>1005364243</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>ВИМИКА ЕООД</t>
+          <t>ФРЕШ МАРКЕТ 2014 ООД</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>42.63978,23.34332</t>
+          <t>42.69634233427452,23.22699431329966</t>
         </is>
       </c>
     </row>
@@ -4258,28 +4258,28 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Вътрешен автобус</t>
+          <t>Централен автобус</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>1005301305</t>
+          <t>1005799010</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>ДУДИ  ЕООД</t>
+          <t>СТРАЙК 17 ЕООД</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>8.5</v>
+        <v>1</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>42.63803,23.33902</t>
+          <t>42.7002,23.31573</t>
         </is>
       </c>
     </row>
@@ -4289,28 +4289,28 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Вътрешен автобус</t>
+          <t>Централен автобус</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>1005462009</t>
+          <t>1005770910</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>ДИКОВ КОНСУЛТИНГ ЕООД</t>
+          <t>ПИ ЕМ ДЖИ 24 ЕООД</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>42.63751,23.33834</t>
+          <t>42.70132,23.31659</t>
         </is>
       </c>
     </row>
@@ -4320,28 +4320,28 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Вътрешен автобус</t>
+          <t>Централен автобус</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>1007341701</t>
+          <t>1007351101</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>БОГИ - 1524 ООД</t>
+          <t>ЛАЙМ ПРЕМИУМ ТАБАКО ЕООД</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>42.63633,23.33847</t>
+          <t>42.69812,23.3217</t>
         </is>
       </c>
     </row>
@@ -4351,28 +4351,28 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Вътрешен автобус</t>
+          <t>Централен автобус</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>1007333101</t>
+          <t>1005036504</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>ПЕРЛА 1-К  ЕООД</t>
+          <t>БАУМ ЕООД</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>42.65683,23.334</t>
+          <t>42.69154,23.33528</t>
         </is>
       </c>
     </row>
@@ -4382,28 +4382,28 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Вътрешен автобус</t>
+          <t>Централен автобус</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>1005171504</t>
+          <t>1005875101</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>ЯВОР 2009 ООД</t>
+          <t>ВИВЕНИ 2015 ООД</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>42.65967,23.32182</t>
+          <t>42.65842,23.37783</t>
         </is>
       </c>
     </row>
@@ -4413,28 +4413,28 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Вътрешен автобус</t>
+          <t>Централен автобус</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>1005789112</t>
+          <t>1005487555</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>ПАРТИ ФУУД АД</t>
+          <t>А И А УЕСТ ЕООД</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>42.66483,23.32477</t>
+          <t>42.65417,23.37211</t>
         </is>
       </c>
     </row>
@@ -4444,28 +4444,28 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Вътрешен автобус</t>
+          <t>Централен автобус</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>1007289701</t>
+          <t>1007162301</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>БЛЯК БИЙЧ ЕООД</t>
+          <t>МИГ ТРЕЙДИНГ 2021 ЕООД</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>42.66084,23.31657</t>
+          <t>42.65333,23.37721</t>
         </is>
       </c>
     </row>
@@ -4475,28 +4475,28 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Вътрешен автобус</t>
+          <t>Централен автобус</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>1005177501</t>
+          <t>1005962101</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>ЦЕЗАР И СИН ЕООД</t>
+          <t>ТАБАК ТРЕЙД 1 ЕООД</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>42.662,23.31679</t>
+          <t>42.65271,23.37423</t>
         </is>
       </c>
     </row>
@@ -4506,28 +4506,28 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Вътрешен автобус</t>
+          <t>Централен автобус</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>1005828216</t>
+          <t>1007019001</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>ВАГ КОМЕРС ЕООД</t>
+          <t>ДЖЕС 8 ЕООД</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>42.66262673138533,23.31686709076166</t>
+          <t>42.64999,23.37977</t>
         </is>
       </c>
     </row>
@@ -4537,28 +4537,28 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Вътрешен автобус</t>
+          <t>Централен автобус</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>1005475001</t>
+          <t>1007388301</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>ФАКТОР 73 ЕООД</t>
+          <t>ПИК ЕНД ПЕЙ ООД</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>42.65851,23.31561</t>
+          <t>42.64622,23.38205</t>
         </is>
       </c>
     </row>
@@ -4568,28 +4568,28 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Вътрешен автобус</t>
+          <t>Централен автобус</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>1007252006</t>
+          <t>1005021801</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>ЗЛАТЕН КРЪГ ЕООД</t>
+          <t>Т И Д СТОРС ООД</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>42.6594,23.31625</t>
+          <t>42.6464,23.38036</t>
         </is>
       </c>
     </row>
@@ -4599,28 +4599,28 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Вътрешен автобус</t>
+          <t>Централен автобус</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>1001060012</t>
+          <t>1005909501</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>345 ООД</t>
+          <t>БЛАГОЙ ЛЕСКОВ ЕТ</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>42.66432004756084,23.284143805503845</t>
+          <t>42.64968,23.35958</t>
         </is>
       </c>
     </row>
@@ -4630,34 +4630,34 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Вътрешен автобус</t>
+          <t>Централен автобус</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>1001060008</t>
+          <t>1007116402</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>345 ООД</t>
+          <t>СТОХИ 61 ООД</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>5.75</v>
+        <v>0.5</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>42.6723303764765,23.27230989933014</t>
+          <t>42.64739,23.36917</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -4665,30 +4665,30 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>1005972607</t>
+          <t>1005676102</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>МАНДАРИН 33 ЕООД</t>
+          <t>ДЖОЙС БЪЛГАРИЯ ЕООД</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>42.70016,23.30993</t>
+          <t>42.64753594210362,23.373030871152878</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -4696,30 +4696,30 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>1001030043</t>
+          <t>1005218001</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>КОМЕ ООД</t>
+          <t>МИПЕ 16 ЕООД</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>42.697685,23.321836</t>
+          <t>42.64614,23.37146</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -4727,30 +4727,30 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>1005931602</t>
+          <t>1005188201</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>БГ МАПС ООД</t>
+          <t>МАКС-ТАНЧЕВИ ООД</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>42.69516,23.32905</t>
+          <t>42.64366,23.37315</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -4758,30 +4758,30 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>1005751801</t>
+          <t>1005898101</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>МАКСИ КЕТЪРИНГ ЕООД</t>
+          <t>ЕДНО ДОБРО ЕООД</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>42.69432,23.32867</t>
+          <t>42.63977,23.36581</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -4789,30 +4789,30 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>1007990501</t>
+          <t>1007220403</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>КАЛАЙДЖИЕВ 2020 ЕООД</t>
+          <t>ПРОГРЕС БГ 18  ЕООД</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>42.69439,23.32871</t>
+          <t>42.63944,23.3659</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -4820,30 +4820,30 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>1007252601</t>
+          <t>1005839502</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>ХЕМУС 50 ООД</t>
+          <t>ДИАВЕНА 2002 ЕООД</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>42.69456,23.33075</t>
+          <t>42.63817,23.36906</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -4851,30 +4851,30 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>1007375401</t>
+          <t>1005636601</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>БИ МИНКОВИ ЕООД</t>
+          <t>АМИБИЛЕ ЕООД</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>42.69092,23.33909</t>
+          <t>42.6394,23.36944</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -4882,30 +4882,30 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>1007179401</t>
+          <t>1001140002</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>КРИСТА 85 ЕООД</t>
+          <t>ХИТ ХИПЕРМАРКЕТ ЕООД</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>42.69262,23.34409</t>
+          <t>42.63765680463562,23.371524140238762</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -4913,30 +4913,30 @@
         </is>
       </c>
       <c r="C145" t="n">
+        <v>22</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>1007362401</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>ДОМАШНА КУХНЯ ЕООД</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
         <v>9</v>
       </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>1007140201</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>НЕОМИ-ООД</t>
-        </is>
-      </c>
-      <c r="F145" t="n">
-        <v>5</v>
-      </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>42.69612,23.34602</t>
+          <t>42.63806,23.37204</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -4944,30 +4944,30 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>1005322009</t>
+          <t>1005213102</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>ПАВИЛИОН 24 ЕООД</t>
+          <t>ПРЕСТИЖ - В.М. ЕООД</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>42.69675,23.35262</t>
+          <t>42.6412791974245,23.37343655526638</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -4975,30 +4975,30 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>1007204902</t>
+          <t>1007319501</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>ДОМСТРОЙ ВЪЛКОВИ ЕООД</t>
+          <t>ВЕГ- ДРИНКС ЕООД</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>42.69685,23.35153</t>
+          <t>42.64027366975739,23.37559975683689</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -5006,30 +5006,30 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>1005873501</t>
+          <t>1005772104</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>НИКАЛ 2016 ООД</t>
+          <t>ВИАС - ВУЧЕВИ ООД</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>42.69689,23.35365</t>
+          <t>42.64038,23.37633</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -5037,30 +5037,30 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>1005746201</t>
+          <t>1007253702</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>ЧИКО ГРУП ЕООД</t>
+          <t>АЙЯ-МП ЕООД</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>42.6971,23.35373</t>
+          <t>42.64083,23.37587</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -5068,30 +5068,30 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>1007207402</t>
+          <t>1005962201</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>ЧОБИ ФЕШЪН ЕООД</t>
+          <t>ПХ КОМЕРС ЕООД</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>7.5</v>
+        <v>2</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>42.69312,23.35441</t>
+          <t>42.6405,23.37626</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -5099,30 +5099,30 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>1005216702</t>
+          <t>1005113303</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>НОА РУСЕВ ЕООД</t>
+          <t>РЕКОРД - 2004 ЕООД</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>42.69283,23.35229</t>
+          <t>42.63959,23.379175</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -5130,30 +5130,30 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>1005690302</t>
+          <t>1005440903</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>ИНИЦИАЛ М ЕООД</t>
+          <t>КОМТЕХНИК ЕООД</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>42.69376,23.34868</t>
+          <t>42.639463464561544,23.383776806294918</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -5161,61 +5161,61 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>1007158201</t>
+          <t>1005487547</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>СПОРТНА АКАДЕМИЯ - ООД</t>
+          <t>А И А УЕСТ ЕООД</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>8.5</v>
+        <v>1</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>42.69063,23.34944</t>
+          <t>42.63967,23.38398</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
+        <v>4</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Централен автобус</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>31</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>1005798403</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>ИНТЕРСПИЙД ЕООД</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
         <v>5</v>
       </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>Централен автобус</t>
-        </is>
-      </c>
-      <c r="C154" t="n">
-        <v>18</v>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>1007344501</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>ДИС7  ЕООД</t>
-        </is>
-      </c>
-      <c r="F154" t="n">
-        <v>6</v>
-      </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>42.69274,23.34356</t>
+          <t>42.6386,23.39459</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -5223,30 +5223,30 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>1005783313</t>
+          <t>1007025101</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>КОВАЧЕВ ТРЕЙД ЕООД</t>
+          <t>ЛИЛИЯ - 99 КОНСУЛТ ЕООД</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>42.69631,23.34087</t>
+          <t>42.63787,23.38247</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -5254,30 +5254,30 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>1005500501</t>
+          <t>1005950301</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>РАДИ - РАДОСЛАВ ВАСИЛЕВ ЕТ</t>
+          <t>ГРАНД ТАБАКО 09 ЕООД</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>42.70653,23.33669</t>
+          <t>42.63583,23.38048</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -5285,30 +5285,30 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>1005487535</t>
+          <t>1005972401</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>А И А ТРЕЙД ООД</t>
+          <t>СИСИ - ЖИВКОВА ООД</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>42.70153,23.33405</t>
+          <t>42.63558,23.37795</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -5316,712 +5316,712 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>1005487504</t>
+          <t>1007034401</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>А И А ТРЕЙД ООД</t>
+          <t>ТАБАКО ИЛЕВЪН ООД</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>42.69812,23.32975</t>
+          <t>42.63338,23.37561</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Външен автобус</t>
+          <t>Централен автобус</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>1005267301</t>
+          <t>1007326901</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>ЧИЧО НИКИ ЕООД</t>
+          <t>ТОНКОВ ЕООД</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>42.70196,23.2866</t>
+          <t>42.62668475124403,23.38056955486536</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Външен автобус</t>
+          <t>Централен автобус</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>1005680601</t>
+          <t>1005585006</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>НИКИ - МЕКС 2004 ЕООД</t>
+          <t>ДАЯНА 2010 ЕООД</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>42.70017,23.28676</t>
+          <t>42.62634,23.38432</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Външен автобус</t>
+          <t>Централен автобус</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>1001100004</t>
+          <t>1005122902</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>БУРОВ И СИН ООД</t>
+          <t>КИК КОМЕРС -С ЕООД</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>42.70218,23.28854</t>
+          <t>42.62657550662156,23.358484104543322</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Външен автобус</t>
+          <t>Централен автобус</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>1001120101</t>
+          <t>1005113330</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>КИРКОВ 2000 ООД</t>
+          <t>РЕКОРД  2013 ООД</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>42.70413,23.28993</t>
+          <t>42.64654,23.35424</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Външен автобус</t>
+          <t>Централен автобус</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>1001150104</t>
+          <t>1007233101</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>БРИЛЯНТ 24 ЕООД</t>
+          <t>ОСИ БИЛД - М ЕООД</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>42.70287,23.29264</t>
+          <t>42.64718,23.35441</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Външен автобус</t>
+          <t>Централен автобус</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>1005236017</t>
+          <t>1005904104</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>МТГ ТРЕЙД ООД</t>
+          <t>ДАНДИ 2 ООД</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>42.69692485384473,23.29128317534924</t>
+          <t>42.65091067299464,23.358867131173614</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Външен автобус</t>
+          <t>Централен автобус</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>1005016314</t>
+          <t>1005972001</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>ЯКИН ТРЕЙДИНГ ЕООД</t>
+          <t>ЮНИЖЕЛ ООД</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>42.69987,23.29429</t>
+          <t>42.65098,23.36248</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Външен автобус</t>
+          <t>Централен автобус</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>1005052302</t>
+          <t>1005959201</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>ДЕШЕВ ЕООД</t>
+          <t>ТАНЯ-92 - ИЛИЯ АЛЕКСИЕВ ЕТ</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>42.69956,23.30262</t>
+          <t>42.651,23.36348</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Външен автобус</t>
+          <t>Централен автобус</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>1007005301</t>
+          <t>1005113302</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>АЛАРИН ТРЕЙДИНГ ЕООД</t>
+          <t>РЕКОРД - 2004 ЕООД</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>42.69616,23.30129</t>
+          <t>42.6524450012986,23.360299960046404</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Външен автобус</t>
+          <t>Централен автобус</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>1005320401</t>
+          <t>1005694402</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>ДИЗАЙН БИЛД КОМЕРС ЕООД</t>
+          <t>ДЖУЛИАН 2007 ЕООД</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>42.70184,23.30686</t>
+          <t>42.65144,23.36102</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Външен автобус</t>
+          <t>Централен автобус</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>1005799020</t>
+          <t>1005996501</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>ЕМПАИЪР 17 ЕООД</t>
+          <t>ДАРГРУП 2016 ЕООД</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>42.7012,23.30968</t>
+          <t>42.65007,23.36294</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Външен автобус</t>
+          <t>Централен автобус</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>1005606004</t>
+          <t>1005887601</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>ИЛТЕР ГРУП ЕООД</t>
+          <t>ТОРОС ТРЕЙД  2017 ЕООД</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>42.69888,23.30861</t>
+          <t>42.65366,23.34425</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Външен автобус</t>
+          <t>Централен автобус</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>1007154809</t>
+          <t>1005884901</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>АВИ СЪРВИС ООД</t>
+          <t>ЯНИС ТРЕЙД ЕООД</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>42.69635,23.31707</t>
+          <t>42.65352,23.342675</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Външен автобус</t>
+          <t>Централен автобус</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>1007281001</t>
+          <t>1007312602</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>ЛА ЛУПИ ООД</t>
+          <t>ФУТ БАР 777 ЕООД</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>42.69492,23.3168</t>
+          <t>42.65346,23.34079</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Външен автобус</t>
+          <t>Централен автобус</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>1005721603</t>
+          <t>1005884903</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>КРАСИ 20 ЕООД</t>
+          <t>ЯНИС ТРЕЙД ЕООД</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>42.70377,23.32094</t>
+          <t>42.64327,23.33727</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Външен автобус</t>
+          <t>Централен автобус</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>1005799005</t>
+          <t>1005884902</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>ТАУЪР 11 ЕООД</t>
+          <t>ЯНИС ТРЕЙД ЕООД</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>13.5</v>
+        <v>3</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>42.7036,23.32074</t>
+          <t>42.648285,23.3411</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Външен автобус</t>
+          <t>Централен автобус</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>1005897701</t>
+          <t>1005734502</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>МИЛТ КОМЕРС ХР.ЗАХАРИЕВ ЕТ</t>
+          <t>К И Д 76 ООД</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>42.71223,23.32074</t>
+          <t>42.65197,23.34683</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Външен автобус</t>
+          <t>Централен автобус</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>1007162601</t>
+          <t>1005799013</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>ПИЦА ЛА ВИСТА ЕООД</t>
+          <t>Фреш БГ ЕООД</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>42.71208,23.32046</t>
+          <t>42.65712,23.35831</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Външен автобус</t>
+          <t>Централен автобус</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>1007390001</t>
+          <t>1005526701</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>СТЕФИ И ВАСИЛЕНА ЕООД</t>
+          <t>АНИМАР 2002-М.ПЕТЕВ ЕТ</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>42.711,23.32316</t>
+          <t>42.65844,23.36394</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Външен автобус</t>
+          <t>Централен автобус</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>1005996101</t>
+          <t>1001030027</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>ЕЛ ДЖИ АР ООД</t>
+          <t>КОМЕ ООД</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>42.70748,23.32352</t>
+          <t>42.67084861162976,23.363492168898688</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Външен автобус</t>
+          <t>Централен автобус</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>1005770909</t>
+          <t>1007223901</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>ПИ ЕМ ДЖИ 24 ЕООД</t>
+          <t>НАС 777 ГРУП ЕООД</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>42.707,23.32451</t>
+          <t>42.69639,23.31698</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Външен автобус</t>
+          <t>Централен автобус</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>1005459202</t>
+          <t>1007169101</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>ТЕЯМИ ООД</t>
+          <t>ЖАКО 1 ЕООД</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>42.70687,23.32439</t>
+          <t>42.69918,23.31592</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -6029,30 +6029,30 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>1005597901</t>
+          <t>1005208404</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>НИКО - ВН ЕООД</t>
+          <t>СТИВЪН ТД  ООД</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>0.5</v>
+        <v>120</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>42.70109,23.31862</t>
+          <t>42.69632,23.28815</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -6060,24 +6060,24 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>1005156902</t>
+          <t>1005208404</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>АЙ ЕНД ДИ ТРЕЙДИНГ ЕООД</t>
+          <t>СТИВЪН ТД  ООД</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>42.69972,23.31269</t>
+          <t>42.69632,23.28815</t>
         </is>
       </c>
     </row>
@@ -6091,24 +6091,24 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>1005727401</t>
+          <t>1005423701</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>БУЛ. ИН. КЕП. ЕООД</t>
+          <t>ПОДУЙЕВО ООД</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>42.70264,23.31308</t>
+          <t>42.795121085493164,23.146669460983275</t>
         </is>
       </c>
     </row>
@@ -6122,24 +6122,24 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>1007960801</t>
+          <t>1003934201</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>САПО - 81 ЕООД</t>
+          <t>НИКИТА ЕМ ЕООД</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>42.70349,23.30956</t>
+          <t>42.9219,22.93234</t>
         </is>
       </c>
     </row>
@@ -6153,24 +6153,24 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>1005828208</t>
+          <t>1005364246</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>АЛКО ДЖИ ЕООД</t>
+          <t>ФРЕШ МАРКЕТ ИНОВЕЙШЪН ЕООД</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>8.5</v>
+        <v>3</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>42.70405,23.30361</t>
+          <t>42.92126,22.92862</t>
         </is>
       </c>
     </row>
@@ -6184,24 +6184,24 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>1007274001</t>
+          <t>1005944201</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>АЛПИ -2010 ООД</t>
+          <t>АЛВА - ЗОНИ ООД</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>42.7044,23.30238</t>
+          <t>42.8565583792855,23.03882025182247</t>
         </is>
       </c>
     </row>
@@ -6215,24 +6215,24 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>1005881002</t>
+          <t>1007030203</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>ЗААР ТИЙМ ЕООД</t>
+          <t>БОВИМАВИ ЕООД</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>42.70281,23.30145</t>
+          <t>42.855474246898495,23.038572818040848</t>
         </is>
       </c>
     </row>
@@ -6246,24 +6246,24 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>1005036510</t>
+          <t>1007030202</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>БАУМ ЕООД</t>
+          <t>БОВИМАВИ ЕООД</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>42.70374,23.30141</t>
+          <t>42.85228,23.04378</t>
         </is>
       </c>
     </row>
@@ -6277,24 +6277,24 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>1001030004</t>
+          <t>1005364221</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>КОМЕ ООД</t>
+          <t>ФРЕШ МАРКЕТ 2011 ООД</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>42.711674441108016,23.29751283502651</t>
+          <t>42.85236,23.03934</t>
         </is>
       </c>
     </row>
@@ -6308,24 +6308,24 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>1007153001</t>
+          <t>1005307701</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>ГУУД МИЙЛ ЕООД</t>
+          <t>ИВАЙЛО ГРИГ - ИВАЙЛО КИРИЛОВ ЕТ</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>42.7241,23.28152</t>
+          <t>42.8481,22.98568</t>
         </is>
       </c>
     </row>
@@ -6339,24 +6339,24 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>1005423002</t>
+          <t>1005630701</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>БИЕФ-БИСЕР БОЯНОВ ЕТ</t>
+          <t>ДИМИТЪР  БОРИСОВ 95 ЕТ</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>42.72552,23.27432</t>
+          <t>42.84861,22.98351</t>
         </is>
       </c>
     </row>
@@ -6370,24 +6370,24 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>1007234201</t>
+          <t>1005323103</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>ЗДРАВЕЦ 21 ООД</t>
+          <t>РАДИ - 07 ООД</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>42.7182530352552,23.245907910168167</t>
+          <t>42.848,22.98828</t>
         </is>
       </c>
     </row>
@@ -6401,24 +6401,985 @@
         </is>
       </c>
       <c r="C193" t="n">
+        <v>11</v>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>1005403901</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>ГРОЗДХЕР ЕООД</t>
+        </is>
+      </c>
+      <c r="F193" t="n">
+        <v>2</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>42.79585677316441,23.144660890102386</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>6</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Външен автобус</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>12</v>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>1005329503</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>КАНЕВИ 2015 ЕООД</t>
+        </is>
+      </c>
+      <c r="F194" t="n">
+        <v>1</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>42.80455562466237,23.37888177484274</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>6</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Външен автобус</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>13</v>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>1005191301</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>ДИВЕРСИЯ ЕМ ЕООД</t>
+        </is>
+      </c>
+      <c r="F195" t="n">
+        <v>1</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>42.822801255797955,23.35383664816618</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>6</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Външен автобус</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>14</v>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>1005316001</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>ГЪЛЪБИНОВ ЕООД</t>
+        </is>
+      </c>
+      <c r="F196" t="n">
+        <v>3</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>42.82713771003444,23.354193177350225</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>6</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Външен автобус</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>15</v>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>1005395706</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>ГЕОРГИЕВ-ТАТЯНА ГЕОРГИЕВА ЕТ</t>
+        </is>
+      </c>
+      <c r="F197" t="n">
+        <v>1</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>42.89972,23.38871</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>6</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Външен автобус</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>16</v>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>1005395704</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>ГЕОРГИЕВ-ТАТЯНА ГЕОРГИЕВА ЕТ</t>
+        </is>
+      </c>
+      <c r="F198" t="n">
+        <v>1</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>42.864668737302715,23.36922448128462</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>6</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Външен автобус</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>17</v>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>1005364254</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>ФРЕШ ТРЕЙД ГРУП ООД</t>
+        </is>
+      </c>
+      <c r="F199" t="n">
+        <v>6</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>42.82337,23.35418</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>6</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Външен автобус</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>18</v>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>1005297715</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>СММ 1 ООД</t>
+        </is>
+      </c>
+      <c r="F200" t="n">
+        <v>3</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>42.82046,23.35394</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>6</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Външен автобус</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>19</v>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>1005364247</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>ФРЕШ МАРКЕТ 2012 ООД</t>
+        </is>
+      </c>
+      <c r="F201" t="n">
+        <v>5</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>42.81497,23.3489</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>6</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Външен автобус</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>20</v>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>1007926401</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>ПОПЕВИ ЕООД</t>
+        </is>
+      </c>
+      <c r="F202" t="n">
+        <v>3</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>42.80457,23.345875</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>6</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Външен автобус</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>21</v>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>1005297714</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>СММ 2 ООД</t>
+        </is>
+      </c>
+      <c r="F203" t="n">
+        <v>2</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>42.80079,23.3413</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>6</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Външен автобус</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>22</v>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>1007009901</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>ВАСИЛЕВИ 2017 ЕООД</t>
+        </is>
+      </c>
+      <c r="F204" t="n">
+        <v>2</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>42.80074373926324,23.34151927381754</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>6</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Външен автобус</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>23</v>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>1007009901</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>ВАСИЛЕВИ 2017 ЕООД</t>
+        </is>
+      </c>
+      <c r="F205" t="n">
+        <v>2</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>42.80074373926324,23.34151927381754</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>6</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Външен автобус</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>24</v>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>1007062005</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>ИЛЕМА 2016 ЕООД</t>
+        </is>
+      </c>
+      <c r="F206" t="n">
+        <v>5</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>42.79873139168656,23.340508546956243</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>6</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Външен автобус</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>25</v>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>1003954101</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>РИВИЕРА ЕООД</t>
+        </is>
+      </c>
+      <c r="F207" t="n">
+        <v>10</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>42.789703050520295,23.30370146781206</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>6</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Външен автобус</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>26</v>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>1005352001</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>МЕР - БОРИС КОЛЕВ ЕТ</t>
+        </is>
+      </c>
+      <c r="F208" t="n">
+        <v>6</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>42.77568,23.31532</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>6</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Външен автобус</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>27</v>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>1005328001</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>БИАТ - 90 ООД</t>
+        </is>
+      </c>
+      <c r="F209" t="n">
+        <v>1</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>42.77547,23.31544</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>6</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Външен автобус</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>28</v>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>1007342401</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>ИНФИНИТИ 9897 ООД</t>
+        </is>
+      </c>
+      <c r="F210" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>42.69876,23.34629</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>6</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Външен автобус</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>29</v>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>1007074703</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>БОНОР 2019 ЕООД</t>
+        </is>
+      </c>
+      <c r="F211" t="n">
+        <v>1</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>42.69874,23.36751</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>6</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Външен автобус</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>30</v>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>1005165801</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>ЛИМАР 63 ЕООД</t>
+        </is>
+      </c>
+      <c r="F212" t="n">
+        <v>2</v>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>42.69856,23.37902</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>6</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Външен автобус</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>31</v>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>1007103801</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>ПЕРГОЛИ ЕООД</t>
+        </is>
+      </c>
+      <c r="F213" t="n">
+        <v>1</v>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>42.70073,23.38453</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>6</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Външен автобус</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>32</v>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>1005134201</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>ТИВЕЯ  ЕООД</t>
+        </is>
+      </c>
+      <c r="F214" t="n">
+        <v>10</v>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>42.6700826226472,23.413640856742855</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>6</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Външен автобус</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>33</v>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>1005952802</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>Н &amp; Н НИКОЛОВИ ЕООД</t>
+        </is>
+      </c>
+      <c r="F215" t="n">
+        <v>1</v>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>42.66462,23.40503</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>6</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Външен автобус</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>34</v>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>1005873502</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>НИКАЛ 2016 ООД</t>
+        </is>
+      </c>
+      <c r="F216" t="n">
+        <v>209</v>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>42.66269,23.40625</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>6</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Външен автобус</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
         <v>35</v>
       </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>1001030033</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>КОМЕ ООД</t>
-        </is>
-      </c>
-      <c r="F193" t="n">
-        <v>10</v>
-      </c>
-      <c r="G193" t="inlineStr">
-        <is>
-          <t>42.71830388703453,23.245845349919364</t>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>1007156604</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>СЕВИ ОЙЛ ЕООД</t>
+        </is>
+      </c>
+      <c r="F217" t="n">
+        <v>2</v>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>42.65534,23.40068</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>6</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Външен автобус</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>36</v>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>1005765702</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>СИА ТРЕЙДИНГ ООД</t>
+        </is>
+      </c>
+      <c r="F218" t="n">
+        <v>2</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>42.65251,23.40078</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>6</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Външен автобус</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>37</v>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>1005054302</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>С.АНАСТАСОВ ЕТ</t>
+        </is>
+      </c>
+      <c r="F219" t="n">
+        <v>2</v>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>42.65095,23.40187</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>6</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Външен автобус</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>38</v>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>1007144801</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>РС ГРУП БГ</t>
+        </is>
+      </c>
+      <c r="F220" t="n">
+        <v>2</v>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>42.64229,23.40849</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>6</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Външен автобус</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>39</v>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>1005952404</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>КРАЛИЦА 86 ООД</t>
+        </is>
+      </c>
+      <c r="F221" t="n">
+        <v>3</v>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>42.64484,23.41065</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>6</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Външен автобус</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>40</v>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>1005884404</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>МИБО 82 ООД</t>
+        </is>
+      </c>
+      <c r="F222" t="n">
+        <v>12</v>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>42.64383,23.41236</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>6</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Външен автобус</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>41</v>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>1005844101</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>В - И - В 82 ЕООД</t>
+        </is>
+      </c>
+      <c r="F223" t="n">
+        <v>3</v>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>42.63574,23.41032</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>6</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Външен автобус</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>42</v>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>1005996105</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>ЕЛ ДЖИ АР ООД</t>
+        </is>
+      </c>
+      <c r="F224" t="n">
+        <v>5</v>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>42.62841,23.40785</t>
         </is>
       </c>
     </row>

--- a/output/excel/vehicle_routes.xlsx
+++ b/output/excel/vehicle_routes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G308"/>
+  <dimension ref="A1:G309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,20 +484,20 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1007245401</t>
+          <t>1007965103</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ПСГ ДЕПО ЕООД</t>
+          <t>СОЛЕНО И СЛАДКО 2024 ООД</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>42.683772231915206,23.278605043888092</t>
+          <t>42.72082364923982,23.24250821024179</t>
         </is>
       </c>
     </row>
@@ -515,20 +515,20 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1001060008</t>
+          <t>1001030033</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>345 ООД</t>
+          <t>КОМЕ ООД</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>42.6723303764765,23.27230989933014</t>
+          <t>42.71830388703453,23.245845349919364</t>
         </is>
       </c>
     </row>
@@ -546,20 +546,20 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1005487556</t>
+          <t>1005904801</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>АЛКОХОЛ И ТАБАКОФФ ЕООД</t>
+          <t>ДА-БИС Н ЕООД</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>42.66888,23.27967</t>
+          <t>42.71654842988965,23.24971664696932</t>
         </is>
       </c>
     </row>
@@ -577,20 +577,20 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1001060012</t>
+          <t>1005291502</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>345 ООД</t>
+          <t>ЕВРОТРЕЙД 2000 ЕООД</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>42.66432004756084,23.284143805503845</t>
+          <t>42.737192434070785,23.2604206725955</t>
         </is>
       </c>
     </row>
@@ -608,20 +608,20 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1005016201</t>
+          <t>1001300101</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>АНДМАРТ ЕООД</t>
+          <t>КЪНВИНИЪНС АД</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>12.5</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>42.67618,23.3004</t>
+          <t>42.73648174766753,23.259858079254627</t>
         </is>
       </c>
     </row>
@@ -639,20 +639,20 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1007186401</t>
+          <t>1005570601</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>АЛВАКОМ ТРЕЙД ЕООД</t>
+          <t>СИ ЕМ ЕМ - 2003 ЕООД</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>42.67665,23.3005</t>
+          <t>42.742757472161536,23.266218937933445</t>
         </is>
       </c>
     </row>
@@ -670,20 +670,20 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1005828206</t>
+          <t>1005364239</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>АЛКО ДЖИ ЕООД</t>
+          <t>ФРЕШ МАРКЕТ 2014 ООД</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>42.67754,23.30014</t>
+          <t>42.742509272255084,23.265327103435993</t>
         </is>
       </c>
     </row>
@@ -701,20 +701,20 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1005487559</t>
+          <t>1007354001</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>АЛКОХОЛ И ТАБАКОФФ ЕООД</t>
+          <t>НИПО 2024 ЕООД</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>42.67706,23.30333</t>
+          <t>42.73765,23.26783</t>
         </is>
       </c>
     </row>
@@ -732,20 +732,20 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1001030015</t>
+          <t>1007136601</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>КОМЕ ООД</t>
+          <t>СТЕО 17 ЕООД</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>42.666830877135354,23.30027152463913</t>
+          <t>42.73714219870896,23.26852429658175</t>
         </is>
       </c>
     </row>
@@ -763,20 +763,20 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1005995701</t>
+          <t>1007165301</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ДЕНИРА 2013 ЕООД</t>
+          <t>МЕДЕН 5 ЕООД</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>42.66579,23.29977</t>
+          <t>42.73549,23.26921</t>
         </is>
       </c>
     </row>
@@ -794,20 +794,20 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1005884903</t>
+          <t>1005265503</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ЯНИС ТРЕЙД ЕООД</t>
+          <t>АЛТЪНЦАЙК ЕООД</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>42.64327,23.33727</t>
+          <t>42.74014910742735,23.274908289313316</t>
         </is>
       </c>
     </row>
@@ -825,20 +825,20 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1007331901</t>
+          <t>1005902002</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ВЕСТЕЛ 23 ЕООД</t>
+          <t>ВЕСМАР 3 ЕООД</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>9</v>
+        <v>13.75</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>42.64082,23.34936</t>
+          <t>42.74130494689523,23.276658095419407</t>
         </is>
       </c>
     </row>
@@ -856,20 +856,20 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1007355501</t>
+          <t>1005731216</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>МИЛА С 24 ООД</t>
+          <t>ШАНИ ХЦ ЕООД</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>42.64027,23.34938</t>
+          <t>42.74129,23.27661</t>
         </is>
       </c>
     </row>
@@ -887,20 +887,20 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1007164501</t>
+          <t>1005558705</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ДЖИВИ ПАРТНЪРС ООД</t>
+          <t>ДЕНИЦА МАРКЕТ ООД</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>12.5</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>42.64269,23.34391</t>
+          <t>42.77351,23.24339</t>
         </is>
       </c>
     </row>
@@ -918,20 +918,20 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1001030014</t>
+          <t>1005433601</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>КОМЕ ООД</t>
+          <t>СТАСИ И КО ЕООД</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>42.664767872290774,23.293110026569366</t>
+          <t>42.77369,23.24291</t>
         </is>
       </c>
     </row>
@@ -949,20 +949,20 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1005154701</t>
+          <t>1005113332</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ОУПЕН ТУРИЗЪМ ЕООД</t>
+          <t>РЕКОРД - 2013 ООД</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>7.5</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>42.67422,23.28563</t>
+          <t>42.80252,23.22385</t>
         </is>
       </c>
     </row>
@@ -980,20 +980,20 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1005321044</t>
+          <t>1005075101</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>АЛКОХОЛ ТАБАКО АБ ЕООД</t>
+          <t>ГРЕТА 90 ЕООД</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>42.67558,23.28322</t>
+          <t>42.810187417814085,23.215207681059837</t>
         </is>
       </c>
     </row>
@@ -1011,20 +1011,20 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1005109102</t>
+          <t>1007010401</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ДЕССКО - 2023 ЕООД</t>
+          <t>ДИНИЗ ЕООД</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>21.25</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>42.67502,23.28258</t>
+          <t>42.80909115725059,23.208447843790054</t>
         </is>
       </c>
     </row>
@@ -1042,20 +1042,20 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1007068301</t>
+          <t>1005495301</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>КРИСИ ТРЕЙДИНГ ЕООД</t>
+          <t>ХЕРА 13 ЕООД</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>21.25</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>42.67652,23.28544</t>
+          <t>42.80788139711057,23.198940350265502</t>
         </is>
       </c>
     </row>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1007315201</t>
+          <t>1005838002</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>В И Н-98 ООД</t>
+          <t>Ю ТРЕЙД 7 ЕООД</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>42.67824,23.2859</t>
+          <t>42.81174581087515,23.197417929768562</t>
         </is>
       </c>
     </row>
@@ -1104,20 +1104,20 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1007982201</t>
+          <t>1005402501</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>КАЯ 2020 ЕООД</t>
+          <t>МАСГРАНДЕ ООД</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>42.67903,23.28466</t>
+          <t>42.81375,23.19714</t>
         </is>
       </c>
     </row>
@@ -1135,20 +1135,20 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1005045502</t>
+          <t>1005865001</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>СТОБИС ООД</t>
+          <t>ТЕРИ В 2000 ЕООД</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>7.5</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>42.681754893722136,23.289524987339973</t>
+          <t>42.81109377966703,23.19973971694708</t>
         </is>
       </c>
     </row>
@@ -1166,20 +1166,20 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1005146804</t>
+          <t>1005342802</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>СЕТИ ТРЕЙДИНГ  ЕООД</t>
+          <t>ЯНА ВИЖЪН ЕООД</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>42.68219,23.29002</t>
+          <t>42.80972254864426,23.201326578855515</t>
         </is>
       </c>
     </row>
@@ -1197,20 +1197,20 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1007320201</t>
+          <t>1001150301</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>КОРНЕРСТОУН ООД</t>
+          <t>БРИЛЯНТ - 34 ЕООД</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>42.68262,23.28961</t>
+          <t>42.81256926407976,23.214515671133995</t>
         </is>
       </c>
     </row>
@@ -1228,20 +1228,20 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1007167602</t>
+          <t>1007138501</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ТОТОВИ КОМЕРС ЕООД</t>
+          <t>СТЕ ФАНИ 0454 ЕООД</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>12.5</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>42.69731,23.3146</t>
+          <t>42.80969,23.21652</t>
         </is>
       </c>
     </row>
@@ -1259,20 +1259,20 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1007003901</t>
+          <t>1005519901</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>АНТИВ ТРЕЙД ЕООД</t>
+          <t>НЕЛИНА 2000 ЕТ</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>42.69611,23.30866</t>
+          <t>42.81575,23.2177</t>
         </is>
       </c>
     </row>
@@ -1290,20 +1290,20 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1007038901</t>
+          <t>1005323701</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>МАГАЗИНЧЕТО 2020 ЕООД</t>
+          <t>СТРОНГПЛАСТ ЕООД</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>42.69716,23.30731</t>
+          <t>42.81828,23.21396</t>
         </is>
       </c>
     </row>
@@ -1321,20 +1321,20 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1005783309</t>
+          <t>1005321401</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ВЪРБАНОВ И КОВАЧЕВ ООД</t>
+          <t>ГЛАРУС 07 ООД</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>42.69857,23.31012</t>
+          <t>42.81863,23.21336</t>
         </is>
       </c>
     </row>
@@ -1352,20 +1352,20 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1005972607</t>
+          <t>1005342803</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>МАНДАРИН 33 ЕООД</t>
+          <t>ЯНА ВИЖЪН ЕООД</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>12.5</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>42.70016,23.30993</t>
+          <t>42.81919,23.21283</t>
         </is>
       </c>
     </row>
@@ -1383,20 +1383,20 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1005320401</t>
+          <t>1005807801</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ДИЗАЙН БИЛД КОМЕРС ЕООД</t>
+          <t>ФЕНИКС - КОМЕРС - 09  ООД</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>42.70184,23.30686</t>
+          <t>42.85049,23.21458</t>
         </is>
       </c>
     </row>
@@ -1414,20 +1414,20 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1005881002</t>
+          <t>1005342801</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ЗААР ТИЙМ ЕООД</t>
+          <t>АЛАС 70 ЕООД</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>42.70281,23.30145</t>
+          <t>42.8494443547511,23.220255865306853</t>
         </is>
       </c>
     </row>
@@ -1445,20 +1445,20 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1007997002</t>
+          <t>1005364260</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ГИФТ-2019 ЕООД</t>
+          <t>ФРЕШ МАРКЕТ 2017 ООД</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>42.70249473647836,23.302046209573746</t>
+          <t>42.78426378405149,23.274518363177776</t>
         </is>
       </c>
     </row>
@@ -1476,20 +1476,20 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1005881101</t>
+          <t>1003950901</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ЙОРДАНОВА-78 ЕООД</t>
+          <t>ИНТЕРСПИЙД ЕООД</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>42.70034,23.30061</t>
+          <t>42.78035664604721,23.274280317127708</t>
         </is>
       </c>
     </row>
@@ -1507,20 +1507,20 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1005368501</t>
+          <t>1005418001</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ВЕЛМАР 5 ЕООД</t>
+          <t>АТАНАСОВ МАРКЕТ ЕООД</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>42.69822,23.29903</t>
+          <t>42.7509354061623,23.31816440475768</t>
         </is>
       </c>
     </row>
@@ -1538,20 +1538,20 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1007377001</t>
+          <t>1005262002</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>АНТ ТРЕЙД ЕООД</t>
+          <t>С + С - СИЛВА БОЖИЛОВА ЕТ</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>42.69848,23.3042</t>
+          <t>42.75133,23.31824</t>
         </is>
       </c>
     </row>
@@ -1569,20 +1569,20 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1005985907</t>
+          <t>1005972609</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>СПИРИТ ШОП ЕООД</t>
+          <t>МЕМО 1991 ЕООД</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>42.69408,23.30021</t>
+          <t>42.740068586917275,23.31717185676098</t>
         </is>
       </c>
     </row>
@@ -1600,12 +1600,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1007366501</t>
+          <t>1007358301</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>АР ЕМ СИ ТРЕЙД ЕООД</t>
+          <t>ЛОЗАНОВ ТРЕЙД ЕООД</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>42.69258933818978,23.296181224286556</t>
+          <t>42.72719060836209,23.3111422508955</t>
         </is>
       </c>
     </row>
@@ -1631,20 +1631,20 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1005208404</t>
+          <t>1005133801</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>СТИВЪН ТД  ООД</t>
+          <t>ЕСКАЛИБУР - 359 ЕООД</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>20</v>
+        <v>2.5</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>42.69632,23.28815</t>
+          <t>42.72847,23.30745</t>
         </is>
       </c>
     </row>
@@ -1662,26 +1662,26 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1005266901</t>
+          <t>1005262701</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>РАДИ - РАДКА ПАВЛОВА 15 ЕООД</t>
+          <t>ДЕНИ - 74 - ДАМЯН ДЕЯНОВ ЕТ</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>42.69622504117903,23.287158273160458</t>
+          <t>42.72600174843541,23.305461667478085</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1689,30 +1689,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1007326701</t>
+          <t>1005996101</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ВИТА ФОРТУНА ООД</t>
+          <t>ЕЛ ДЖИ АР ООД</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>42.64944,23.26398</t>
+          <t>42.70748,23.32352</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1720,30 +1720,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1005115901</t>
+          <t>1005897701</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>АДИА ТРЕЙД ЕООД</t>
+          <t>МИЛТ КОМЕРС ХР.ЗАХАРИЕВ ЕТ</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>7.5</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>42.64875,23.26254</t>
+          <t>42.71223,23.32074</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1751,30 +1751,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1001060018</t>
+          <t>1007162601</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>345 ООД</t>
+          <t>ПИЦА ЛА ВИСТА ЕООД</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>42.64308649204917,23.282867074012756</t>
+          <t>42.71208,23.32046</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1782,30 +1782,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1007379801</t>
+          <t>1007164601</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>МС ТРЕЙД КОНСУЛТ ООД</t>
+          <t>СТЕЛЛА1979ЕООД</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>7.5</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>42.6429,23.28372</t>
+          <t>42.70368,23.30716</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1813,30 +1813,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1007250302</t>
+          <t>1007947102</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Я И КО ИНВЕСТМЪНТ ГРУП ООД</t>
+          <t>КОНА ГРУП ЕООД</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>42.63534,23.30058</t>
+          <t>42.70303,23.29952</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1844,24 +1844,24 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1007183901</t>
+          <t>1005680601</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ЛОЗЯ ООД</t>
+          <t>НИКИ - МЕКС 2004 ЕООД</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>42.63047,23.30638</t>
+          <t>42.70017,23.28676</t>
         </is>
       </c>
     </row>
@@ -1875,24 +1875,24 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1007380801</t>
+          <t>1005266901</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>МА ЛИ 5 ЕООД</t>
+          <t>РАДИ - РАДКА ПАВЛОВА 15 ЕООД</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>42.62864,23.30928</t>
+          <t>42.69622504117903,23.287158273160458</t>
         </is>
       </c>
     </row>
@@ -1906,24 +1906,24 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1005156903</t>
+          <t>1005208404</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>АЙ ЕНД ДИ ТРЕЙДИНГ ЕООД</t>
+          <t>СТИВЪН ТД  ООД</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>42.62899,23.3093</t>
+          <t>42.69632,23.28815</t>
         </is>
       </c>
     </row>
@@ -1937,24 +1937,24 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1007236301</t>
+          <t>1005236017</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>ТИФАНИ ЕКСПРЕС ЕООД</t>
+          <t>МТГ ТРЕЙД ООД</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.333</v>
+        <v>5</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>42.62928,23.31163</t>
+          <t>42.69692485384473,23.29128317534924</t>
         </is>
       </c>
     </row>
@@ -1968,24 +1968,24 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1005188204</t>
+          <t>1005016314</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>МАКС-ТАНЧЕВИ ООД</t>
+          <t>ЯКИН ТРЕЙДИНГ ЕООД</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>42.62265,23.32135</t>
+          <t>42.69987,23.29429</t>
         </is>
       </c>
     </row>
@@ -1999,24 +1999,24 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1005016313</t>
+          <t>1005976102</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>ЯКИН ТРЕЙДИНГ ЕООД</t>
+          <t>ДЕСИТА 2022 ЕООД</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>42.63412,23.31023</t>
+          <t>42.70677,23.2996</t>
         </is>
       </c>
     </row>
@@ -2030,24 +2030,24 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1005963501</t>
+          <t>1005721603</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>АЛМИЕЛА - АЛЕКСАНДЪР МИЛАНОВ ЕТ</t>
+          <t>КРАСИ 20 ЕООД</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>42.63412,23.31023</t>
+          <t>42.70377,23.32094</t>
         </is>
       </c>
     </row>
@@ -2061,24 +2061,24 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1007031601</t>
+          <t>1005799005</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Ем ЕС Трейд 2020 ООД</t>
+          <t>ТАУЪР 11 ЕООД</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>42.63918,23.31166</t>
+          <t>42.7036,23.32074</t>
         </is>
       </c>
     </row>
@@ -2092,24 +2092,24 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1004903401</t>
+          <t>1007389301</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>ХЕЛ ЕНЕРДЖИ БЪЛГАРИЯ ЕООД</t>
+          <t>АМИР -КОМПАНИ ЕООД</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>42.65820868837977,23.31713765859604</t>
+          <t>42.70178,23.31986</t>
         </is>
       </c>
     </row>
@@ -2123,24 +2123,24 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1007333101</t>
+          <t>1005926406</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ПЕРЛА 1-К  ЕООД</t>
+          <t>ЕН ДЖИ КЪМПАНИ 1 ЕООД</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0.5</v>
+        <v>7.5</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>42.65683,23.334</t>
+          <t>42.6997,23.3182</t>
         </is>
       </c>
     </row>
@@ -2154,24 +2154,24 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1005087011</t>
+          <t>1001030043</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>ЕВЕЛ-19 ЕООД</t>
+          <t>КОМЕ ООД</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>42.65905,23.34094</t>
+          <t>42.697685,23.321836</t>
         </is>
       </c>
     </row>
@@ -2185,24 +2185,24 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1001060019</t>
+          <t>1005487504</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>345 ООД</t>
+          <t>А И А ТРЕЙД ООД</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>42.67044,23.34992</t>
+          <t>42.69812,23.32975</t>
         </is>
       </c>
     </row>
@@ -2216,24 +2216,24 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1005560104</t>
+          <t>1007344501</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>ДИМИТРОВ ТРЕЙД СЪРВИС ООД</t>
+          <t>ДИС7  ЕООД</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>58</v>
+        <v>2.5</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>42.66627,23.36354</t>
+          <t>42.69274,23.34356</t>
         </is>
       </c>
     </row>
@@ -2247,24 +2247,24 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>1005961805</t>
+          <t>1007179401</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ФУУДУЕЙС ЕООД</t>
+          <t>КРИСТА 85 ЕООД</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>42.67014,23.37162</t>
+          <t>42.69262,23.34409</t>
         </is>
       </c>
     </row>
@@ -2278,24 +2278,24 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>1005907801</t>
+          <t>1007204902</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>КАЕЛ ТРЕЙДИНГ EООД</t>
+          <t>ДОМСТРОЙ ВЪЛКОВИ ЕООД</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>42.68676,23.34844</t>
+          <t>42.69685,23.35153</t>
         </is>
       </c>
     </row>
@@ -2309,24 +2309,24 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>1007158201</t>
+          <t>1007141701</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>СПОРТНА АКАДЕМИЯ - ООД</t>
+          <t>ВАНЕСА 02 ООД</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>42.69063,23.34944</t>
+          <t>42.69661,23.35011</t>
         </is>
       </c>
     </row>
@@ -2340,24 +2340,24 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>1007344501</t>
+          <t>1007158201</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>ДИС7  ЕООД</t>
+          <t>СПОРТНА АКАДЕМИЯ - ООД</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>42.69274,23.34356</t>
+          <t>42.69063,23.34944</t>
         </is>
       </c>
     </row>
@@ -2371,24 +2371,24 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>1007179401</t>
+          <t>1005907801</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>КРИСТА 85 ЕООД</t>
+          <t>КАЕЛ ТРЕЙДИНГ EООД</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>17.5</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>42.69262,23.34409</t>
+          <t>42.68676,23.34844</t>
         </is>
       </c>
     </row>
@@ -2402,24 +2402,24 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1005926409</t>
+          <t>1001060019</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>ЕН ДЖИ ШОПС ЕООД</t>
+          <t>345 ООД</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>42.69018,23.3408</t>
+          <t>42.67044,23.34992</t>
         </is>
       </c>
     </row>
@@ -2433,24 +2433,24 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1007375401</t>
+          <t>1007136701</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>БИ МИНКОВИ ЕООД</t>
+          <t>ДЕКАТА ЕООД</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>42.69092,23.33909</t>
+          <t>42.66444,23.34331</t>
         </is>
       </c>
     </row>
@@ -2464,24 +2464,24 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1001030043</t>
+          <t>1005087011</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>КОМЕ ООД</t>
+          <t>ЕВЕЛ-19 ЕООД</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>42.697685,23.321836</t>
+          <t>42.65905,23.34094</t>
         </is>
       </c>
     </row>
@@ -2495,24 +2495,24 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1005124801</t>
+          <t>1007333101</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>РЕД МЪНКИ ЕООД</t>
+          <t>ПЕРЛА 1-К  ЕООД</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>42.70387,23.32374</t>
+          <t>42.65683,23.334</t>
         </is>
       </c>
     </row>
@@ -2526,24 +2526,24 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1005721603</t>
+          <t>1005171504</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>КРАСИ 20 ЕООД</t>
+          <t>ЯВОР 2009 ООД</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2</v>
+        <v>12.5</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>42.70377,23.32094</t>
+          <t>42.65967,23.32182</t>
         </is>
       </c>
     </row>
@@ -2557,24 +2557,24 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1007164601</t>
+          <t>1005915106</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>СТЕЛЛА1979ЕООД</t>
+          <t>ФУУД ЗОН ЕООД</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>42.70368,23.30716</t>
+          <t>42.65954,23.32118</t>
         </is>
       </c>
     </row>
@@ -2588,24 +2588,24 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1007391601</t>
+          <t>1005960206</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>МУЗА ДМ ООД</t>
+          <t>СИЛВЪР СТРИЙТ ШОП ЕООД</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>42.70375,23.30548</t>
+          <t>42.65935,23.31689</t>
         </is>
       </c>
     </row>
@@ -2619,24 +2619,24 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1005828208</t>
+          <t>1005918603</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>АЛКО ДЖИ ЕООД</t>
+          <t>ЕМ ТРЕЙД 13 ЕООД</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>3</v>
+        <v>17.5</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>42.70405,23.30361</t>
+          <t>42.65932,23.31685</t>
         </is>
       </c>
     </row>
@@ -2650,24 +2650,24 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1005976102</t>
+          <t>1004903401</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>ДЕСИТА 2022 ЕООД</t>
+          <t>ХЕЛ ЕНЕРДЖИ БЪЛГАРИЯ ЕООД</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>42.70677,23.2996</t>
+          <t>42.65820868837977,23.31713765859604</t>
         </is>
       </c>
     </row>
@@ -2681,24 +2681,24 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>1005920701</t>
+          <t>1005908802</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>ФРЕНДС ТАБАКО ЕООД</t>
+          <t>МС - ТРЕЙД 78 ЕООД</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>42.69212,23.29422</t>
+          <t>42.661876729130896,23.317101448774338</t>
         </is>
       </c>
     </row>
@@ -2712,24 +2712,24 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>1005146803</t>
+          <t>1005828216</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>СЕТИ ТРЕЙДИНГ  ЕООД</t>
+          <t>ВАГ КОМЕРС ЕООД</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>4</v>
+        <v>1.25</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>42.68574,23.29686</t>
+          <t>42.66262673138533,23.31686709076166</t>
         </is>
       </c>
     </row>
@@ -2743,24 +2743,24 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1007348201</t>
+          <t>1007925701</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>КРИЕМО ЕООД</t>
+          <t>ПЛЕЙ ХЪБ ООД</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>42.68697395942519,23.2955452054739</t>
+          <t>42.66428,23.31714</t>
         </is>
       </c>
     </row>
@@ -2774,30 +2774,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1007008703</t>
+          <t>1005177501</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>ИНТЕРФУТ 08 ООД</t>
+          <t>ЦЕЗАР И СИН ЕООД</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>42.68831759577158,23.29626403748989</t>
+          <t>42.662,23.31679</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2805,30 +2805,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1005558705</t>
+          <t>1007252006</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>ДЕНИЦА МАРКЕТ ООД</t>
+          <t>ЗЛАТЕН КРЪГ ЕООД</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>42.77351,23.24339</t>
+          <t>42.6594,23.31625</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2836,30 +2836,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1005433601</t>
+          <t>1005475001</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>СТАСИ И КО ЕООД</t>
+          <t>ФАКТОР 73 ЕООД</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>42.77369,23.24291</t>
+          <t>42.65851,23.31561</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2867,30 +2867,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1005770911</t>
+          <t>1001030015</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>ДЕСПОДОВ ПМ ЕООД</t>
+          <t>КОМЕ ООД</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>42.72949,23.30475</t>
+          <t>42.666830877135354,23.30027152463913</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -2898,30 +2898,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1005796403</t>
+          <t>1005995701</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>БИЛЯНА ТРЕЙД 2014 ЕООД</t>
+          <t>ДЕНИРА 2013 ЕООД</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>42.733476877507066,23.308477140963078</t>
+          <t>42.66579,23.29977</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -2929,30 +2929,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1007149701</t>
+          <t>1001030014</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>РАЯ 2706 ЕООД</t>
+          <t>КОМЕ ООД</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>42.73408,23.30923</t>
+          <t>42.664767872290774,23.293110026569366</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -2960,30 +2960,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1005312801</t>
+          <t>1001060012</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>БОГДАН 93 ЕООД</t>
+          <t>345 ООД</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>42.73572860901619,23.305056585521697</t>
+          <t>42.66432004756084,23.284143805503845</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -2991,30 +2991,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>1005946501</t>
+          <t>1005487556</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Е - 2017 ЕООД</t>
+          <t>АЛКОХОЛ И ТАБАКОФФ ЕООД</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>42.73782776013468,23.305455297231674</t>
+          <t>42.66888,23.27967</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -3022,24 +3022,24 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>1007157401</t>
+          <t>1001060008</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>РОРИ ООД</t>
+          <t>345 ООД</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>42.73636,23.30684</t>
+          <t>42.6723303764765,23.27230989933014</t>
         </is>
       </c>
     </row>
@@ -3053,24 +3053,24 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1005577903</t>
+          <t>1005333402</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>РАЙКИН ЕООД</t>
+          <t>ИЛИЯНА ДОБРИНОВА - 2009 ООД</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>42.73684398697329,23.31046398729086</t>
+          <t>42.76824,23.19739</t>
         </is>
       </c>
     </row>
@@ -3084,24 +3084,24 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1005346169</t>
+          <t>1005362501</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>БАКАЛИЯ 2014 ООД</t>
+          <t>МАРИЯ ТОДОРОВА ЕТ</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>42.73972,23.30923</t>
+          <t>42.76743,23.19945</t>
         </is>
       </c>
     </row>
@@ -3115,24 +3115,24 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>1007221901</t>
+          <t>1005942501</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>МАРКЕТ 03 ЕООД</t>
+          <t>ДАМЯНОВА ГРУП ЕООД</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v>31.25</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>42.73309,23.31089</t>
+          <t>42.76389193875891,23.19793425500393</t>
         </is>
       </c>
     </row>
@@ -3146,24 +3146,24 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1005356101</t>
+          <t>1005566901</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>АНДИ - АННА ПЕТРОВА ЕТ</t>
+          <t>АТЛАС 59 ООД</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>42.73716,23.3194</t>
+          <t>42.76153,23.20035</t>
         </is>
       </c>
     </row>
@@ -3177,24 +3177,24 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>1005418001</t>
+          <t>1005364263</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>АТАНАСОВ МАРКЕТ ЕООД</t>
+          <t>ФРЕШ МАРКЕТ 2018 ООД</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>42.7509354061623,23.31816440475768</t>
+          <t>42.75906,23.20451</t>
         </is>
       </c>
     </row>
@@ -3208,24 +3208,24 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1005262002</t>
+          <t>1005304406</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>С + С - СИЛВА БОЖИЛОВА ЕТ</t>
+          <t>ХРИСИ - 99 ЕАД</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1</v>
+        <v>7.5</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>42.75133,23.31824</t>
+          <t>42.76127,23.20734</t>
         </is>
       </c>
     </row>
@@ -3239,24 +3239,24 @@
         </is>
       </c>
       <c r="C91" t="n">
+        <v>7</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1005364228</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>ФРЕШ МАРКЕТ 2013 ЕООД</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
         <v>15</v>
       </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>1005972609</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>МЕМО 1991 ЕООД</t>
-        </is>
-      </c>
-      <c r="F91" t="n">
-        <v>1</v>
-      </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>42.740068586917275,23.31717185676098</t>
+          <t>42.76495306343535,23.196528777480125</t>
         </is>
       </c>
     </row>
@@ -3270,24 +3270,24 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1007358301</t>
+          <t>1005746405</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>ЛОЗАНОВ ТРЕЙД ЕООД</t>
+          <t>ЕКТА 2016 ЕООД</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>2</v>
+        <v>12.5</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>42.72719060836209,23.3111422508955</t>
+          <t>42.73434,23.23653</t>
         </is>
       </c>
     </row>
@@ -3301,24 +3301,24 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>1005133801</t>
+          <t>1005136606</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>ЕСКАЛИБУР - 359 ЕООД</t>
+          <t>ВАН ЕС ЛОГИСТИК ЕООД</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1</v>
+        <v>12.5</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>42.72847,23.30745</t>
+          <t>42.7256771293142,23.26280079782009</t>
         </is>
       </c>
     </row>
@@ -3332,24 +3332,24 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>1005262701</t>
+          <t>1005250302</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>ДЕНИ - 74 - ДАМЯН ДЕЯНОВ ЕТ</t>
+          <t>ЕМ - МАРКЕТ 55  ООД</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>42.72600174843541,23.305461667478085</t>
+          <t>42.72407,23.27295</t>
         </is>
       </c>
     </row>
@@ -3363,24 +3363,24 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>1005355401</t>
+          <t>1005423002</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>ОЛЯ - НАСКО ЕООД</t>
+          <t>БИЕФ-БИСЕР БОЯНОВ ЕТ</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>2</v>
+        <v>17.5</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>42.72507,23.3041</t>
+          <t>42.72552,23.27432</t>
         </is>
       </c>
     </row>
@@ -3394,24 +3394,24 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>1007272901</t>
+          <t>1007153001</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>КИАРА23 ЕООД</t>
+          <t>ГУУД МИЙЛ ЕООД</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>2</v>
+        <v>12.5</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>42.72581628718797,23.30346375703812</t>
+          <t>42.7241,23.28152</t>
         </is>
       </c>
     </row>
@@ -3425,7 +3425,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>5</v>
+        <v>12.5</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -3456,24 +3456,24 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>1007162601</t>
+          <t>1007272901</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>ПИЦА ЛА ВИСТА ЕООД</t>
+          <t>КИАРА23 ЕООД</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>42.71208,23.32046</t>
+          <t>42.72581628718797,23.30346375703812</t>
         </is>
       </c>
     </row>
@@ -3487,16 +3487,16 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>1007153001</t>
+          <t>1005355401</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>ГУУД МИЙЛ ЕООД</t>
+          <t>ОЛЯ - НАСКО ЕООД</t>
         </is>
       </c>
       <c r="F99" t="n">
@@ -3504,7 +3504,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>42.7241,23.28152</t>
+          <t>42.72507,23.3041</t>
         </is>
       </c>
     </row>
@@ -3518,24 +3518,24 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>1005731216</t>
+          <t>1005770911</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>ШАНИ ХЦ ЕООД</t>
+          <t>ДЕСПОДОВ ПМ ЕООД</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1</v>
+        <v>7.5</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>42.74129,23.27661</t>
+          <t>42.72949,23.30475</t>
         </is>
       </c>
     </row>
@@ -3549,24 +3549,24 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>1005902002</t>
+          <t>1005577903</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>ВЕСМАР 3 ЕООД</t>
+          <t>РАЙКИН ЕООД</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>42.74130494689523,23.276658095419407</t>
+          <t>42.73684398697329,23.31046398729086</t>
         </is>
       </c>
     </row>
@@ -3580,24 +3580,24 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>1005265503</t>
+          <t>1005346169</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>АЛТЪНЦАЙК ЕООД</t>
+          <t>БАКАЛИЯ 2014 ООД</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>42.74014910742735,23.274908289313316</t>
+          <t>42.73972,23.30923</t>
         </is>
       </c>
     </row>
@@ -3611,24 +3611,24 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>1007165301</t>
+          <t>1007157401</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>МЕДЕН 5 ЕООД</t>
+          <t>РОРИ ООД</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>42.73549,23.26921</t>
+          <t>42.73636,23.30684</t>
         </is>
       </c>
     </row>
@@ -3642,24 +3642,24 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>1007136601</t>
+          <t>1005946501</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>СТЕО 17 ЕООД</t>
+          <t>Е - 2017 ЕООД</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>42.73714219870896,23.26852429658175</t>
+          <t>42.73782776013468,23.305455297231674</t>
         </is>
       </c>
     </row>
@@ -3673,24 +3673,24 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>1007354001</t>
+          <t>1005312801</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>НИПО 2024 ЕООД</t>
+          <t>БОГДАН 93 ЕООД</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>42.73765,23.26783</t>
+          <t>42.73572860901619,23.305056585521697</t>
         </is>
       </c>
     </row>
@@ -3704,24 +3704,24 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>1005570601</t>
+          <t>1007149701</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>СИ ЕМ ЕМ - 2003 ЕООД</t>
+          <t>РАЯ 2706 ЕООД</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>42.742757472161536,23.266218937933445</t>
+          <t>42.73408,23.30923</t>
         </is>
       </c>
     </row>
@@ -3735,24 +3735,24 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>1005364239</t>
+          <t>1005796403</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>ФРЕШ МАРКЕТ 2014 ООД</t>
+          <t>БИЛЯНА ТРЕЙД 2014 ЕООД</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>42.742509272255084,23.265327103435993</t>
+          <t>42.733476877507066,23.308477140963078</t>
         </is>
       </c>
     </row>
@@ -3766,24 +3766,24 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>1001300101</t>
+          <t>1007221901</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>КЪНВИНИЪНС АД</t>
+          <t>МАРКЕТ 03 ЕООД</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>42.73648174766753,23.259858079254627</t>
+          <t>42.73309,23.31089</t>
         </is>
       </c>
     </row>
@@ -3797,24 +3797,24 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>1005291502</t>
+          <t>1005048101</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>ЕВРОТРЕЙД 2000 ЕООД</t>
+          <t>НЕГРОВ И СИЕ ЕТ</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>42.737192434070785,23.2604206725955</t>
+          <t>42.72079474233105,23.333333774061202</t>
         </is>
       </c>
     </row>
@@ -3828,24 +3828,24 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>1005969401</t>
+          <t>1005163101</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>КОРНЕРС ЕООД</t>
+          <t>СТЕЛА  82  ЕООД</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>42.727098741605985,23.26181810349226</t>
+          <t>42.71164,23.40251</t>
         </is>
       </c>
     </row>
@@ -3859,24 +3859,24 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>1007220801</t>
+          <t>1005130303</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>ДРИНК ЕНД ТАБАКО БГ ЕООД</t>
+          <t>ЕРАМ-А ЕООД</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>42.73159734364557,23.253393284976482</t>
+          <t>42.712363238728564,23.40576012298584</t>
         </is>
       </c>
     </row>
@@ -3890,24 +3890,24 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>1005355601</t>
+          <t>1007372101</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>ПЕЦКА ИВАНОВА ЕТ</t>
+          <t>ВЛМ ТЕСОРО ЕООД</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>42.73325,23.25145</t>
+          <t>42.7121,23.41055</t>
         </is>
       </c>
     </row>
@@ -3921,16 +3921,16 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>1005746405</t>
+          <t>1007175301</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>ЕКТА 2016 ЕООД</t>
+          <t>С И П 2021 ООД</t>
         </is>
       </c>
       <c r="F113" t="n">
@@ -3938,13 +3938,13 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>42.73434,23.23653</t>
+          <t>42.71272,23.41159</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -3952,30 +3952,30 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>1007965103</t>
+          <t>1005205705</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>СОЛЕНО И СЛАДКО 2024 ООД</t>
+          <t>ПРОДИДЖИ Н ЕООД</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>42.72082364923982,23.24250821024179</t>
+          <t>42.71262,23.4127</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -3983,30 +3983,30 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>1001030033</t>
+          <t>1005069001</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>КОМЕ ООД</t>
+          <t>ВИМАД-АСЕНОВА ЕТ</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>42.71830388703453,23.245845349919364</t>
+          <t>42.71296,23.41939</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -4014,30 +4014,30 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>1005904801</t>
+          <t>1005743201</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>ДА-БИС Н ЕООД</t>
+          <t>МИРВАНИ ЕООД</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>42.71654842988965,23.24971664696932</t>
+          <t>42.71229,23.42025</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -4045,30 +4045,30 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>1005136606</t>
+          <t>1005798410</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>ВАН ЕС ЛОГИСТИК ЕООД</t>
+          <t>ИНТЕРСПИЙД ЕООД</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>42.7256771293142,23.26280079782009</t>
+          <t>42.70896,23.42805</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -4076,30 +4076,30 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>1005250302</t>
+          <t>1005873501</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>ЕМ - МАРКЕТ 55  ООД</t>
+          <t>НИКАЛ 2016 ООД</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>2</v>
+        <v>16.25</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>42.72407,23.27295</t>
+          <t>42.69689,23.35365</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -4107,30 +4107,30 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>1005423002</t>
+          <t>1005322009</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>БИЕФ-БИСЕР БОЯНОВ ЕТ</t>
+          <t>ПАВИЛИОН 24 ЕООД</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>42.72552,23.27432</t>
+          <t>42.69675,23.35262</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -4138,30 +4138,30 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>1005897701</t>
+          <t>1005216702</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>МИЛТ КОМЕРС ХР.ЗАХАРИЕВ ЕТ</t>
+          <t>НОА РУСЕВ ЕООД</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>42.71223,23.32074</t>
+          <t>42.69283,23.35229</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -4169,30 +4169,30 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>1005996101</t>
+          <t>1007207402</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>ЕЛ ДЖИ АР ООД</t>
+          <t>ЧОБИ ФЕШЪН ЕООД</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>42.70748,23.32352</t>
+          <t>42.69312,23.35441</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -4200,30 +4200,30 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>1005770909</t>
+          <t>1005690302</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>ПИ ЕМ ДЖИ 24 ЕООД</t>
+          <t>ИНИЦИАЛ М ЕООД</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>42.707,23.32451</t>
+          <t>42.69376,23.34868</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -4231,30 +4231,30 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>1005459202</t>
+          <t>1005926409</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>ТЕЯМИ ООД</t>
+          <t>ЕН ДЖИ ШОПС ЕООД</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>42.70687,23.32439</t>
+          <t>42.69018,23.3408</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -4262,30 +4262,30 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>1005048101</t>
+          <t>1007375401</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>НЕГРОВ И СИЕ ЕТ</t>
+          <t>БИ МИНКОВИ ЕООД</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>42.72079474233105,23.333333774061202</t>
+          <t>42.69092,23.33909</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -4293,30 +4293,30 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>1005491601</t>
+          <t>1005487565</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>ДЕСИ СОФИЯ ЕООД</t>
+          <t>А И А ТРЕЙД ООД</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>230</v>
+        <v>2.5</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>42.70893,23.38806</t>
+          <t>42.68832,23.3294</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -4324,30 +4324,30 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>1005163101</t>
+          <t>1007252601</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>СТЕЛА  82  ЕООД</t>
+          <t>ХЕМУС 50 ООД</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>42.71164,23.40251</t>
+          <t>42.69456,23.33075</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -4355,30 +4355,30 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>1005130303</t>
+          <t>1005751801</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>ЕРАМ-А ЕООД</t>
+          <t>МАКСИ КЕТЪРИНГ ЕООД</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>42.712363238728564,23.40576012298584</t>
+          <t>42.69432,23.32867</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -4386,30 +4386,30 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>1007372101</t>
+          <t>1007990501</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>ВЛМ ТЕСОРО ЕООД</t>
+          <t>КАЛАЙДЖИЕВ 2020 ЕООД</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>42.7121,23.41055</t>
+          <t>42.69439,23.32871</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -4417,24 +4417,24 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>1007175301</t>
+          <t>1005881101</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>С И П 2021 ООД</t>
+          <t>ЙОРДАНОВА-78 ЕООД</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>42.71272,23.41159</t>
+          <t>42.70034,23.30061</t>
         </is>
       </c>
     </row>
@@ -4448,24 +4448,24 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>1005205705</t>
+          <t>1005115901</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>ПРОДИДЖИ Н ЕООД</t>
+          <t>АДИА ТРЕЙД ЕООД</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>42.71262,23.4127</t>
+          <t>42.64875,23.26254</t>
         </is>
       </c>
     </row>
@@ -4479,24 +4479,24 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>1005069001</t>
+          <t>1007326701</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>ВИМАД-АСЕНОВА ЕТ</t>
+          <t>ВИТА ФОРТУНА ООД</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>42.71296,23.41939</t>
+          <t>42.64944,23.26398</t>
         </is>
       </c>
     </row>
@@ -4510,24 +4510,24 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>1005743201</t>
+          <t>1005884903</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>МИРВАНИ ЕООД</t>
+          <t>ЯНИС ТРЕЙД ЕООД</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>42.71229,23.42025</t>
+          <t>42.64327,23.33727</t>
         </is>
       </c>
     </row>
@@ -4541,24 +4541,24 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>1005873501</t>
+          <t>1005960202</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>НИКАЛ 2016 ООД</t>
+          <t>ВАСИМАР - ИН ЕООД</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>6.5</v>
+        <v>25</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>42.69689,23.35365</t>
+          <t>42.64304,23.33959</t>
         </is>
       </c>
     </row>
@@ -4572,24 +4572,24 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>1005322009</t>
+          <t>1007164501</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>ПАВИЛИОН 24 ЕООД</t>
+          <t>ДЖИВИ ПАРТНЪРС ООД</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>42.69675,23.35262</t>
+          <t>42.64269,23.34391</t>
         </is>
       </c>
     </row>
@@ -4603,24 +4603,24 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>1005216702</t>
+          <t>1007331901</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>НОА РУСЕВ ЕООД</t>
+          <t>ВЕСТЕЛ 23 ЕООД</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>2</v>
+        <v>22.5</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>42.69283,23.35229</t>
+          <t>42.64082,23.34936</t>
         </is>
       </c>
     </row>
@@ -4634,24 +4634,24 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>1007207402</t>
+          <t>1007355501</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>ЧОБИ ФЕШЪН ЕООД</t>
+          <t>МИЛА С 24 ООД</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>42.69312,23.35441</t>
+          <t>42.64027,23.34938</t>
         </is>
       </c>
     </row>
@@ -4665,24 +4665,24 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>1005690302</t>
+          <t>1005960205</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>ИНИЦИАЛ М ЕООД</t>
+          <t>ЗАВЕДЕНИЯ СТЕФАНОВ ЕООД</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>42.69376,23.34868</t>
+          <t>42.64286,23.34194</t>
         </is>
       </c>
     </row>
@@ -4696,24 +4696,24 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>1007141701</t>
+          <t>1007331501</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>ВАНЕСА 02 ООД</t>
+          <t>МИХАЙЛОВИ 24 ЕООД</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>42.69661,23.35011</t>
+          <t>42.64449,23.34049</t>
         </is>
       </c>
     </row>
@@ -4727,24 +4727,24 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>1007204902</t>
+          <t>1007351601</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>ДОМСТРОЙ ВЪЛКОВИ ЕООД</t>
+          <t>ЕН ВИ СИ БЪЛГАРИЯ ЕООД</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>42.69685,23.35153</t>
+          <t>42.64428,23.34203</t>
         </is>
       </c>
     </row>
@@ -4758,24 +4758,24 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>1005487535</t>
+          <t>1005462003</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>А И А ТРЕЙД ООД</t>
+          <t>ДИКОВ КОНСУЛТИНГ ЕООД</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>42.70153,23.33405</t>
+          <t>42.64416,23.34195</t>
         </is>
       </c>
     </row>
@@ -4789,24 +4789,24 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>1007334401</t>
+          <t>1005107102</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>ШОП БРИЛЯНТ ЕООД</t>
+          <t>ИНИЦИАТИВИ АД</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>42.70661,23.32388</t>
+          <t>42.64458722654171,23.341908052831286</t>
         </is>
       </c>
     </row>
@@ -4820,24 +4820,24 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>1007337301</t>
+          <t>1005884901</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>ДИДО 4Д ЕООД</t>
+          <t>ЯНИС ТРЕЙД ЕООД</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>42.70596,23.32405</t>
+          <t>42.65352,23.342675</t>
         </is>
       </c>
     </row>
@@ -4851,24 +4851,24 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>1005799005</t>
+          <t>1005884902</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>ТАУЪР 11 ЕООД</t>
+          <t>ЯНИС ТРЕЙД ЕООД</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>42.7036,23.32074</t>
+          <t>42.648285,23.3411</t>
         </is>
       </c>
     </row>
@@ -4882,24 +4882,24 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>1007389301</t>
+          <t>1005865202</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>АМИР -КОМПАНИ ЕООД</t>
+          <t>МОЛИ ГРУП ЕООД</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>42.70178,23.31986</t>
+          <t>42.644535,23.340375</t>
         </is>
       </c>
     </row>
@@ -4913,24 +4913,24 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>1007314801</t>
+          <t>1005829901</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>КОКО1984 ЕООД</t>
+          <t>ДИКРА 2 ООД</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>42.70115,23.30999</t>
+          <t>42.6447,23.33997</t>
         </is>
       </c>
     </row>
@@ -4944,24 +4944,24 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>1005799020</t>
+          <t>1005634906</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>ЕМПАИЪР 17 ЕООД</t>
+          <t>ВКУСНИ ЗАКУСКИ 2020 ЕООД</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>42.7012,23.30968</t>
+          <t>42.64436,23.33975</t>
         </is>
       </c>
     </row>
@@ -4975,24 +4975,24 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>1007947102</t>
+          <t>1007368501</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>КОНА ГРУП ЕООД</t>
+          <t>МИНИ МАРКЕТ КВАРТАЛЪ ООД</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>42.70303,23.29952</t>
+          <t>42.64223,23.34481</t>
         </is>
       </c>
     </row>
@@ -5006,24 +5006,24 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>1001150104</t>
+          <t>1007164503</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>БРИЛЯНТ 24 ЕООД</t>
+          <t>ДЖИЕМ - ДЖИ ПАРТНЪРС ЕООД</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>42.70287,23.29264</t>
+          <t>42.64131,23.34452</t>
         </is>
       </c>
     </row>
@@ -5037,24 +5037,24 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>1001120101</t>
+          <t>1007352401</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>КИРКОВ 2000 ООД</t>
+          <t>ВИМИКА ЕООД</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>42.70413,23.28993</t>
+          <t>42.63978,23.34332</t>
         </is>
       </c>
     </row>
@@ -5068,24 +5068,24 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>1001100004</t>
+          <t>1005301305</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>БУРОВ И СИН ООД</t>
+          <t>ДУДИ  ЕООД</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>42.70218,23.28854</t>
+          <t>42.63803,23.33902</t>
         </is>
       </c>
     </row>
@@ -5099,396 +5099,396 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>1005680601</t>
+          <t>1005462009</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>НИКИ - МЕКС 2004 ЕООД</t>
+          <t>ДИКОВ КОНСУЛТИНГ ЕООД</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>42.70017,23.28676</t>
+          <t>42.63751,23.33834</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
+        <v>4</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Вътрешен автобус</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>23</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>1007341701</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>БОГИ - 1524 ООД</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
         <v>5</v>
       </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>Централен автобус</t>
-        </is>
-      </c>
-      <c r="C152" t="n">
-        <v>1</v>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>1005926406</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>ЕН ДЖИ КЪМПАНИ 1 ЕООД</t>
-        </is>
-      </c>
-      <c r="F152" t="n">
-        <v>3</v>
-      </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>42.6997,23.3182</t>
+          <t>42.63633,23.33847</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Централен автобус</t>
+          <t>Вътрешен автобус</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>1007234902</t>
+          <t>1005188204</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>НВ ФУУД ТРЕЙД ЕООД</t>
+          <t>МАКС-ТАНЧЕВИ ООД</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>0.5</v>
+        <v>15</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>42.70275,23.32028</t>
+          <t>42.62265,23.32135</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Централен автобус</t>
+          <t>Вътрешен автобус</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>1007223901</t>
+          <t>1007236301</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>НАС 777 ГРУП ЕООД</t>
+          <t>ТИФАНИ ЕКСПРЕС ЕООД</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>1</v>
+        <v>0.8325</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>42.69639,23.31698</t>
+          <t>42.62928,23.31163</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Централен автобус</t>
+          <t>Вътрешен автобус</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>1007281001</t>
+          <t>1005156903</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>ЛА ЛУПИ ООД</t>
+          <t>АЙ ЕНД ДИ ТРЕЙДИНГ ЕООД</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>42.69492,23.3168</t>
+          <t>42.62899,23.3093</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Централен автобус</t>
+          <t>Вътрешен автобус</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>1005487542</t>
+          <t>1007380801</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>А И А ТРЕЙД ООД</t>
+          <t>МА ЛИ 5 ЕООД</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>42.68471,23.32117</t>
+          <t>42.62864,23.30928</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Централен автобус</t>
+          <t>Вътрешен автобус</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>1005487516</t>
+          <t>1007183901</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>А И А ТРЕЙД ООД</t>
+          <t>ЛОЗЯ ООД</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>42.67973749002523,23.324913047254086</t>
+          <t>42.63047,23.30638</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Централен автобус</t>
+          <t>Вътрешен автобус</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>1007925701</t>
+          <t>1005016313</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>ПЛЕЙ ХЪБ ООД</t>
+          <t>ЯКИН ТРЕЙДИНГ ЕООД</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>42.66428,23.31714</t>
+          <t>42.63412,23.31023</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Централен автобус</t>
+          <t>Вътрешен автобус</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>1005828216</t>
+          <t>1007031601</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>ВАГ КОМЕРС ЕООД</t>
+          <t>Ем ЕС Трейд 2020 ООД</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>42.66262673138533,23.31686709076166</t>
+          <t>42.63918,23.31166</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Централен автобус</t>
+          <t>Вътрешен автобус</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>1005908802</t>
+          <t>1005963501</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>МС - ТРЕЙД 78 ЕООД</t>
+          <t>АЛМИЕЛА - АЛЕКСАНДЪР МИЛАНОВ ЕТ</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>1</v>
+        <v>7.5</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>42.661876729130896,23.317101448774338</t>
+          <t>42.63412,23.31023</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Централен автобус</t>
+          <t>Вътрешен автобус</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>1005177501</t>
+          <t>1007250302</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>ЦЕЗАР И СИН ЕООД</t>
+          <t>Я И КО ИНВЕСТМЪНТ ГРУП ООД</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>0.5</v>
+        <v>7.5</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>42.662,23.31679</t>
+          <t>42.63534,23.30058</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Централен автобус</t>
+          <t>Вътрешен автобус</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>1007252006</t>
+          <t>1007379801</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>ЗЛАТЕН КРЪГ ЕООД</t>
+          <t>МС ТРЕЙД КОНСУЛТ ООД</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>42.6594,23.31625</t>
+          <t>42.6429,23.28372</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Централен автобус</t>
+          <t>Вътрешен автобус</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>1005475001</t>
+          <t>1001060018</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>ФАКТОР 73 ЕООД</t>
+          <t>345 ООД</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>42.65851,23.31561</t>
+          <t>42.64308649204917,23.282867074012756</t>
         </is>
       </c>
     </row>
@@ -5502,24 +5502,24 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>1005918603</t>
+          <t>1007220801</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>ЕМ ТРЕЙД 13 ЕООД</t>
+          <t>ДРИНК ЕНД ТАБАКО БГ ЕООД</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>42.65932,23.31685</t>
+          <t>42.73159734364557,23.253393284976482</t>
         </is>
       </c>
     </row>
@@ -5533,24 +5533,24 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>1005960206</t>
+          <t>1005969401</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>СИЛВЪР СТРИЙТ ШОП ЕООД</t>
+          <t>КОРНЕРС ЕООД</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>42.65935,23.31689</t>
+          <t>42.727098741605985,23.26181810349226</t>
         </is>
       </c>
     </row>
@@ -5564,16 +5564,16 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>1005171504</t>
+          <t>1007008703</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>ЯВОР 2009 ООД</t>
+          <t>ИНТЕРФУТ 08 ООД</t>
         </is>
       </c>
       <c r="F166" t="n">
@@ -5581,7 +5581,7 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>42.65967,23.32182</t>
+          <t>42.68831759577158,23.29626403748989</t>
         </is>
       </c>
     </row>
@@ -5595,24 +5595,24 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>1005915106</t>
+          <t>1007348201</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>ФУУД ЗОН ЕООД</t>
+          <t>КРИЕМО ЕООД</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>42.65954,23.32118</t>
+          <t>42.68697395942519,23.2955452054739</t>
         </is>
       </c>
     </row>
@@ -5626,24 +5626,24 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>1007341701</t>
+          <t>1005146803</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>БОГИ - 1524 ООД</t>
+          <t>СЕТИ ТРЕЙДИНГ  ЕООД</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>42.63633,23.33847</t>
+          <t>42.68574,23.29686</t>
         </is>
       </c>
     </row>
@@ -5657,24 +5657,24 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>1005462009</t>
+          <t>1005881102</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>ДИКОВ КОНСУЛТИНГ ЕООД</t>
+          <t>ЙОРДАНОВА-78 ЕООД</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>42.63751,23.33834</t>
+          <t>42.68382,23.29253</t>
         </is>
       </c>
     </row>
@@ -5688,24 +5688,24 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>1005301305</t>
+          <t>1007320201</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>ДУДИ  ЕООД</t>
+          <t>КОРНЕРСТОУН ООД</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>42.63803,23.33902</t>
+          <t>42.68262,23.28961</t>
         </is>
       </c>
     </row>
@@ -5719,24 +5719,24 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>1007352401</t>
+          <t>1005146804</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>ВИМИКА ЕООД</t>
+          <t>СЕТИ ТРЕЙДИНГ  ЕООД</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>42.63978,23.34332</t>
+          <t>42.68219,23.29002</t>
         </is>
       </c>
     </row>
@@ -5750,24 +5750,24 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>1007164503</t>
+          <t>1005045502</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>ДЖИЕМ - ДЖИ ПАРТНЪРС ЕООД</t>
+          <t>СТОБИС ООД</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>42.64131,23.34452</t>
+          <t>42.681754893722136,23.289524987339973</t>
         </is>
       </c>
     </row>
@@ -5781,24 +5781,24 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>1007368501</t>
+          <t>1007982201</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>МИНИ МАРКЕТ КВАРТАЛЪ ООД</t>
+          <t>КАЯ 2020 ЕООД</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>42.64223,23.34481</t>
+          <t>42.67903,23.28466</t>
         </is>
       </c>
     </row>
@@ -5812,24 +5812,24 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>1005462003</t>
+          <t>1007245401</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>ДИКОВ КОНСУЛТИНГ ЕООД</t>
+          <t>ПСГ ДЕПО ЕООД</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>42.64416,23.34195</t>
+          <t>42.683772231915206,23.278605043888092</t>
         </is>
       </c>
     </row>
@@ -5843,24 +5843,24 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>1005107102</t>
+          <t>1007315201</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>ИНИЦИАТИВИ АД</t>
+          <t>В И Н-98 ООД</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>42.64458722654171,23.341908052831286</t>
+          <t>42.67824,23.2859</t>
         </is>
       </c>
     </row>
@@ -5874,24 +5874,24 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>1007331501</t>
+          <t>1005949501</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>МИХАЙЛОВИ 24 ЕООД</t>
+          <t>НИН БЪЛГАРИЯ ООД</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>42.64449,23.34049</t>
+          <t>42.67707,23.28508</t>
         </is>
       </c>
     </row>
@@ -5905,24 +5905,24 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>1007351601</t>
+          <t>1005109102</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>ЕН ВИ СИ БЪЛГАРИЯ ЕООД</t>
+          <t>ДЕССКО - 2023 ЕООД</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>42.64428,23.34203</t>
+          <t>42.67502,23.28258</t>
         </is>
       </c>
     </row>
@@ -5936,24 +5936,24 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>1005960205</t>
+          <t>1005321044</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>ЗАВЕДЕНИЯ СТЕФАНОВ ЕООД</t>
+          <t>АЛКОХОЛ ТАБАКО АБ ЕООД</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>42.64286,23.34194</t>
+          <t>42.67558,23.28322</t>
         </is>
       </c>
     </row>
@@ -5967,24 +5967,24 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>1005960202</t>
+          <t>1007369701</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>ВАСИМАР - ИН ЕООД</t>
+          <t>ТАЛИДА ЕООД</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>42.64304,23.33959</t>
+          <t>42.6781996840681,23.285266309976578</t>
         </is>
       </c>
     </row>
@@ -5998,24 +5998,24 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>1005634906</t>
+          <t>1005994501</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>ВКУСНИ ЗАКУСКИ 2020 ЕООД</t>
+          <t>МИРЕЛЛА 4 ЕООД</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>42.64436,23.33975</t>
+          <t>42.6782,23.2852</t>
         </is>
       </c>
     </row>
@@ -6029,24 +6029,24 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>1005829901</t>
+          <t>1007068301</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>ДИКРА 2 ООД</t>
+          <t>КРИСИ ТРЕЙДИНГ ЕООД</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>42.6447,23.33997</t>
+          <t>42.67652,23.28544</t>
         </is>
       </c>
     </row>
@@ -6060,24 +6060,24 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>1005865202</t>
+          <t>1005154701</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>МОЛИ ГРУП ЕООД</t>
+          <t>ОУПЕН ТУРИЗЪМ ЕООД</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>42.644535,23.340375</t>
+          <t>42.67422,23.28563</t>
         </is>
       </c>
     </row>
@@ -6091,24 +6091,24 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>1005884902</t>
+          <t>1005016201</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>ЯНИС ТРЕЙД ЕООД</t>
+          <t>АНДМАРТ ЕООД</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>42.648285,23.3411</t>
+          <t>42.67618,23.3004</t>
         </is>
       </c>
     </row>
@@ -6122,24 +6122,24 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>1005884901</t>
+          <t>1007186401</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>ЯНИС ТРЕЙД ЕООД</t>
+          <t>АЛВАКОМ ТРЕЙД ЕООД</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>42.65352,23.342675</t>
+          <t>42.67665,23.3005</t>
         </is>
       </c>
     </row>
@@ -6153,24 +6153,24 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>1007136701</t>
+          <t>1005828206</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>ДЕКАТА ЕООД</t>
+          <t>АЛКО ДЖИ ЕООД</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>42.66444,23.34331</t>
+          <t>42.67754,23.30014</t>
         </is>
       </c>
     </row>
@@ -6184,24 +6184,24 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>1001060002</t>
+          <t>1005487559</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>345 ООД</t>
+          <t>АЛКОХОЛ И ТАБАКОФФ ЕООД</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>42.68240875952811,23.323599100112915</t>
+          <t>42.67706,23.30333</t>
         </is>
       </c>
     </row>
@@ -6215,24 +6215,24 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>1005487565</t>
+          <t>1001060002</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>А И А ТРЕЙД ООД</t>
+          <t>345 ООД</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>42.68832,23.3294</t>
+          <t>42.68240875952811,23.323599100112915</t>
         </is>
       </c>
     </row>
@@ -6246,24 +6246,24 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>1005751802</t>
+          <t>1005487516</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>МАКСИ КЕТЪРИНГ ЕООД</t>
+          <t>А И А ТРЕЙД ООД</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>42.69407,23.32928</t>
+          <t>42.67973749002523,23.324913047254086</t>
         </is>
       </c>
     </row>
@@ -6277,24 +6277,24 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>1005751801</t>
+          <t>1005487542</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>МАКСИ КЕТЪРИНГ ЕООД</t>
+          <t>А И А ТРЕЙД ООД</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>42.69432,23.32867</t>
+          <t>42.68471,23.32117</t>
         </is>
       </c>
     </row>
@@ -6308,24 +6308,24 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>1007990501</t>
+          <t>1005985907</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>КАЛАЙДЖИЕВ 2020 ЕООД</t>
+          <t>СПИРИТ ШОП ЕООД</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>42.69439,23.32871</t>
+          <t>42.69408,23.30021</t>
         </is>
       </c>
     </row>
@@ -6339,117 +6339,117 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>1005487504</t>
+          <t>1007129901</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>А И А ТРЕЙД ООД</t>
+          <t>ДАРИНИ.БГ ЕООД</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>42.69812,23.32975</t>
+          <t>42.69605,23.29965</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Външен автобус</t>
+          <t>Централен автобус</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>1007005601</t>
+          <t>1007005301</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>СОФИЯ ДРИНКС ООД</t>
+          <t>АЛАРИН ТРЕЙДИНГ ЕООД</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>42.65103,23.28917</t>
+          <t>42.69616,23.30129</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Външен автобус</t>
+          <t>Централен автобус</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>1007239701</t>
+          <t>1007366501</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>ДЖЕМ 99 ЕООД</t>
+          <t>АР ЕМ СИ ТРЕЙД ЕООД</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>0.5</v>
+        <v>12.5</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>42.6486,23.27082</t>
+          <t>42.69258933818978,23.296181224286556</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Външен автобус</t>
+          <t>Централен автобус</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>1005949501</t>
+          <t>1005920701</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>НИН БЪЛГАРИЯ ООД</t>
+          <t>ФРЕНДС ТАБАКО ЕООД</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>42.67707,23.28508</t>
+          <t>42.69212,23.29422</t>
         </is>
       </c>
     </row>
@@ -6463,24 +6463,24 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>1007369701</t>
+          <t>1007239701</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>ТАЛИДА ЕООД</t>
+          <t>ДЖЕМ 99 ЕООД</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>42.6781996840681,23.285266309976578</t>
+          <t>42.6486,23.27082</t>
         </is>
       </c>
     </row>
@@ -6494,24 +6494,24 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>1005994501</t>
+          <t>1007005601</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>МИРЕЛЛА 4 ЕООД</t>
+          <t>СОФИЯ ДРИНКС ООД</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>42.6782,23.2852</t>
+          <t>42.65103,23.28917</t>
         </is>
       </c>
     </row>
@@ -6525,24 +6525,24 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>1005881102</t>
+          <t>1001060005</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>ЙОРДАНОВА-78 ЕООД</t>
+          <t>345 ООД</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>42.68382,23.29253</t>
+          <t>42.62860686536667,23.37493121623993</t>
         </is>
       </c>
     </row>
@@ -6556,24 +6556,24 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>1007997001</t>
+          <t>1005487551</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>ГИФТ-2019 ЕООД</t>
+          <t>АЛКОХОЛ И ТАБАКОФФ ЕООД</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>42.69351,23.29736</t>
+          <t>42.62686,23.38385</t>
         </is>
       </c>
     </row>
@@ -6587,24 +6587,24 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>1007005301</t>
+          <t>1005114401</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>АЛАРИН ТРЕЙДИНГ ЕООД</t>
+          <t>ЕМБОРИОН М ЕООД</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>4</v>
+        <v>37.5</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>42.69616,23.30129</t>
+          <t>42.65228887177595,23.462392687797543</t>
         </is>
       </c>
     </row>
@@ -6618,24 +6618,24 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>1007129901</t>
+          <t>1005390603</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>ДАРИНИ.БГ ЕООД</t>
+          <t>МАРКЕТ МЕГА ЕООД</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>1</v>
+        <v>27.5</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>42.69605,23.29965</t>
+          <t>42.73888,23.50748</t>
         </is>
       </c>
     </row>
@@ -6649,24 +6649,24 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>1005236017</t>
+          <t>1005290301</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>МТГ ТРЕЙД ООД</t>
+          <t>ГЕРИ - ГЕРГИНА ИЛИЕВА ЕТ</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>42.69692485384473,23.29128317534924</t>
+          <t>42.74167,23.51132</t>
         </is>
       </c>
     </row>
@@ -6680,24 +6680,24 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>1005016314</t>
+          <t>1001150502</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>ЯКИН ТРЕЙДИНГ ЕООД</t>
+          <t>ВАСИЛКА БГ ЕООД</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>42.69987,23.29429</t>
+          <t>42.73909,23.51197</t>
         </is>
       </c>
     </row>
@@ -6711,24 +6711,24 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>1005016307</t>
+          <t>1005954903</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>ЯКИН ТРЕЙДИНГ ЕООД</t>
+          <t>ИВ-КАМЕЯ ЕООД</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>1</v>
+        <v>7.5</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>42.69931,23.30486</t>
+          <t>42.73584,23.51286</t>
         </is>
       </c>
     </row>
@@ -6742,24 +6742,24 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>1005606004</t>
+          <t>1007128201</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>ИЛТЕР ГРУП ЕООД</t>
+          <t>ЛЮСИЕН КОМЕРС ЕООД</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>42.69888,23.30861</t>
+          <t>42.73674,23.51376</t>
         </is>
       </c>
     </row>
@@ -6773,24 +6773,24 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>1003950901</t>
+          <t>1005390604</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>ИНТЕРСПИЙД ЕООД</t>
+          <t>МАРКЕТ МЕГА ЕООД</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>42.78035664604721,23.274280317127708</t>
+          <t>42.73667,23.51395</t>
         </is>
       </c>
     </row>
@@ -6804,24 +6804,24 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>1005364260</t>
+          <t>1007322401</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>ФРЕШ МАРКЕТ 2017 ООД</t>
+          <t>ЦВЕТИ 1988 ЕООД</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>42.78426378405149,23.274518363177776</t>
+          <t>42.73659,23.5141</t>
         </is>
       </c>
     </row>
@@ -6835,24 +6835,24 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>1005342801</t>
+          <t>1007005001</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>АЛАС 70 ЕООД</t>
+          <t>ЗАФИРИС - РОСИЦА МИХАЙЛОВА ЕТ</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>1</v>
+        <v>7.5</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>42.8494443547511,23.220255865306853</t>
+          <t>42.73597,23.51428</t>
         </is>
       </c>
     </row>
@@ -6866,24 +6866,24 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>1005807801</t>
+          <t>1007984601</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>ФЕНИКС - КОМЕРС - 09  ООД</t>
+          <t>ШАНС-ВАЛЕНТИНА ВЕЛЬОВА ЕТ</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>42.85049,23.21458</t>
+          <t>42.73735,23.51552</t>
         </is>
       </c>
     </row>
@@ -6897,24 +6897,24 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>1005342803</t>
+          <t>1007010201</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>ЯНА ВИЖЪН ЕООД</t>
+          <t>ДЕНИС 2014 - МАРИЯНА СТАНЧЕВА ЕТ</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>42.81919,23.21283</t>
+          <t>42.73799,23.51645</t>
         </is>
       </c>
     </row>
@@ -6928,24 +6928,24 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>1005321401</t>
+          <t>1005752403</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>ГЛАРУС 07 ООД</t>
+          <t>ИВАН ДАКОВ ЕООД</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>42.81863,23.21336</t>
+          <t>42.7385,23.51592</t>
         </is>
       </c>
     </row>
@@ -6959,24 +6959,24 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>1005323701</t>
+          <t>1001150306</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>СТРОНГПЛАСТ ЕООД</t>
+          <t>БРИЛЯНТ - 34 ЕООД</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>42.81828,23.21396</t>
+          <t>42.72084,23.53</t>
         </is>
       </c>
     </row>
@@ -6990,24 +6990,24 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>1005519901</t>
+          <t>1007055201</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>НЕЛИНА 2000 ЕТ</t>
+          <t>СТЕФАН ГРОЗДАНОВ 2012 ЕООД</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>42.81575,23.2177</t>
+          <t>42.72025,23.52763</t>
         </is>
       </c>
     </row>
@@ -7021,24 +7021,24 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>1001150301</t>
+          <t>1005789101</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>БРИЛЯНТ - 34 ЕООД</t>
+          <t>ПАРТИ ФУУД ДЗЗД</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>42.81256926407976,23.214515671133995</t>
+          <t>42.69613,24.07431</t>
         </is>
       </c>
     </row>
@@ -7052,16 +7052,16 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>1007138501</t>
+          <t>1005931802</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>СТЕ ФАНИ 0454 ЕООД</t>
+          <t>ЕЛАЦИТЕ - МЕД АД</t>
         </is>
       </c>
       <c r="F214" t="n">
@@ -7069,7 +7069,7 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>42.80969,23.21652</t>
+          <t>42.69358,24.01901</t>
         </is>
       </c>
     </row>
@@ -7083,24 +7083,24 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>1005113332</t>
+          <t>1007240901</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>РЕКОРД - 2013 ООД</t>
+          <t>ФОКС 2013 ООД</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>3</v>
+        <v>12.5</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>42.80252,23.22385</t>
+          <t>42.68187,23.56795</t>
         </is>
       </c>
     </row>
@@ -7114,24 +7114,24 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>1005075101</t>
+          <t>1005589401</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>ГРЕТА 90 ЕООД</t>
+          <t>СЕЛ ООД</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>42.810187417814085,23.215207681059837</t>
+          <t>42.65975,23.52636</t>
         </is>
       </c>
     </row>
@@ -7145,24 +7145,24 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>1007010401</t>
+          <t>1005124408</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>ДИНИЗ ЕООД</t>
+          <t>НИКО - 2 ООД</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>42.80909115725059,23.208447843790054</t>
+          <t>42.66714,23.52625</t>
         </is>
       </c>
     </row>
@@ -7176,24 +7176,24 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>1005495301</t>
+          <t>1007195201</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>ХЕРА 13 ЕООД</t>
+          <t>Г И Е ЧАКЪРОВИ ЕООД</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>8.5</v>
+        <v>2.5</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>42.80788139711057,23.198940350265502</t>
+          <t>42.6673,23.52717</t>
         </is>
       </c>
     </row>
@@ -7207,24 +7207,24 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>1005342802</t>
+          <t>1001150503</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>ЯНА ВИЖЪН ЕООД</t>
+          <t>ВАСИЛКА БГ ЕООД</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>42.80972254864426,23.201326578855515</t>
+          <t>42.6999147392701,23.49207267165184</t>
         </is>
       </c>
     </row>
@@ -7238,24 +7238,24 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>1005865001</t>
+          <t>1005077401</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>ТЕРИ В 2000 ЕООД</t>
+          <t>САМАРКО- ВАСИЛ КРЪСТАНОВ   ЕТ</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>42.81109377966703,23.19973971694708</t>
+          <t>42.69982372984965,23.492229177207946</t>
         </is>
       </c>
     </row>
@@ -7269,24 +7269,24 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>1005838002</t>
+          <t>1005735901</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Ю ТРЕЙД 7 ЕООД</t>
+          <t>ГЕОРГИ ВАРАДИНОВ - 83 ЕООД</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>42.81174581087515,23.197417929768562</t>
+          <t>42.73187,23.55824</t>
         </is>
       </c>
     </row>
@@ -7300,24 +7300,24 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>1005300703</t>
+          <t>1005090210</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>ПРЕСТИЖ - ВЕ 2015 ООД</t>
+          <t>ВКУСНА ХРАНА ЕООД</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>42.82892,23.19246</t>
+          <t>42.73226,23.55787</t>
         </is>
       </c>
     </row>
@@ -7331,24 +7331,24 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>1005402501</t>
+          <t>1007139601</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>МАСГРАНДЕ ООД</t>
+          <t>МАРИО ТОНЕВ ЕООД</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>4</v>
+        <v>12.5</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>42.81375,23.19714</t>
+          <t>42.73239,23.55706</t>
         </is>
       </c>
     </row>
@@ -7362,24 +7362,24 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>1005333402</t>
+          <t>1005812305</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>ИЛИЯНА ДОБРИНОВА - 2009 ООД</t>
+          <t>САКСА ООД</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>42.76824,23.19739</t>
+          <t>42.75537,23.55904</t>
         </is>
       </c>
     </row>
@@ -7393,24 +7393,24 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>1005362501</t>
+          <t>1005852702</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>МАРИЯ ТОДОРОВА ЕТ</t>
+          <t>ЯНЧЕВ И СИНОВЕ ЕООД</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>1</v>
+        <v>0.4175</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>42.76743,23.19945</t>
+          <t>42.76333,23.56445</t>
         </is>
       </c>
     </row>
@@ -7424,24 +7424,24 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>1005942501</t>
+          <t>1005364204</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>ДАМЯНОВА ГРУП ЕООД</t>
+          <t>КАРОЛИНА ТРЕЙД ЕООД</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>42.76389193875891,23.19793425500393</t>
+          <t>42.76511,23.56643</t>
         </is>
       </c>
     </row>
@@ -7455,24 +7455,24 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>1005304406</t>
+          <t>1005752404</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>ХРИСИ - 99 ЕАД</t>
+          <t>ИВАН ДАКОВ ЕООД</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>42.76127,23.20734</t>
+          <t>42.76512,23.56772</t>
         </is>
       </c>
     </row>
@@ -7486,24 +7486,24 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>1005364263</t>
+          <t>1005726603</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>ФРЕШ МАРКЕТ 2018 ООД</t>
+          <t>МС МАРКЕТ ЕООД</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>2</v>
+        <v>22.5</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>42.75906,23.20451</t>
+          <t>42.78312,23.50552</t>
         </is>
       </c>
     </row>
@@ -7517,24 +7517,24 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>1005566901</t>
+          <t>1005070602</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>АТЛАС 59 ООД</t>
+          <t>КАРМОНИ ЕООД</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>42.76153,23.20035</t>
+          <t>42.73242,23.47001</t>
         </is>
       </c>
     </row>
@@ -7548,30 +7548,30 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>1005364228</t>
+          <t>1001150308</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>ФРЕШ МАРКЕТ 2013 ЕООД</t>
+          <t>БРИЛЯНТ - 34 ЕООД</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>42.76495306343535,23.196528777480125</t>
+          <t>42.73239206440237,23.473511449992657</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -7579,24 +7579,24 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>1007975101</t>
+          <t>1005130301</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>ГАЦ 23 ЕООД</t>
+          <t>ЕРАМ-А ЕООД</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>42.69987,23.28603</t>
+          <t>42.731973561176915,23.47536881134033</t>
         </is>
       </c>
     </row>
@@ -7610,24 +7610,24 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>1003953501</t>
+          <t>1007975101</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>СПАСОВА 2022</t>
+          <t>ГАЦ 23 ЕООД</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>42.61488,23.06396</t>
+          <t>42.69987,23.28603</t>
         </is>
       </c>
     </row>
@@ -7641,24 +7641,24 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>1007387101</t>
+          <t>1001100004</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>ЕТ БОЙКА АНДОНОВА-ЖЕКОВЕЦА</t>
+          <t>БУРОВ И СИН ООД</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>42.61223,23.04709</t>
+          <t>42.70218,23.28854</t>
         </is>
       </c>
     </row>
@@ -7672,24 +7672,24 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>1005324404</t>
+          <t>1001120101</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>РЕА 09 ЕООД</t>
+          <t>КИРКОВ 2000 ООД</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>42.61675,23.02717</t>
+          <t>42.70413,23.28993</t>
         </is>
       </c>
     </row>
@@ -7703,24 +7703,24 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>1007959101</t>
+          <t>1001150104</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>ПИТ СТОП-2 ЕООД</t>
+          <t>БРИЛЯНТ 24 ЕООД</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>42.61618,23.03292</t>
+          <t>42.70287,23.29264</t>
         </is>
       </c>
     </row>
@@ -7734,24 +7734,24 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>1007953202</t>
+          <t>1005368501</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>ТЕСИ-АНЕСТИЕВИ ЕООД</t>
+          <t>ВЕЛМАР 5 ЕООД</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>42.61608,23.0328</t>
+          <t>42.69822,23.29903</t>
         </is>
       </c>
     </row>
@@ -7765,24 +7765,24 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>1005161904</t>
+          <t>1005052302</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>НИКАР ГРУП ЕООД</t>
+          <t>ДЕШЕВ ЕООД</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>42.60999,23.03389</t>
+          <t>42.69956,23.30262</t>
         </is>
       </c>
     </row>
@@ -7796,24 +7796,24 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>1005373201</t>
+          <t>1007377001</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>РАВАС 8 ООД</t>
+          <t>АНТ ТРЕЙД ЕООД</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>42.60722,23.03026</t>
+          <t>42.69848,23.3042</t>
         </is>
       </c>
     </row>
@@ -7827,24 +7827,24 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>1005849101</t>
+          <t>1005320401</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>ИВИ - 2015 ЕООД</t>
+          <t>ДИЗАЙН БИЛД КОМЕРС ЕООД</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>42.60722,23.03077</t>
+          <t>42.70184,23.30686</t>
         </is>
       </c>
     </row>
@@ -7858,24 +7858,24 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>1007366401</t>
+          <t>1007314801</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>МЕРКУРИЙ- 78 -КИРИЛОВИ С-ИЕ СД</t>
+          <t>КОКО1984 ЕООД</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>42.60797,23.03071</t>
+          <t>42.70115,23.30999</t>
         </is>
       </c>
     </row>
@@ -7889,24 +7889,24 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>1005948801</t>
+          <t>1005799020</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>ЗАРКО ТАБАКОС ООД</t>
+          <t>ЕМПАИЪР 17 ЕООД</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>42.608,23.0315</t>
+          <t>42.7012,23.30968</t>
         </is>
       </c>
     </row>
@@ -7920,24 +7920,24 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>1005828602</t>
+          <t>1005881002</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>САНДРИНА ЕООД</t>
+          <t>ЗААР ТИЙМ ЕООД</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>42.6095,23.03581</t>
+          <t>42.70281,23.30145</t>
         </is>
       </c>
     </row>
@@ -7951,24 +7951,24 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>1007383601</t>
+          <t>1007997002</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>ЙО-ЙО КОМЕРС 2025  ЕООД</t>
+          <t>ГИФТ-2019 ЕООД</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>42.60835,23.03973</t>
+          <t>42.70249473647836,23.302046209573746</t>
         </is>
       </c>
     </row>
@@ -7982,24 +7982,24 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>1005161101</t>
+          <t>1005828208</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>ВАЛЕВА-1  ЕООД</t>
+          <t>АЛКО ДЖИ ЕООД</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>42.60938,23.04236</t>
+          <t>42.70405,23.30361</t>
         </is>
       </c>
     </row>
@@ -8013,24 +8013,24 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>1007325002</t>
+          <t>1007391601</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>МБМ-13 ЕООД</t>
+          <t>МУЗА ДМ ООД</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>42.60679,23.04742</t>
+          <t>42.70375,23.30548</t>
         </is>
       </c>
     </row>
@@ -8044,24 +8044,24 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>1007097701</t>
+          <t>1005016307</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>БАРСА 2020 ЕООД</t>
+          <t>ЯКИН ТРЕЙДИНГ ЕООД</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>42.58857,23.05202</t>
+          <t>42.69931,23.30486</t>
         </is>
       </c>
     </row>
@@ -8075,24 +8075,24 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>1005696301</t>
+          <t>1005606004</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>СИЛВАНА - 91 - СИЛВИЯ ЗАХАРИЕВА ЕТ</t>
+          <t>ИЛТЕР ГРУП ЕООД</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>42.59167,23.03573</t>
+          <t>42.69888,23.30861</t>
         </is>
       </c>
     </row>
@@ -8106,24 +8106,24 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>1005698809</t>
+          <t>1007167602</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>ЕКСПАНЖЪН ООД</t>
+          <t>ТОТОВИ КОМЕРС ЕООД</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>42.60459,23.03078</t>
+          <t>42.69731,23.3146</t>
         </is>
       </c>
     </row>
@@ -8137,24 +8137,24 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>1005788814</t>
+          <t>1007223901</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>МЕДЕНАТА ПИТКА 2024 ООД</t>
+          <t>НАС 777 ГРУП ЕООД</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>42.60498,23.03416</t>
+          <t>42.69639,23.31698</t>
         </is>
       </c>
     </row>
@@ -8168,24 +8168,24 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>1005690602</t>
+          <t>1007281001</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>ЕВРОКОМЕРС 2018 ЕООД</t>
+          <t>ЛА ЛУПИ ООД</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>1</v>
+        <v>7.5</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>42.60391,23.03257</t>
+          <t>42.69492,23.3168</t>
         </is>
       </c>
     </row>
@@ -8199,24 +8199,24 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>1005202304</t>
+          <t>1007234902</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>ДИЕЛ ЕООД</t>
+          <t>НВ ФУУД ТРЕЙД ЕООД</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>42.60347,23.03058</t>
+          <t>42.70275,23.32028</t>
         </is>
       </c>
     </row>
@@ -8230,24 +8230,24 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>1007183501</t>
+          <t>1005124801</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>И-ВАЙЛ КЕТЪРИНГ 2012 ООД</t>
+          <t>РЕД МЪНКИ ЕООД</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>42.60426,23.02905</t>
+          <t>42.70387,23.32374</t>
         </is>
       </c>
     </row>
@@ -8261,24 +8261,24 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>1005896505</t>
+          <t>1007334401</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>НЕЛАН ЕООД</t>
+          <t>ШОП БРИЛЯНТ ЕООД</t>
         </is>
       </c>
       <c r="F253" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>42.60369,23.02857</t>
+          <t>42.70661,23.32388</t>
         </is>
       </c>
     </row>
@@ -8292,24 +8292,24 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>1005202302</t>
+          <t>1007337301</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>ДИЕЛ ЕООД</t>
+          <t>ДИДО 4Д ЕООД</t>
         </is>
       </c>
       <c r="F254" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>42.6014550888148,23.02548699080944</t>
+          <t>42.70596,23.32405</t>
         </is>
       </c>
     </row>
@@ -8323,24 +8323,24 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>1005324402</t>
+          <t>1005770909</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>РЕА 09 ЕООД</t>
+          <t>ПИ ЕМ ДЖИ 24 ЕООД</t>
         </is>
       </c>
       <c r="F255" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>42.59737,23.02295</t>
+          <t>42.707,23.32451</t>
         </is>
       </c>
     </row>
@@ -8354,24 +8354,24 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>1005202305</t>
+          <t>1005459202</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>ДИЕЛ ЕООД</t>
+          <t>ТЕЯМИ ООД</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>42.59617643232653,23.023387088031768</t>
+          <t>42.70687,23.32439</t>
         </is>
       </c>
     </row>
@@ -8385,24 +8385,24 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>1005017302</t>
+          <t>1005487535</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>СИНХРОН ООД</t>
+          <t>А И А ТРЕЙД ООД</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>35</v>
+        <v>1.25</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>42.59797,23.023</t>
+          <t>42.70153,23.33405</t>
         </is>
       </c>
     </row>
@@ -8416,24 +8416,24 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>1005889601</t>
+          <t>1005751802</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>СТИДЕН ЕООД</t>
+          <t>МАКСИ КЕТЪРИНГ ЕООД</t>
         </is>
       </c>
       <c r="F258" t="n">
-        <v>7.5</v>
+        <v>1.25</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>42.5526,22.96619</t>
+          <t>42.69407,23.32928</t>
         </is>
       </c>
     </row>
@@ -8447,24 +8447,24 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>1005698812</t>
+          <t>1001030002</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>ЕКСПАНЖЪН ООД</t>
+          <t>КОМЕ ООД</t>
         </is>
       </c>
       <c r="F259" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>42.54762398127235,22.965606674551964</t>
+          <t>42.6543094,23.397014200000058</t>
         </is>
       </c>
     </row>
@@ -8478,24 +8478,24 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>1005461501</t>
+          <t>1001060014</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>ОЛИНИКС ЕООД</t>
+          <t>345 ООД</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>42.54525,22.96484</t>
+          <t>42.6249628,23.40607669999997</t>
         </is>
       </c>
     </row>
@@ -8509,24 +8509,24 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>1005852002</t>
+          <t>1007004101</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>ГАРАНТ - С ЕООД</t>
+          <t>КРАСИ КАН ЕООД</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>42.54202,22.97067</t>
+          <t>42.54143,23.49765</t>
         </is>
       </c>
     </row>
@@ -8540,24 +8540,24 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>1005202701</t>
+          <t>1005961802</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>В.НИКОЛОВ-САБИНА МАРИЕТА ЕТ</t>
+          <t>ФУУДУЕЙС ЕООД</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>42.540294138988884,22.966933293790816</t>
+          <t>42.66145,23.38024</t>
         </is>
       </c>
     </row>
@@ -8571,24 +8571,24 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>1005598201</t>
+          <t>1005961805</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>ГАБИ - 28 ЕООД</t>
+          <t>ФУУДУЕЙС ЕООД</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>42.54601,22.95897</t>
+          <t>42.67014,23.37162</t>
         </is>
       </c>
     </row>
@@ -8602,24 +8602,24 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>1007297301</t>
+          <t>1005931602</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>АДИ 102020 ЕООД</t>
+          <t>БГ МАПС ООД</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>42.54793,22.95926</t>
+          <t>42.69516,23.32905</t>
         </is>
       </c>
     </row>
@@ -8633,24 +8633,24 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>1003949001</t>
+          <t>1005783309</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>АНИ ПЕТРОВА 21 ЕООД</t>
+          <t>ВЪРБАНОВ И КОВАЧЕВ ООД</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>42.54416,22.95727</t>
+          <t>42.69857,23.31012</t>
         </is>
       </c>
     </row>
@@ -8664,24 +8664,24 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>1005201102</t>
+          <t>1005972607</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>КРА - ГАЛ - ИВ 5 ЕООД</t>
+          <t>МАНДАРИН 33 ЕООД</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>42.52491,22.95815</t>
+          <t>42.70016,23.30993</t>
         </is>
       </c>
     </row>
@@ -8695,24 +8695,24 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>1005928901</t>
+          <t>1007003901</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>МАГА ИВАНОВА ЕТ</t>
+          <t>АНТИВ ТРЕЙД ЕООД</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>10</v>
+        <v>1.25</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>42.52112,22.95335</t>
+          <t>42.69611,23.30866</t>
         </is>
       </c>
     </row>
@@ -8726,24 +8726,24 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>1005372003</t>
+          <t>1007038901</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>КООПЕРАЦИЯ СЪГЛАСИЕ</t>
+          <t>МАГАЗИНЧЕТО 2020 ЕООД</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>42.40173,23.07825</t>
+          <t>42.69716,23.30731</t>
         </is>
       </c>
     </row>
@@ -8757,30 +8757,30 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>1002331201</t>
+          <t>1007997001</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>ФОРС 1990 ЕООД</t>
+          <t>ГИФТ-2019 ЕООД</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>42.44643,23.12013</t>
+          <t>42.69351,23.29736</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
@@ -8788,30 +8788,30 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>1005931602</t>
+          <t>1005356101</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>БГ МАПС ООД</t>
+          <t>АНДИ - АННА ПЕТРОВА ЕТ</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>42.69516,23.32905</t>
+          <t>42.73716,23.3194</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
@@ -8819,24 +8819,24 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>1005961802</t>
+          <t>1001030032</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>ФУУДУЕЙС ЕООД</t>
+          <t>КОМЕ ООД</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>42.66145,23.38024</t>
+          <t>42.95998703256908,23.35085604339838</t>
         </is>
       </c>
     </row>
@@ -8850,24 +8850,24 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>1001030002</t>
+          <t>1003953501</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>КОМЕ ООД</t>
+          <t>СПАСОВА 2022</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>42.6543094,23.397014200000058</t>
+          <t>42.61488,23.06396</t>
         </is>
       </c>
     </row>
@@ -8881,24 +8881,24 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>1001060005</t>
+          <t>1005161101</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>345 ООД</t>
+          <t>ВАЛЕВА-1  ЕООД</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>42.62860686536667,23.37493121623993</t>
+          <t>42.60938,23.04236</t>
         </is>
       </c>
     </row>
@@ -8912,24 +8912,24 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>1005487551</t>
+          <t>1007383601</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>АЛКОХОЛ И ТАБАКОФФ ЕООД</t>
+          <t>ЙО-ЙО КОМЕРС 2025  ЕООД</t>
         </is>
       </c>
       <c r="F274" t="n">
-        <v>1</v>
+        <v>7.5</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>42.62686,23.38385</t>
+          <t>42.60835,23.03973</t>
         </is>
       </c>
     </row>
@@ -8943,24 +8943,24 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>1001060014</t>
+          <t>1007959101</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>345 ООД</t>
+          <t>ПИТ СТОП-2 ЕООД</t>
         </is>
       </c>
       <c r="F275" t="n">
-        <v>0.5</v>
+        <v>7.5</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>42.6249628,23.40607669999997</t>
+          <t>42.61618,23.03292</t>
         </is>
       </c>
     </row>
@@ -8974,24 +8974,24 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>1005114401</t>
+          <t>1007953202</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>ЕМБОРИОН М ЕООД</t>
+          <t>ТЕСИ-АНЕСТИЕВИ ЕООД</t>
         </is>
       </c>
       <c r="F276" t="n">
-        <v>15</v>
+        <v>2.5</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>42.65228887177595,23.462392687797543</t>
+          <t>42.61608,23.0328</t>
         </is>
       </c>
     </row>
@@ -9005,24 +9005,24 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>1005589401</t>
+          <t>1005324404</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>СЕЛ ООД</t>
+          <t>РЕА 09 ЕООД</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>42.65975,23.52636</t>
+          <t>42.61675,23.02717</t>
         </is>
       </c>
     </row>
@@ -9036,24 +9036,24 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>1005124408</t>
+          <t>1007387101</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>НИКО - 2 ООД</t>
+          <t>ЕТ БОЙКА АНДОНОВА-ЖЕКОВЕЦА</t>
         </is>
       </c>
       <c r="F278" t="n">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>42.66714,23.52625</t>
+          <t>42.61223,23.04709</t>
         </is>
       </c>
     </row>
@@ -9067,24 +9067,24 @@
         </is>
       </c>
       <c r="C279" t="n">
+        <v>8</v>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>1007325002</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>МБМ-13 ЕООД</t>
+        </is>
+      </c>
+      <c r="F279" t="n">
         <v>10</v>
       </c>
-      <c r="D279" t="inlineStr">
-        <is>
-          <t>1007195201</t>
-        </is>
-      </c>
-      <c r="E279" t="inlineStr">
-        <is>
-          <t>Г И Е ЧАКЪРОВИ ЕООД</t>
-        </is>
-      </c>
-      <c r="F279" t="n">
-        <v>1</v>
-      </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>42.6673,23.52717</t>
+          <t>42.60679,23.04742</t>
         </is>
       </c>
     </row>
@@ -9098,24 +9098,24 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>1007240901</t>
+          <t>1007097701</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>ФОКС 2013 ООД</t>
+          <t>БАРСА 2020 ЕООД</t>
         </is>
       </c>
       <c r="F280" t="n">
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>42.68187,23.56795</t>
+          <t>42.58857,23.05202</t>
         </is>
       </c>
     </row>
@@ -9129,24 +9129,24 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>1005077401</t>
+          <t>1005696301</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>САМАРКО- ВАСИЛ КРЪСТАНОВ   ЕТ</t>
+          <t>СИЛВАНА - 91 - СИЛВИЯ ЗАХАРИЕВА ЕТ</t>
         </is>
       </c>
       <c r="F281" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>42.69982372984965,23.492229177207946</t>
+          <t>42.59167,23.03573</t>
         </is>
       </c>
     </row>
@@ -9160,24 +9160,24 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>1001150503</t>
+          <t>1005698809</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>ВАСИЛКА БГ ЕООД</t>
+          <t>ЕКСПАНЖЪН ООД</t>
         </is>
       </c>
       <c r="F282" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>42.6999147392701,23.49207267165184</t>
+          <t>42.60459,23.03078</t>
         </is>
       </c>
     </row>
@@ -9191,24 +9191,24 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>1005812305</t>
+          <t>1005788814</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>САКСА ООД</t>
+          <t>МЕДЕНАТА ПИТКА 2024 ООД</t>
         </is>
       </c>
       <c r="F283" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>42.75537,23.55904</t>
+          <t>42.60498,23.03416</t>
         </is>
       </c>
     </row>
@@ -9222,24 +9222,24 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>1005852702</t>
+          <t>1005828602</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>ЯНЧЕВ И СИНОВЕ ЕООД</t>
+          <t>САНДРИНА ЕООД</t>
         </is>
       </c>
       <c r="F284" t="n">
-        <v>0.167</v>
+        <v>5</v>
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>42.76333,23.56445</t>
+          <t>42.6095,23.03581</t>
         </is>
       </c>
     </row>
@@ -9253,24 +9253,24 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>1005364204</t>
+          <t>1005161904</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>КАРОЛИНА ТРЕЙД ЕООД</t>
+          <t>НИКАР ГРУП ЕООД</t>
         </is>
       </c>
       <c r="F285" t="n">
-        <v>6</v>
+        <v>18.75</v>
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>42.76511,23.56643</t>
+          <t>42.60999,23.03389</t>
         </is>
       </c>
     </row>
@@ -9284,24 +9284,24 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>1005752404</t>
+          <t>1005373201</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>ИВАН ДАКОВ ЕООД</t>
+          <t>РАВАС 8 ООД</t>
         </is>
       </c>
       <c r="F286" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>42.76512,23.56772</t>
+          <t>42.60722,23.03026</t>
         </is>
       </c>
     </row>
@@ -9315,24 +9315,24 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>1007139601</t>
+          <t>1005849101</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>МАРИО ТОНЕВ ЕООД</t>
+          <t>ИВИ - 2015 ЕООД</t>
         </is>
       </c>
       <c r="F287" t="n">
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>42.73239,23.55706</t>
+          <t>42.60722,23.03077</t>
         </is>
       </c>
     </row>
@@ -9346,24 +9346,24 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>1005090210</t>
+          <t>1007366401</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>ВКУСНА ХРАНА ЕООД</t>
+          <t>МЕРКУРИЙ- 78 -КИРИЛОВИ С-ИЕ СД</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>42.73226,23.55787</t>
+          <t>42.60797,23.03071</t>
         </is>
       </c>
     </row>
@@ -9377,24 +9377,24 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>1005735901</t>
+          <t>1005948801</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>ГЕОРГИ ВАРАДИНОВ - 83 ЕООД</t>
+          <t>ЗАРКО ТАБАКОС ООД</t>
         </is>
       </c>
       <c r="F289" t="n">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>42.73187,23.55824</t>
+          <t>42.608,23.0315</t>
         </is>
       </c>
     </row>
@@ -9408,24 +9408,24 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>1001150306</t>
+          <t>1005690602</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>БРИЛЯНТ - 34 ЕООД</t>
+          <t>ЕВРОКОМЕРС 2018 ЕООД</t>
         </is>
       </c>
       <c r="F290" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>42.72084,23.53</t>
+          <t>42.60391,23.03257</t>
         </is>
       </c>
     </row>
@@ -9439,24 +9439,24 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>1007055201</t>
+          <t>1005202304</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>СТЕФАН ГРОЗДАНОВ 2012 ЕООД</t>
+          <t>ДИЕЛ ЕООД</t>
         </is>
       </c>
       <c r="F291" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>42.72025,23.52763</t>
+          <t>42.60347,23.03058</t>
         </is>
       </c>
     </row>
@@ -9470,24 +9470,24 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>1005752403</t>
+          <t>1007183501</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>ИВАН ДАКОВ ЕООД</t>
+          <t>И-ВАЙЛ КЕТЪРИНГ 2012 ООД</t>
         </is>
       </c>
       <c r="F292" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>42.7385,23.51592</t>
+          <t>42.60426,23.02905</t>
         </is>
       </c>
     </row>
@@ -9501,24 +9501,24 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>1007010201</t>
+          <t>1005896505</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>ДЕНИС 2014 - МАРИЯНА СТАНЧЕВА ЕТ</t>
+          <t>НЕЛАН ЕООД</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>42.73799,23.51645</t>
+          <t>42.60369,23.02857</t>
         </is>
       </c>
     </row>
@@ -9532,24 +9532,24 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>1007984601</t>
+          <t>1005202302</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>ШАНС-ВАЛЕНТИНА ВЕЛЬОВА ЕТ</t>
+          <t>ДИЕЛ ЕООД</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>42.73735,23.51552</t>
+          <t>42.6014550888148,23.02548699080944</t>
         </is>
       </c>
     </row>
@@ -9563,24 +9563,24 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>1007005001</t>
+          <t>1005324402</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>ЗАФИРИС - РОСИЦА МИХАЙЛОВА ЕТ</t>
+          <t>РЕА 09 ЕООД</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>42.73597,23.51428</t>
+          <t>42.59737,23.02295</t>
         </is>
       </c>
     </row>
@@ -9594,24 +9594,24 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>1007322401</t>
+          <t>1005202305</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>ЦВЕТИ 1988 ЕООД</t>
+          <t>ДИЕЛ ЕООД</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>42.73659,23.5141</t>
+          <t>42.59617643232653,23.023387088031768</t>
         </is>
       </c>
     </row>
@@ -9625,24 +9625,24 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>1005390604</t>
+          <t>1005017302</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>МАРКЕТ МЕГА ЕООД</t>
+          <t>СИНХРОН ООД</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>1</v>
+        <v>87.5</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>42.73667,23.51395</t>
+          <t>42.59797,23.023</t>
         </is>
       </c>
     </row>
@@ -9656,24 +9656,24 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>1007128201</t>
+          <t>1005889601</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>ЛЮСИЕН КОМЕРС ЕООД</t>
+          <t>СТИДЕН ЕООД</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>2</v>
+        <v>18.75</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>42.73674,23.51376</t>
+          <t>42.5526,22.96619</t>
         </is>
       </c>
     </row>
@@ -9687,24 +9687,24 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>1005954903</t>
+          <t>1005698812</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>ИВ-КАМЕЯ ЕООД</t>
+          <t>ЕКСПАНЖЪН ООД</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>42.73584,23.51286</t>
+          <t>42.54762398127235,22.965606674551964</t>
         </is>
       </c>
     </row>
@@ -9718,24 +9718,24 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>1001150502</t>
+          <t>1005461501</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>ВАСИЛКА БГ ЕООД</t>
+          <t>ОЛИНИКС ЕООД</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>42.73909,23.51197</t>
+          <t>42.54525,22.96484</t>
         </is>
       </c>
     </row>
@@ -9749,24 +9749,24 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>1005290301</t>
+          <t>1005852002</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>ГЕРИ - ГЕРГИНА ИЛИЕВА ЕТ</t>
+          <t>ГАРАНТ - С ЕООД</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>42.74167,23.51132</t>
+          <t>42.54202,22.97067</t>
         </is>
       </c>
     </row>
@@ -9780,24 +9780,24 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>1005390603</t>
+          <t>1005202701</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>МАРКЕТ МЕГА ЕООД</t>
+          <t>В.НИКОЛОВ-САБИНА МАРИЕТА ЕТ</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>11</v>
+        <v>18.75</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>42.73888,23.50748</t>
+          <t>42.540294138988884,22.966933293790816</t>
         </is>
       </c>
     </row>
@@ -9811,24 +9811,24 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>1005130301</t>
+          <t>1005598201</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>ЕРАМ-А ЕООД</t>
+          <t>ГАБИ - 28 ЕООД</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>42.731973561176915,23.47536881134033</t>
+          <t>42.54601,22.95897</t>
         </is>
       </c>
     </row>
@@ -9842,24 +9842,24 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>1001150308</t>
+          <t>1007297301</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>БРИЛЯНТ - 34 ЕООД</t>
+          <t>АДИ 102020 ЕООД</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>1</v>
+        <v>7.5</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>42.73239206440237,23.473511449992657</t>
+          <t>42.54793,22.95926</t>
         </is>
       </c>
     </row>
@@ -9873,24 +9873,24 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>1005070602</t>
+          <t>1003949001</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>КАРМОНИ ЕООД</t>
+          <t>АНИ ПЕТРОВА 21 ЕООД</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>42.73242,23.47001</t>
+          <t>42.54416,22.95727</t>
         </is>
       </c>
     </row>
@@ -9904,24 +9904,24 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>1005798410</t>
+          <t>1005201102</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>ИНТЕРСПИЙД ЕООД</t>
+          <t>КРА - ГАЛ - ИВ 5 ЕООД</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>42.70896,23.42805</t>
+          <t>42.52491,22.95815</t>
         </is>
       </c>
     </row>
@@ -9935,24 +9935,24 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>1007252601</t>
+          <t>1005928901</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>ХЕМУС 50 ООД</t>
+          <t>МАГА ИВАНОВА ЕТ</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>42.69456,23.33075</t>
+          <t>42.52112,22.95335</t>
         </is>
       </c>
     </row>
@@ -9966,24 +9966,55 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>1005052302</t>
+          <t>1005372003</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>ДЕШЕВ ЕООД</t>
+          <t>КООПЕРАЦИЯ СЪГЛАСИЕ</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>42.69956,23.30262</t>
+          <t>42.40173,23.07825</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>8</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Външен автобус</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>38</v>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>1002331201</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>ФОРС 1990 ЕООД</t>
+        </is>
+      </c>
+      <c r="F309" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>42.44643,23.12013</t>
         </is>
       </c>
     </row>
